--- a/Code/Results/Cases/Case_4_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_1/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9995959830013522</v>
+        <v>0.9995959830013528</v>
       </c>
       <c r="D2">
-        <v>1.017156785748392</v>
+        <v>1.017156785748393</v>
       </c>
       <c r="E2">
-        <v>1.009573311292324</v>
+        <v>1.009573311292325</v>
       </c>
       <c r="F2">
-        <v>1.012515296287085</v>
+        <v>1.012515296287086</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -445,10 +445,10 @@
         <v>1.028382163885392</v>
       </c>
       <c r="L2">
-        <v>1.020900866577075</v>
+        <v>1.020900866577076</v>
       </c>
       <c r="M2">
-        <v>1.023802983783542</v>
+        <v>1.023802983783543</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -465,7 +465,7 @@
         <v>1.023156346065597</v>
       </c>
       <c r="E3">
-        <v>1.017094111575278</v>
+        <v>1.017094111575279</v>
       </c>
       <c r="F3">
         <v>1.02052844563946</v>
@@ -483,7 +483,7 @@
         <v>1.033501268301606</v>
       </c>
       <c r="L3">
-        <v>1.027512844083311</v>
+        <v>1.027512844083312</v>
       </c>
       <c r="M3">
         <v>1.030905229879682</v>
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012565392254486</v>
+        <v>1.012565392254487</v>
       </c>
       <c r="D4">
         <v>1.02691240056858</v>
       </c>
       <c r="E4">
-        <v>1.021805936494548</v>
+        <v>1.021805936494549</v>
       </c>
       <c r="F4">
         <v>1.025549617306774</v>
@@ -521,7 +521,7 @@
         <v>1.036696514573172</v>
       </c>
       <c r="L4">
-        <v>1.031648118124916</v>
+        <v>1.031648118124917</v>
       </c>
       <c r="M4">
         <v>1.03534915831815</v>
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.0146257487662</v>
+        <v>1.014625748766199</v>
       </c>
       <c r="D5">
         <v>1.028462995475394</v>
       </c>
       <c r="E5">
-        <v>1.023751993840744</v>
+        <v>1.023751993840743</v>
       </c>
       <c r="F5">
-        <v>1.027623676986301</v>
+        <v>1.0276236769863</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.050638840367495</v>
       </c>
       <c r="J5">
-        <v>1.033217240726541</v>
+        <v>1.03321724072654</v>
       </c>
       <c r="K5">
         <v>1.038013315521096</v>
       </c>
       <c r="L5">
-        <v>1.033354329874151</v>
+        <v>1.03335432987415</v>
       </c>
       <c r="M5">
-        <v>1.037183221371119</v>
+        <v>1.037183221371118</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,13 +573,13 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014969517242935</v>
+        <v>1.014969517242934</v>
       </c>
       <c r="D6">
         <v>1.028721726183003</v>
       </c>
       <c r="E6">
-        <v>1.024076766027128</v>
+        <v>1.024076766027127</v>
       </c>
       <c r="F6">
         <v>1.027969825764646</v>
@@ -591,16 +591,16 @@
         <v>1.050767144336062</v>
       </c>
       <c r="J6">
-        <v>1.033478139472103</v>
+        <v>1.033478139472102</v>
       </c>
       <c r="K6">
-        <v>1.038232902244706</v>
+        <v>1.038232902244705</v>
       </c>
       <c r="L6">
         <v>1.033638973610487</v>
       </c>
       <c r="M6">
-        <v>1.037489224109241</v>
+        <v>1.03748922410924</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01259306997988</v>
+        <v>1.012593069979883</v>
       </c>
       <c r="D7">
-        <v>1.026933229315259</v>
+        <v>1.026933229315261</v>
       </c>
       <c r="E7">
-        <v>1.02183207373328</v>
+        <v>1.021832073733283</v>
       </c>
       <c r="F7">
-        <v>1.025577472757391</v>
+        <v>1.025577472757393</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049878925219577</v>
+        <v>1.049878925219579</v>
       </c>
       <c r="J7">
-        <v>1.031674063729105</v>
+        <v>1.031674063729108</v>
       </c>
       <c r="K7">
-        <v>1.036714211817687</v>
+        <v>1.036714211817689</v>
       </c>
       <c r="L7">
-        <v>1.031671040845946</v>
+        <v>1.031671040845948</v>
       </c>
       <c r="M7">
-        <v>1.035373796703079</v>
+        <v>1.035373796703081</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.002328806733358</v>
+        <v>1.002328806733359</v>
       </c>
       <c r="D8">
-        <v>1.019211560378065</v>
+        <v>1.019211560378066</v>
       </c>
       <c r="E8">
-        <v>1.01214842734017</v>
+        <v>1.012148427340171</v>
       </c>
       <c r="F8">
-        <v>1.015258820420389</v>
+        <v>1.015258820420391</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,13 +667,13 @@
         <v>1.04601091288372</v>
       </c>
       <c r="J8">
-        <v>1.023869670260802</v>
+        <v>1.023869670260803</v>
       </c>
       <c r="K8">
-        <v>1.030137438166958</v>
+        <v>1.030137438166959</v>
       </c>
       <c r="L8">
-        <v>1.02316631701221</v>
+        <v>1.023166317012211</v>
       </c>
       <c r="M8">
         <v>1.026235993224476</v>
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9828137436305288</v>
+        <v>0.9828137436305279</v>
       </c>
       <c r="D9">
-        <v>1.004552274135301</v>
+        <v>1.0045522741353</v>
       </c>
       <c r="E9">
-        <v>0.99378783211908</v>
+        <v>0.9937878321190794</v>
       </c>
       <c r="F9">
-        <v>0.9957001845641059</v>
+        <v>0.9957001845641054</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.038538128244196</v>
       </c>
       <c r="J9">
-        <v>1.008988339205344</v>
+        <v>1.008988339205343</v>
       </c>
       <c r="K9">
-        <v>1.017571923126062</v>
+        <v>1.017571923126061</v>
       </c>
       <c r="L9">
         <v>1.006982507955503</v>
       </c>
       <c r="M9">
-        <v>1.008863410631708</v>
+        <v>1.008863410631707</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9686417234004439</v>
+        <v>0.9686417234004452</v>
       </c>
       <c r="D10">
-        <v>0.9939318120265058</v>
+        <v>0.9939318120265072</v>
       </c>
       <c r="E10">
-        <v>0.9804950524542602</v>
+        <v>0.9804950524542621</v>
       </c>
       <c r="F10">
-        <v>0.9815420423160456</v>
+        <v>0.9815420423160472</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033035211924104</v>
+        <v>1.033035211924105</v>
       </c>
       <c r="J10">
-        <v>0.9981572112363518</v>
+        <v>0.9981572112363531</v>
       </c>
       <c r="K10">
-        <v>1.008411500703666</v>
+        <v>1.008411500703667</v>
       </c>
       <c r="L10">
-        <v>0.9952256371142508</v>
+        <v>0.9952256371142527</v>
       </c>
       <c r="M10">
-        <v>0.9962527545855445</v>
+        <v>0.9962527545855464</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9621748872326361</v>
+        <v>0.9621748872326369</v>
       </c>
       <c r="D11">
-        <v>0.9890943429920644</v>
+        <v>0.9890943429920651</v>
       </c>
       <c r="E11">
-        <v>0.9744408081740187</v>
+        <v>0.9744408081740195</v>
       </c>
       <c r="F11">
-        <v>0.9750935894204814</v>
+        <v>0.975093589420482</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.030507387891255</v>
       </c>
       <c r="J11">
-        <v>0.9932105214686834</v>
+        <v>0.9932105214686842</v>
       </c>
       <c r="K11">
         <v>1.00422489682154</v>
       </c>
       <c r="L11">
-        <v>0.989861384740359</v>
+        <v>0.98986138474036</v>
       </c>
       <c r="M11">
-        <v>0.9905010019070336</v>
+        <v>0.9905010019070343</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9597176540355244</v>
+        <v>0.9597176540355254</v>
       </c>
       <c r="D12">
-        <v>0.9872578141823427</v>
+        <v>0.9872578141823434</v>
       </c>
       <c r="E12">
-        <v>0.972142225780975</v>
+        <v>0.9721422257809761</v>
       </c>
       <c r="F12">
-        <v>0.9726452736531576</v>
+        <v>0.9726452736531587</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029544485071001</v>
+        <v>1.029544485071002</v>
       </c>
       <c r="J12">
-        <v>0.9913303934747183</v>
+        <v>0.9913303934747192</v>
       </c>
       <c r="K12">
-        <v>1.002633274826098</v>
+        <v>1.002633274826099</v>
       </c>
       <c r="L12">
-        <v>0.9878233320725132</v>
+        <v>0.9878233320725143</v>
       </c>
       <c r="M12">
-        <v>0.9883160063197743</v>
+        <v>0.9883160063197752</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9602473338242246</v>
+        <v>0.9602473338242236</v>
       </c>
       <c r="D13">
-        <v>0.9876536190123737</v>
+        <v>0.9876536190123725</v>
       </c>
       <c r="E13">
-        <v>0.9726376193583783</v>
+        <v>0.9726376193583771</v>
       </c>
       <c r="F13">
-        <v>0.9731729419228453</v>
+        <v>0.9731729419228441</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02975215360036</v>
+        <v>1.029752153600359</v>
       </c>
       <c r="J13">
-        <v>0.9917356934279232</v>
+        <v>0.991735693427922</v>
       </c>
       <c r="K13">
-        <v>1.00297639785795</v>
+        <v>1.002976397857949</v>
       </c>
       <c r="L13">
-        <v>0.9882626407317281</v>
+        <v>0.9882626407317266</v>
       </c>
       <c r="M13">
-        <v>0.9887869767910322</v>
+        <v>0.988786976791031</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9619729320816336</v>
+        <v>0.9619729320816351</v>
       </c>
       <c r="D14">
-        <v>0.9889433685038639</v>
+        <v>0.9889433685038646</v>
       </c>
       <c r="E14">
-        <v>0.9742518531879476</v>
+        <v>0.9742518531879492</v>
       </c>
       <c r="F14">
-        <v>0.9748923272866392</v>
+        <v>0.9748923272866403</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030428296494167</v>
+        <v>1.030428296494168</v>
       </c>
       <c r="J14">
-        <v>0.993056006948844</v>
+        <v>0.9930560069488451</v>
       </c>
       <c r="K14">
-        <v>1.004094100052811</v>
+        <v>1.004094100052812</v>
       </c>
       <c r="L14">
-        <v>0.9896938756985086</v>
+        <v>0.9896938756985102</v>
       </c>
       <c r="M14">
-        <v>0.9903214099985505</v>
+        <v>0.9903214099985518</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9630286397486023</v>
+        <v>0.9630286397486005</v>
       </c>
       <c r="D15">
-        <v>0.9897326440723562</v>
+        <v>0.9897326440723546</v>
       </c>
       <c r="E15">
-        <v>0.9752396804981979</v>
+        <v>0.9752396804981962</v>
       </c>
       <c r="F15">
-        <v>0.9759444914166141</v>
+        <v>0.9759444914166122</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030841645392889</v>
+        <v>1.030841645392888</v>
       </c>
       <c r="J15">
-        <v>0.9938637018578776</v>
+        <v>0.9938637018578761</v>
       </c>
       <c r="K15">
-        <v>1.004777799676394</v>
+        <v>1.004777799676392</v>
       </c>
       <c r="L15">
-        <v>0.9905695286559145</v>
+        <v>0.990569528655913</v>
       </c>
       <c r="M15">
-        <v>0.9912602373300184</v>
+        <v>0.9912602373300167</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9690634940701855</v>
+        <v>0.969063494070187</v>
       </c>
       <c r="D16">
-        <v>0.9942475168915793</v>
+        <v>0.9942475168915806</v>
       </c>
       <c r="E16">
-        <v>0.9808901618089767</v>
+        <v>0.9808901618089785</v>
       </c>
       <c r="F16">
-        <v>0.9819628723398331</v>
+        <v>0.9819628723398345</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033199742192559</v>
+        <v>1.03319974219256</v>
       </c>
       <c r="J16">
-        <v>0.9984797589509719</v>
+        <v>0.9984797589509734</v>
       </c>
       <c r="K16">
-        <v>1.008684431085376</v>
+        <v>1.008684431085377</v>
       </c>
       <c r="L16">
-        <v>0.9955755194127516</v>
+        <v>0.9955755194127532</v>
       </c>
       <c r="M16">
-        <v>0.9966279516257684</v>
+        <v>0.9966279516257697</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9727569279769274</v>
+        <v>0.9727569279769287</v>
       </c>
       <c r="D17">
-        <v>0.9970131476623064</v>
+        <v>0.9970131476623078</v>
       </c>
       <c r="E17">
-        <v>0.9843514196342864</v>
+        <v>0.9843514196342877</v>
       </c>
       <c r="F17">
-        <v>0.9856494354079529</v>
+        <v>0.9856494354079541</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034638657140101</v>
+        <v>1.034638657140102</v>
       </c>
       <c r="J17">
-        <v>1.001303827845405</v>
+        <v>1.001303827845406</v>
       </c>
       <c r="K17">
-        <v>1.011073750684503</v>
+        <v>1.011073750684504</v>
       </c>
       <c r="L17">
-        <v>0.9986395035513933</v>
+        <v>0.9986395035513947</v>
       </c>
       <c r="M17">
-        <v>0.9999138492710787</v>
+        <v>0.9999138492710801</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9748797974109155</v>
+        <v>0.9748797974109149</v>
       </c>
       <c r="D18">
-        <v>0.9986035443966031</v>
+        <v>0.9986035443966026</v>
       </c>
       <c r="E18">
-        <v>0.9863418941112483</v>
+        <v>0.9863418941112475</v>
       </c>
       <c r="F18">
-        <v>0.9877694735264014</v>
+        <v>0.9877694735264005</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.035464121857564</v>
       </c>
       <c r="J18">
-        <v>1.002926598409314</v>
+        <v>1.002926598409313</v>
       </c>
       <c r="K18">
         <v>1.012446426098438</v>
       </c>
       <c r="L18">
-        <v>1.000400623873281</v>
+        <v>1.00040062387328</v>
       </c>
       <c r="M18">
-        <v>1.001802715073416</v>
+        <v>1.001802715073415</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9755984615165988</v>
+        <v>0.9755984615165965</v>
       </c>
       <c r="D19">
-        <v>0.9991420764114157</v>
+        <v>0.9991420764114141</v>
       </c>
       <c r="E19">
-        <v>0.987015912008259</v>
+        <v>0.9870159120082567</v>
       </c>
       <c r="F19">
-        <v>0.9884873654348055</v>
+        <v>0.9884873654348032</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035743298739833</v>
+        <v>1.035743298739832</v>
       </c>
       <c r="J19">
-        <v>1.003475887648138</v>
+        <v>1.003475887648135</v>
       </c>
       <c r="K19">
-        <v>1.012911012141569</v>
+        <v>1.012911012141567</v>
       </c>
       <c r="L19">
-        <v>1.000996826056568</v>
+        <v>1.000996826056565</v>
       </c>
       <c r="M19">
-        <v>1.002442197289965</v>
+        <v>1.002442197289963</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.050000000000001</v>
       </c>
       <c r="C20">
-        <v>0.9723639476182263</v>
+        <v>0.9723639476182278</v>
       </c>
       <c r="D20">
-        <v>0.9967188003637695</v>
+        <v>0.9967188003637709</v>
       </c>
       <c r="E20">
-        <v>0.9839830321660494</v>
+        <v>0.9839830321660511</v>
       </c>
       <c r="F20">
-        <v>0.9852570690234667</v>
+        <v>0.9852570690234679</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03448572030228</v>
+        <v>1.034485720302282</v>
       </c>
       <c r="J20">
-        <v>1.001003389957541</v>
+        <v>1.001003389957543</v>
       </c>
       <c r="K20">
-        <v>1.01081959213302</v>
+        <v>1.010819592133021</v>
       </c>
       <c r="L20">
-        <v>0.9983134914668637</v>
+        <v>0.9983134914668654</v>
       </c>
       <c r="M20">
-        <v>0.9995642053121644</v>
+        <v>0.9995642053121655</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9614663581186118</v>
+        <v>0.9614663581186128</v>
       </c>
       <c r="D21">
-        <v>0.9885646982912634</v>
+        <v>0.9885646982912646</v>
       </c>
       <c r="E21">
-        <v>0.9737779189179127</v>
+        <v>0.9737779189179138</v>
       </c>
       <c r="F21">
-        <v>0.9743875231340841</v>
+        <v>0.9743875231340849</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030229869691707</v>
+        <v>1.030229869691708</v>
       </c>
       <c r="J21">
-        <v>0.9926684229255947</v>
+        <v>0.9926684229255955</v>
       </c>
       <c r="K21">
-        <v>1.003766003609852</v>
+        <v>1.003766003609853</v>
       </c>
       <c r="L21">
-        <v>0.9892737087726848</v>
+        <v>0.9892737087726858</v>
       </c>
       <c r="M21">
-        <v>0.9898709397441285</v>
+        <v>0.9898709397441294</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9542920266055671</v>
+        <v>0.9542920266055693</v>
       </c>
       <c r="D22">
-        <v>0.9832059818425178</v>
+        <v>0.9832059818425196</v>
       </c>
       <c r="E22">
-        <v>0.9670705761521495</v>
+        <v>0.9670705761521518</v>
       </c>
       <c r="F22">
-        <v>0.9672430580472363</v>
+        <v>0.9672430580472388</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027414106291967</v>
+        <v>1.027414106291968</v>
       </c>
       <c r="J22">
-        <v>0.9871782548023333</v>
+        <v>0.9871782548023355</v>
       </c>
       <c r="K22">
-        <v>0.9991176378040765</v>
+        <v>0.9991176378040785</v>
       </c>
       <c r="L22">
-        <v>0.9833238667953343</v>
+        <v>0.9833238667953366</v>
       </c>
       <c r="M22">
-        <v>0.9834926167362926</v>
+        <v>0.9834926167362951</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9581279464632005</v>
+        <v>0.958127946463199</v>
       </c>
       <c r="D23">
-        <v>0.9860701558599503</v>
+        <v>0.9860701558599491</v>
       </c>
       <c r="E23">
-        <v>0.9706557092754722</v>
+        <v>0.9706557092754703</v>
       </c>
       <c r="F23">
-        <v>0.9710618968031054</v>
+        <v>0.9710618968031035</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028920877349151</v>
+        <v>1.02892087734915</v>
       </c>
       <c r="J23">
-        <v>0.990113919173966</v>
+        <v>0.9901139191739641</v>
       </c>
       <c r="K23">
-        <v>1.001603367545918</v>
+        <v>1.001603367545916</v>
       </c>
       <c r="L23">
-        <v>0.9865048976907002</v>
+        <v>0.9865048976906985</v>
       </c>
       <c r="M23">
-        <v>0.9869025887411663</v>
+        <v>0.9869025887411645</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9725416153015225</v>
+        <v>0.9725416153015236</v>
       </c>
       <c r="D24">
-        <v>0.9968518732577489</v>
+        <v>0.9968518732577499</v>
       </c>
       <c r="E24">
-        <v>0.9841495780637174</v>
+        <v>0.9841495780637184</v>
       </c>
       <c r="F24">
-        <v>0.985434455660068</v>
+        <v>0.9854344556600688</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034554868454949</v>
+        <v>1.03455486845495</v>
       </c>
       <c r="J24">
-        <v>1.001139220193604</v>
+        <v>1.001139220193605</v>
       </c>
       <c r="K24">
-        <v>1.010934500003221</v>
+        <v>1.010934500003222</v>
       </c>
       <c r="L24">
-        <v>0.998460882468225</v>
+        <v>0.998460882468226</v>
       </c>
       <c r="M24">
-        <v>0.9997222797474073</v>
+        <v>0.9997222797474079</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9880472379676719</v>
+        <v>0.9880472379676712</v>
       </c>
       <c r="D25">
-        <v>1.008480091837955</v>
+        <v>1.008480091837954</v>
       </c>
       <c r="E25">
-        <v>0.9987053011189245</v>
+        <v>0.998705301118924</v>
       </c>
       <c r="F25">
-        <v>1.000938023317191</v>
+        <v>1.00093802331719</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.040555408116765</v>
       </c>
       <c r="J25">
-        <v>1.012983666337404</v>
+        <v>1.012983666337403</v>
       </c>
       <c r="K25">
         <v>1.020948176307795</v>
       </c>
       <c r="L25">
-        <v>1.011323748922957</v>
+        <v>1.011323748922956</v>
       </c>
       <c r="M25">
-        <v>1.013521795112997</v>
+        <v>1.013521795112996</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_1/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9995959830013528</v>
+        <v>0.9995959830013522</v>
       </c>
       <c r="D2">
-        <v>1.017156785748393</v>
+        <v>1.017156785748392</v>
       </c>
       <c r="E2">
-        <v>1.009573311292325</v>
+        <v>1.009573311292324</v>
       </c>
       <c r="F2">
-        <v>1.012515296287086</v>
+        <v>1.012515296287085</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -445,10 +445,10 @@
         <v>1.028382163885392</v>
       </c>
       <c r="L2">
-        <v>1.020900866577076</v>
+        <v>1.020900866577075</v>
       </c>
       <c r="M2">
-        <v>1.023802983783543</v>
+        <v>1.023802983783542</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -465,7 +465,7 @@
         <v>1.023156346065597</v>
       </c>
       <c r="E3">
-        <v>1.017094111575279</v>
+        <v>1.017094111575278</v>
       </c>
       <c r="F3">
         <v>1.02052844563946</v>
@@ -483,7 +483,7 @@
         <v>1.033501268301606</v>
       </c>
       <c r="L3">
-        <v>1.027512844083312</v>
+        <v>1.027512844083311</v>
       </c>
       <c r="M3">
         <v>1.030905229879682</v>
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012565392254487</v>
+        <v>1.012565392254486</v>
       </c>
       <c r="D4">
         <v>1.02691240056858</v>
       </c>
       <c r="E4">
-        <v>1.021805936494549</v>
+        <v>1.021805936494548</v>
       </c>
       <c r="F4">
         <v>1.025549617306774</v>
@@ -521,7 +521,7 @@
         <v>1.036696514573172</v>
       </c>
       <c r="L4">
-        <v>1.031648118124917</v>
+        <v>1.031648118124916</v>
       </c>
       <c r="M4">
         <v>1.03534915831815</v>
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014625748766199</v>
+        <v>1.0146257487662</v>
       </c>
       <c r="D5">
         <v>1.028462995475394</v>
       </c>
       <c r="E5">
-        <v>1.023751993840743</v>
+        <v>1.023751993840744</v>
       </c>
       <c r="F5">
-        <v>1.0276236769863</v>
+        <v>1.027623676986301</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.050638840367495</v>
       </c>
       <c r="J5">
-        <v>1.03321724072654</v>
+        <v>1.033217240726541</v>
       </c>
       <c r="K5">
         <v>1.038013315521096</v>
       </c>
       <c r="L5">
-        <v>1.03335432987415</v>
+        <v>1.033354329874151</v>
       </c>
       <c r="M5">
-        <v>1.037183221371118</v>
+        <v>1.037183221371119</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,13 +573,13 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014969517242934</v>
+        <v>1.014969517242935</v>
       </c>
       <c r="D6">
         <v>1.028721726183003</v>
       </c>
       <c r="E6">
-        <v>1.024076766027127</v>
+        <v>1.024076766027128</v>
       </c>
       <c r="F6">
         <v>1.027969825764646</v>
@@ -591,16 +591,16 @@
         <v>1.050767144336062</v>
       </c>
       <c r="J6">
-        <v>1.033478139472102</v>
+        <v>1.033478139472103</v>
       </c>
       <c r="K6">
-        <v>1.038232902244705</v>
+        <v>1.038232902244706</v>
       </c>
       <c r="L6">
         <v>1.033638973610487</v>
       </c>
       <c r="M6">
-        <v>1.03748922410924</v>
+        <v>1.037489224109241</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.012593069979883</v>
+        <v>1.01259306997988</v>
       </c>
       <c r="D7">
-        <v>1.026933229315261</v>
+        <v>1.026933229315259</v>
       </c>
       <c r="E7">
-        <v>1.021832073733283</v>
+        <v>1.02183207373328</v>
       </c>
       <c r="F7">
-        <v>1.025577472757393</v>
+        <v>1.025577472757391</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049878925219579</v>
+        <v>1.049878925219577</v>
       </c>
       <c r="J7">
-        <v>1.031674063729108</v>
+        <v>1.031674063729105</v>
       </c>
       <c r="K7">
-        <v>1.036714211817689</v>
+        <v>1.036714211817687</v>
       </c>
       <c r="L7">
-        <v>1.031671040845948</v>
+        <v>1.031671040845946</v>
       </c>
       <c r="M7">
-        <v>1.035373796703081</v>
+        <v>1.035373796703079</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.002328806733359</v>
+        <v>1.002328806733358</v>
       </c>
       <c r="D8">
-        <v>1.019211560378066</v>
+        <v>1.019211560378065</v>
       </c>
       <c r="E8">
-        <v>1.012148427340171</v>
+        <v>1.01214842734017</v>
       </c>
       <c r="F8">
-        <v>1.015258820420391</v>
+        <v>1.015258820420389</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,13 +667,13 @@
         <v>1.04601091288372</v>
       </c>
       <c r="J8">
-        <v>1.023869670260803</v>
+        <v>1.023869670260802</v>
       </c>
       <c r="K8">
-        <v>1.030137438166959</v>
+        <v>1.030137438166958</v>
       </c>
       <c r="L8">
-        <v>1.023166317012211</v>
+        <v>1.02316631701221</v>
       </c>
       <c r="M8">
         <v>1.026235993224476</v>
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9828137436305279</v>
+        <v>0.9828137436305288</v>
       </c>
       <c r="D9">
-        <v>1.0045522741353</v>
+        <v>1.004552274135301</v>
       </c>
       <c r="E9">
-        <v>0.9937878321190794</v>
+        <v>0.99378783211908</v>
       </c>
       <c r="F9">
-        <v>0.9957001845641054</v>
+        <v>0.9957001845641059</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.038538128244196</v>
       </c>
       <c r="J9">
-        <v>1.008988339205343</v>
+        <v>1.008988339205344</v>
       </c>
       <c r="K9">
-        <v>1.017571923126061</v>
+        <v>1.017571923126062</v>
       </c>
       <c r="L9">
         <v>1.006982507955503</v>
       </c>
       <c r="M9">
-        <v>1.008863410631707</v>
+        <v>1.008863410631708</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9686417234004452</v>
+        <v>0.9686417234004439</v>
       </c>
       <c r="D10">
-        <v>0.9939318120265072</v>
+        <v>0.9939318120265058</v>
       </c>
       <c r="E10">
-        <v>0.9804950524542621</v>
+        <v>0.9804950524542602</v>
       </c>
       <c r="F10">
-        <v>0.9815420423160472</v>
+        <v>0.9815420423160456</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033035211924105</v>
+        <v>1.033035211924104</v>
       </c>
       <c r="J10">
-        <v>0.9981572112363531</v>
+        <v>0.9981572112363518</v>
       </c>
       <c r="K10">
-        <v>1.008411500703667</v>
+        <v>1.008411500703666</v>
       </c>
       <c r="L10">
-        <v>0.9952256371142527</v>
+        <v>0.9952256371142508</v>
       </c>
       <c r="M10">
-        <v>0.9962527545855464</v>
+        <v>0.9962527545855445</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9621748872326369</v>
+        <v>0.9621748872326361</v>
       </c>
       <c r="D11">
-        <v>0.9890943429920651</v>
+        <v>0.9890943429920644</v>
       </c>
       <c r="E11">
-        <v>0.9744408081740195</v>
+        <v>0.9744408081740187</v>
       </c>
       <c r="F11">
-        <v>0.975093589420482</v>
+        <v>0.9750935894204814</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.030507387891255</v>
       </c>
       <c r="J11">
-        <v>0.9932105214686842</v>
+        <v>0.9932105214686834</v>
       </c>
       <c r="K11">
         <v>1.00422489682154</v>
       </c>
       <c r="L11">
-        <v>0.98986138474036</v>
+        <v>0.989861384740359</v>
       </c>
       <c r="M11">
-        <v>0.9905010019070343</v>
+        <v>0.9905010019070336</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9597176540355254</v>
+        <v>0.9597176540355244</v>
       </c>
       <c r="D12">
-        <v>0.9872578141823434</v>
+        <v>0.9872578141823427</v>
       </c>
       <c r="E12">
-        <v>0.9721422257809761</v>
+        <v>0.972142225780975</v>
       </c>
       <c r="F12">
-        <v>0.9726452736531587</v>
+        <v>0.9726452736531576</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029544485071002</v>
+        <v>1.029544485071001</v>
       </c>
       <c r="J12">
-        <v>0.9913303934747192</v>
+        <v>0.9913303934747183</v>
       </c>
       <c r="K12">
-        <v>1.002633274826099</v>
+        <v>1.002633274826098</v>
       </c>
       <c r="L12">
-        <v>0.9878233320725143</v>
+        <v>0.9878233320725132</v>
       </c>
       <c r="M12">
-        <v>0.9883160063197752</v>
+        <v>0.9883160063197743</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9602473338242236</v>
+        <v>0.9602473338242246</v>
       </c>
       <c r="D13">
-        <v>0.9876536190123725</v>
+        <v>0.9876536190123737</v>
       </c>
       <c r="E13">
-        <v>0.9726376193583771</v>
+        <v>0.9726376193583783</v>
       </c>
       <c r="F13">
-        <v>0.9731729419228441</v>
+        <v>0.9731729419228453</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029752153600359</v>
+        <v>1.02975215360036</v>
       </c>
       <c r="J13">
-        <v>0.991735693427922</v>
+        <v>0.9917356934279232</v>
       </c>
       <c r="K13">
-        <v>1.002976397857949</v>
+        <v>1.00297639785795</v>
       </c>
       <c r="L13">
-        <v>0.9882626407317266</v>
+        <v>0.9882626407317281</v>
       </c>
       <c r="M13">
-        <v>0.988786976791031</v>
+        <v>0.9887869767910322</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9619729320816351</v>
+        <v>0.9619729320816336</v>
       </c>
       <c r="D14">
-        <v>0.9889433685038646</v>
+        <v>0.9889433685038639</v>
       </c>
       <c r="E14">
-        <v>0.9742518531879492</v>
+        <v>0.9742518531879476</v>
       </c>
       <c r="F14">
-        <v>0.9748923272866403</v>
+        <v>0.9748923272866392</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030428296494168</v>
+        <v>1.030428296494167</v>
       </c>
       <c r="J14">
-        <v>0.9930560069488451</v>
+        <v>0.993056006948844</v>
       </c>
       <c r="K14">
-        <v>1.004094100052812</v>
+        <v>1.004094100052811</v>
       </c>
       <c r="L14">
-        <v>0.9896938756985102</v>
+        <v>0.9896938756985086</v>
       </c>
       <c r="M14">
-        <v>0.9903214099985518</v>
+        <v>0.9903214099985505</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9630286397486005</v>
+        <v>0.9630286397486023</v>
       </c>
       <c r="D15">
-        <v>0.9897326440723546</v>
+        <v>0.9897326440723562</v>
       </c>
       <c r="E15">
-        <v>0.9752396804981962</v>
+        <v>0.9752396804981979</v>
       </c>
       <c r="F15">
-        <v>0.9759444914166122</v>
+        <v>0.9759444914166141</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030841645392888</v>
+        <v>1.030841645392889</v>
       </c>
       <c r="J15">
-        <v>0.9938637018578761</v>
+        <v>0.9938637018578776</v>
       </c>
       <c r="K15">
-        <v>1.004777799676392</v>
+        <v>1.004777799676394</v>
       </c>
       <c r="L15">
-        <v>0.990569528655913</v>
+        <v>0.9905695286559145</v>
       </c>
       <c r="M15">
-        <v>0.9912602373300167</v>
+        <v>0.9912602373300184</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.969063494070187</v>
+        <v>0.9690634940701855</v>
       </c>
       <c r="D16">
-        <v>0.9942475168915806</v>
+        <v>0.9942475168915793</v>
       </c>
       <c r="E16">
-        <v>0.9808901618089785</v>
+        <v>0.9808901618089767</v>
       </c>
       <c r="F16">
-        <v>0.9819628723398345</v>
+        <v>0.9819628723398331</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03319974219256</v>
+        <v>1.033199742192559</v>
       </c>
       <c r="J16">
-        <v>0.9984797589509734</v>
+        <v>0.9984797589509719</v>
       </c>
       <c r="K16">
-        <v>1.008684431085377</v>
+        <v>1.008684431085376</v>
       </c>
       <c r="L16">
-        <v>0.9955755194127532</v>
+        <v>0.9955755194127516</v>
       </c>
       <c r="M16">
-        <v>0.9966279516257697</v>
+        <v>0.9966279516257684</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9727569279769287</v>
+        <v>0.9727569279769274</v>
       </c>
       <c r="D17">
-        <v>0.9970131476623078</v>
+        <v>0.9970131476623064</v>
       </c>
       <c r="E17">
-        <v>0.9843514196342877</v>
+        <v>0.9843514196342864</v>
       </c>
       <c r="F17">
-        <v>0.9856494354079541</v>
+        <v>0.9856494354079529</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034638657140102</v>
+        <v>1.034638657140101</v>
       </c>
       <c r="J17">
-        <v>1.001303827845406</v>
+        <v>1.001303827845405</v>
       </c>
       <c r="K17">
-        <v>1.011073750684504</v>
+        <v>1.011073750684503</v>
       </c>
       <c r="L17">
-        <v>0.9986395035513947</v>
+        <v>0.9986395035513933</v>
       </c>
       <c r="M17">
-        <v>0.9999138492710801</v>
+        <v>0.9999138492710787</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9748797974109149</v>
+        <v>0.9748797974109155</v>
       </c>
       <c r="D18">
-        <v>0.9986035443966026</v>
+        <v>0.9986035443966031</v>
       </c>
       <c r="E18">
-        <v>0.9863418941112475</v>
+        <v>0.9863418941112483</v>
       </c>
       <c r="F18">
-        <v>0.9877694735264005</v>
+        <v>0.9877694735264014</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.035464121857564</v>
       </c>
       <c r="J18">
-        <v>1.002926598409313</v>
+        <v>1.002926598409314</v>
       </c>
       <c r="K18">
         <v>1.012446426098438</v>
       </c>
       <c r="L18">
-        <v>1.00040062387328</v>
+        <v>1.000400623873281</v>
       </c>
       <c r="M18">
-        <v>1.001802715073415</v>
+        <v>1.001802715073416</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9755984615165965</v>
+        <v>0.9755984615165988</v>
       </c>
       <c r="D19">
-        <v>0.9991420764114141</v>
+        <v>0.9991420764114157</v>
       </c>
       <c r="E19">
-        <v>0.9870159120082567</v>
+        <v>0.987015912008259</v>
       </c>
       <c r="F19">
-        <v>0.9884873654348032</v>
+        <v>0.9884873654348055</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035743298739832</v>
+        <v>1.035743298739833</v>
       </c>
       <c r="J19">
-        <v>1.003475887648135</v>
+        <v>1.003475887648138</v>
       </c>
       <c r="K19">
-        <v>1.012911012141567</v>
+        <v>1.012911012141569</v>
       </c>
       <c r="L19">
-        <v>1.000996826056565</v>
+        <v>1.000996826056568</v>
       </c>
       <c r="M19">
-        <v>1.002442197289963</v>
+        <v>1.002442197289965</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.050000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9723639476182278</v>
+        <v>0.9723639476182263</v>
       </c>
       <c r="D20">
-        <v>0.9967188003637709</v>
+        <v>0.9967188003637695</v>
       </c>
       <c r="E20">
-        <v>0.9839830321660511</v>
+        <v>0.9839830321660494</v>
       </c>
       <c r="F20">
-        <v>0.9852570690234679</v>
+        <v>0.9852570690234667</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034485720302282</v>
+        <v>1.03448572030228</v>
       </c>
       <c r="J20">
-        <v>1.001003389957543</v>
+        <v>1.001003389957541</v>
       </c>
       <c r="K20">
-        <v>1.010819592133021</v>
+        <v>1.01081959213302</v>
       </c>
       <c r="L20">
-        <v>0.9983134914668654</v>
+        <v>0.9983134914668637</v>
       </c>
       <c r="M20">
-        <v>0.9995642053121655</v>
+        <v>0.9995642053121644</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9614663581186128</v>
+        <v>0.9614663581186118</v>
       </c>
       <c r="D21">
-        <v>0.9885646982912646</v>
+        <v>0.9885646982912634</v>
       </c>
       <c r="E21">
-        <v>0.9737779189179138</v>
+        <v>0.9737779189179127</v>
       </c>
       <c r="F21">
-        <v>0.9743875231340849</v>
+        <v>0.9743875231340841</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030229869691708</v>
+        <v>1.030229869691707</v>
       </c>
       <c r="J21">
-        <v>0.9926684229255955</v>
+        <v>0.9926684229255947</v>
       </c>
       <c r="K21">
-        <v>1.003766003609853</v>
+        <v>1.003766003609852</v>
       </c>
       <c r="L21">
-        <v>0.9892737087726858</v>
+        <v>0.9892737087726848</v>
       </c>
       <c r="M21">
-        <v>0.9898709397441294</v>
+        <v>0.9898709397441285</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9542920266055693</v>
+        <v>0.9542920266055671</v>
       </c>
       <c r="D22">
-        <v>0.9832059818425196</v>
+        <v>0.9832059818425178</v>
       </c>
       <c r="E22">
-        <v>0.9670705761521518</v>
+        <v>0.9670705761521495</v>
       </c>
       <c r="F22">
-        <v>0.9672430580472388</v>
+        <v>0.9672430580472363</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027414106291968</v>
+        <v>1.027414106291967</v>
       </c>
       <c r="J22">
-        <v>0.9871782548023355</v>
+        <v>0.9871782548023333</v>
       </c>
       <c r="K22">
-        <v>0.9991176378040785</v>
+        <v>0.9991176378040765</v>
       </c>
       <c r="L22">
-        <v>0.9833238667953366</v>
+        <v>0.9833238667953343</v>
       </c>
       <c r="M22">
-        <v>0.9834926167362951</v>
+        <v>0.9834926167362926</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.958127946463199</v>
+        <v>0.9581279464632005</v>
       </c>
       <c r="D23">
-        <v>0.9860701558599491</v>
+        <v>0.9860701558599503</v>
       </c>
       <c r="E23">
-        <v>0.9706557092754703</v>
+        <v>0.9706557092754722</v>
       </c>
       <c r="F23">
-        <v>0.9710618968031035</v>
+        <v>0.9710618968031054</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02892087734915</v>
+        <v>1.028920877349151</v>
       </c>
       <c r="J23">
-        <v>0.9901139191739641</v>
+        <v>0.990113919173966</v>
       </c>
       <c r="K23">
-        <v>1.001603367545916</v>
+        <v>1.001603367545918</v>
       </c>
       <c r="L23">
-        <v>0.9865048976906985</v>
+        <v>0.9865048976907002</v>
       </c>
       <c r="M23">
-        <v>0.9869025887411645</v>
+        <v>0.9869025887411663</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9725416153015236</v>
+        <v>0.9725416153015225</v>
       </c>
       <c r="D24">
-        <v>0.9968518732577499</v>
+        <v>0.9968518732577489</v>
       </c>
       <c r="E24">
-        <v>0.9841495780637184</v>
+        <v>0.9841495780637174</v>
       </c>
       <c r="F24">
-        <v>0.9854344556600688</v>
+        <v>0.985434455660068</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03455486845495</v>
+        <v>1.034554868454949</v>
       </c>
       <c r="J24">
-        <v>1.001139220193605</v>
+        <v>1.001139220193604</v>
       </c>
       <c r="K24">
-        <v>1.010934500003222</v>
+        <v>1.010934500003221</v>
       </c>
       <c r="L24">
-        <v>0.998460882468226</v>
+        <v>0.998460882468225</v>
       </c>
       <c r="M24">
-        <v>0.9997222797474079</v>
+        <v>0.9997222797474073</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9880472379676712</v>
+        <v>0.9880472379676719</v>
       </c>
       <c r="D25">
-        <v>1.008480091837954</v>
+        <v>1.008480091837955</v>
       </c>
       <c r="E25">
-        <v>0.998705301118924</v>
+        <v>0.9987053011189245</v>
       </c>
       <c r="F25">
-        <v>1.00093802331719</v>
+        <v>1.000938023317191</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.040555408116765</v>
       </c>
       <c r="J25">
-        <v>1.012983666337403</v>
+        <v>1.012983666337404</v>
       </c>
       <c r="K25">
         <v>1.020948176307795</v>
       </c>
       <c r="L25">
-        <v>1.011323748922956</v>
+        <v>1.011323748922957</v>
       </c>
       <c r="M25">
-        <v>1.013521795112996</v>
+        <v>1.013521795112997</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_1/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9995959830013522</v>
+        <v>0.9996113793036137</v>
       </c>
       <c r="D2">
-        <v>1.017156785748392</v>
+        <v>1.017170217540379</v>
       </c>
       <c r="E2">
-        <v>1.009573311292324</v>
+        <v>1.009588500916426</v>
       </c>
       <c r="F2">
-        <v>1.012515296287085</v>
+        <v>1.012529465060349</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044973128423594</v>
+        <v>1.044980944302238</v>
       </c>
       <c r="J2">
-        <v>1.021788784867068</v>
+        <v>1.021803720166128</v>
       </c>
       <c r="K2">
-        <v>1.028382163885392</v>
+        <v>1.028395416399494</v>
       </c>
       <c r="L2">
-        <v>1.020900866577075</v>
+        <v>1.020915849610727</v>
       </c>
       <c r="M2">
-        <v>1.023802983783542</v>
+        <v>1.023816961256088</v>
+      </c>
+      <c r="N2">
+        <v>1.015011998446463</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.0075734933665</v>
+        <v>1.007582777329433</v>
       </c>
       <c r="D3">
-        <v>1.023156346065597</v>
+        <v>1.023164849873904</v>
       </c>
       <c r="E3">
-        <v>1.017094111575278</v>
+        <v>1.017103286683691</v>
       </c>
       <c r="F3">
-        <v>1.02052844563946</v>
+        <v>1.020537062519697</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047993488469899</v>
+        <v>1.047998404696936</v>
       </c>
       <c r="J3">
-        <v>1.027859805161787</v>
+        <v>1.027868841179461</v>
       </c>
       <c r="K3">
-        <v>1.033501268301606</v>
+        <v>1.033509669335299</v>
       </c>
       <c r="L3">
-        <v>1.027512844083311</v>
+        <v>1.027521906654071</v>
       </c>
       <c r="M3">
-        <v>1.030905229879682</v>
+        <v>1.030913741951289</v>
+      </c>
+      <c r="N3">
+        <v>1.019363546937398</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012565392254486</v>
+        <v>1.012570936008329</v>
       </c>
       <c r="D4">
-        <v>1.02691240056858</v>
+        <v>1.026917883010731</v>
       </c>
       <c r="E4">
-        <v>1.021805936494548</v>
+        <v>1.021811424895509</v>
       </c>
       <c r="F4">
-        <v>1.025549617306774</v>
+        <v>1.025554841918465</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049868563223481</v>
+        <v>1.049871698522289</v>
       </c>
       <c r="J4">
-        <v>1.031653045434792</v>
+        <v>1.0316584520804</v>
       </c>
       <c r="K4">
-        <v>1.036696514573172</v>
+        <v>1.036701935054777</v>
       </c>
       <c r="L4">
-        <v>1.031648118124916</v>
+        <v>1.031653543730643</v>
       </c>
       <c r="M4">
-        <v>1.03534915831815</v>
+        <v>1.035354323689571</v>
+      </c>
+      <c r="N4">
+        <v>1.022078133943081</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.0146257487662</v>
+        <v>1.014629766703824</v>
       </c>
       <c r="D5">
-        <v>1.028462995475394</v>
+        <v>1.028467244191439</v>
       </c>
       <c r="E5">
-        <v>1.023751993840744</v>
+        <v>1.023755976906607</v>
       </c>
       <c r="F5">
-        <v>1.027623676986301</v>
+        <v>1.027627518847152</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050638840367495</v>
+        <v>1.050641247720502</v>
       </c>
       <c r="J5">
-        <v>1.033217240726541</v>
+        <v>1.033221162522461</v>
       </c>
       <c r="K5">
-        <v>1.038013315521096</v>
+        <v>1.038017517589639</v>
       </c>
       <c r="L5">
-        <v>1.033354329874151</v>
+        <v>1.03335826871277</v>
       </c>
       <c r="M5">
-        <v>1.037183221371119</v>
+        <v>1.037187020966696</v>
+      </c>
+      <c r="N5">
+        <v>1.023196466758548</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014969517242935</v>
+        <v>1.014973281589876</v>
       </c>
       <c r="D6">
-        <v>1.028721726183003</v>
+        <v>1.028725769792096</v>
       </c>
       <c r="E6">
-        <v>1.024076766027128</v>
+        <v>1.024080498831994</v>
       </c>
       <c r="F6">
-        <v>1.027969825764646</v>
+        <v>1.02797343787629</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050767144336062</v>
+        <v>1.050769430625546</v>
       </c>
       <c r="J6">
-        <v>1.033478139472103</v>
+        <v>1.033481814247803</v>
       </c>
       <c r="K6">
-        <v>1.038232902244706</v>
+        <v>1.038236901675471</v>
       </c>
       <c r="L6">
-        <v>1.033638973610487</v>
+        <v>1.033642665176712</v>
       </c>
       <c r="M6">
-        <v>1.037489224109241</v>
+        <v>1.037492796685928</v>
+      </c>
+      <c r="N6">
+        <v>1.023382934699802</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01259306997988</v>
+        <v>1.01259859316869</v>
       </c>
       <c r="D7">
-        <v>1.026933229315259</v>
+        <v>1.026938695133493</v>
       </c>
       <c r="E7">
-        <v>1.02183207373328</v>
+        <v>1.021837541850378</v>
       </c>
       <c r="F7">
-        <v>1.025577472757391</v>
+        <v>1.025582678727921</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049878925219577</v>
+        <v>1.049882050712522</v>
       </c>
       <c r="J7">
-        <v>1.031674063729105</v>
+        <v>1.03167945037818</v>
       </c>
       <c r="K7">
-        <v>1.036714211817687</v>
+        <v>1.036719615886953</v>
       </c>
       <c r="L7">
-        <v>1.031671040845946</v>
+        <v>1.031676446424738</v>
       </c>
       <c r="M7">
-        <v>1.035373796703079</v>
+        <v>1.035378943668362</v>
+      </c>
+      <c r="N7">
+        <v>1.02209316538466</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.002328806733358</v>
+        <v>1.00234208970449</v>
       </c>
       <c r="D8">
-        <v>1.019211560378065</v>
+        <v>1.019223289755783</v>
       </c>
       <c r="E8">
-        <v>1.01214842734017</v>
+        <v>1.012161538940829</v>
       </c>
       <c r="F8">
-        <v>1.015258820420389</v>
+        <v>1.01527106851373</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04601091288372</v>
+        <v>1.046017727740044</v>
       </c>
       <c r="J8">
-        <v>1.023869670260802</v>
+        <v>1.023882570376929</v>
       </c>
       <c r="K8">
-        <v>1.030137438166958</v>
+        <v>1.030149016072367</v>
       </c>
       <c r="L8">
-        <v>1.02316631701221</v>
+        <v>1.02317925631596</v>
       </c>
       <c r="M8">
-        <v>1.026235993224476</v>
+        <v>1.026248081600749</v>
+      </c>
+      <c r="N8">
+        <v>1.016504415214056</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9828137436305288</v>
+        <v>0.982842605385688</v>
       </c>
       <c r="D9">
-        <v>1.004552274135301</v>
+        <v>1.004576513516285</v>
       </c>
       <c r="E9">
-        <v>0.99378783211908</v>
+        <v>0.9938162239769158</v>
       </c>
       <c r="F9">
-        <v>0.9957001845641059</v>
+        <v>0.9957266176649675</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038538128244196</v>
+        <v>1.038552283730769</v>
       </c>
       <c r="J9">
-        <v>1.008988339205344</v>
+        <v>1.009016131021354</v>
       </c>
       <c r="K9">
-        <v>1.017571923126062</v>
+        <v>1.017595773810029</v>
       </c>
       <c r="L9">
-        <v>1.006982507955503</v>
+        <v>1.007010431753644</v>
       </c>
       <c r="M9">
-        <v>1.008863410631708</v>
+        <v>1.008889410112932</v>
+      </c>
+      <c r="N9">
+        <v>1.005814092460021</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9686417234004439</v>
+        <v>0.9686826955289616</v>
       </c>
       <c r="D10">
-        <v>0.9939318120265058</v>
+        <v>0.9939657060486398</v>
       </c>
       <c r="E10">
-        <v>0.9804950524542602</v>
+        <v>0.9805352593847221</v>
       </c>
       <c r="F10">
-        <v>0.9815420423160456</v>
+        <v>0.9815795415126254</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033035211924104</v>
+        <v>1.033055011225537</v>
       </c>
       <c r="J10">
-        <v>0.9981572112363518</v>
+        <v>0.9981964036955442</v>
       </c>
       <c r="K10">
-        <v>1.008411500703666</v>
+        <v>1.008444773015237</v>
       </c>
       <c r="L10">
-        <v>0.9952256371142508</v>
+        <v>0.9952650798723832</v>
       </c>
       <c r="M10">
-        <v>0.9962527545855445</v>
+        <v>0.9962895430566805</v>
+      </c>
+      <c r="N10">
+        <v>0.9980127064560319</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9621748872326361</v>
+        <v>0.9622216428011366</v>
       </c>
       <c r="D11">
-        <v>0.9890943429920644</v>
+        <v>0.9891328239267526</v>
       </c>
       <c r="E11">
-        <v>0.9744408081740187</v>
+        <v>0.974486637425078</v>
       </c>
       <c r="F11">
-        <v>0.9750935894204814</v>
+        <v>0.9751363842775963</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030507387891255</v>
+        <v>1.030529863004358</v>
       </c>
       <c r="J11">
-        <v>0.9932105214686834</v>
+        <v>0.9932551053551525</v>
       </c>
       <c r="K11">
-        <v>1.00422489682154</v>
+        <v>1.004262630969827</v>
       </c>
       <c r="L11">
-        <v>0.989861384740359</v>
+        <v>0.9899062890342494</v>
       </c>
       <c r="M11">
-        <v>0.9905010019070336</v>
+        <v>0.990542934567354</v>
+      </c>
+      <c r="N11">
+        <v>0.9944454733938924</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9597176540355244</v>
+        <v>0.9597666531246534</v>
       </c>
       <c r="D12">
-        <v>0.9872578141823427</v>
+        <v>0.98729807018801</v>
       </c>
       <c r="E12">
-        <v>0.972142225780975</v>
+        <v>0.972190232520817</v>
       </c>
       <c r="F12">
-        <v>0.9726452736531576</v>
+        <v>0.9726901245944335</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029544485071001</v>
+        <v>1.029567994806882</v>
       </c>
       <c r="J12">
-        <v>0.9913303934747183</v>
+        <v>0.9913770597320301</v>
       </c>
       <c r="K12">
-        <v>1.002633274826098</v>
+        <v>1.00267273325009</v>
       </c>
       <c r="L12">
-        <v>0.9878233320725132</v>
+        <v>0.9878703482274895</v>
       </c>
       <c r="M12">
-        <v>0.9883160063197743</v>
+        <v>0.9883599330528985</v>
+      </c>
+      <c r="N12">
+        <v>0.9930890697501856</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9602473338242246</v>
+        <v>0.9602958470948809</v>
       </c>
       <c r="D13">
-        <v>0.9876536190123737</v>
+        <v>0.9876934908446989</v>
       </c>
       <c r="E13">
-        <v>0.9726376193583783</v>
+        <v>0.9726851547462295</v>
       </c>
       <c r="F13">
-        <v>0.9731729419228453</v>
+        <v>0.9732173475511516</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02975215360036</v>
+        <v>1.029775439456164</v>
       </c>
       <c r="J13">
-        <v>0.9917356934279232</v>
+        <v>0.9917819091900687</v>
       </c>
       <c r="K13">
-        <v>1.00297639785795</v>
+        <v>1.003015483213658</v>
       </c>
       <c r="L13">
-        <v>0.9882626407317281</v>
+        <v>0.9883091998982279</v>
       </c>
       <c r="M13">
-        <v>0.9887869767910322</v>
+        <v>0.9888304717920876</v>
+      </c>
+      <c r="N13">
+        <v>0.9933814951517315</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9619729320816336</v>
+        <v>0.9620198710625962</v>
       </c>
       <c r="D14">
-        <v>0.9889433685038639</v>
+        <v>0.9889819946451046</v>
       </c>
       <c r="E14">
-        <v>0.9742518531879476</v>
+        <v>0.9742978605274298</v>
       </c>
       <c r="F14">
-        <v>0.9748923272866392</v>
+        <v>0.9749352901961887</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030428296494167</v>
+        <v>1.030450856260713</v>
       </c>
       <c r="J14">
-        <v>0.993056006948844</v>
+        <v>0.9931007612628833</v>
       </c>
       <c r="K14">
-        <v>1.004094100052811</v>
+        <v>1.004131975302007</v>
       </c>
       <c r="L14">
-        <v>0.9896938756985086</v>
+        <v>0.9897389527832061</v>
       </c>
       <c r="M14">
-        <v>0.9903214099985505</v>
+        <v>0.9903635057094864</v>
+      </c>
+      <c r="N14">
+        <v>0.9943340113913438</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9630286397486023</v>
+        <v>0.9630746218646817</v>
       </c>
       <c r="D15">
-        <v>0.9897326440723562</v>
+        <v>0.9897705124922205</v>
       </c>
       <c r="E15">
-        <v>0.9752396804981979</v>
+        <v>0.9752847586031449</v>
       </c>
       <c r="F15">
-        <v>0.9759444914166141</v>
+        <v>0.9759865776673193</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030841645392889</v>
+        <v>1.030863763382533</v>
       </c>
       <c r="J15">
-        <v>0.9938637018578776</v>
+        <v>0.9939075666772305</v>
       </c>
       <c r="K15">
-        <v>1.004777799676394</v>
+        <v>1.004814938530637</v>
       </c>
       <c r="L15">
-        <v>0.9905695286559145</v>
+        <v>0.9906137040106995</v>
       </c>
       <c r="M15">
-        <v>0.9912602373300184</v>
+        <v>0.9913014823434781</v>
+      </c>
+      <c r="N15">
+        <v>0.9949166345464046</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9690634940701855</v>
+        <v>0.9691040948838375</v>
       </c>
       <c r="D16">
-        <v>0.9942475168915793</v>
+        <v>0.994281115882321</v>
       </c>
       <c r="E16">
-        <v>0.9808901618089767</v>
+        <v>0.9809300073222874</v>
       </c>
       <c r="F16">
-        <v>0.9819628723398331</v>
+        <v>0.9820000317710067</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033199742192559</v>
+        <v>1.033219369268877</v>
       </c>
       <c r="J16">
-        <v>0.9984797589509719</v>
+        <v>0.9985186041026831</v>
       </c>
       <c r="K16">
-        <v>1.008684431085376</v>
+        <v>1.00871741610042</v>
       </c>
       <c r="L16">
-        <v>0.9955755194127516</v>
+        <v>0.9956146106572801</v>
       </c>
       <c r="M16">
-        <v>0.9966279516257684</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9966644096394747</v>
+      </c>
+      <c r="N16">
+        <v>0.9982452243276144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9727569279769274</v>
+        <v>0.9727943068109658</v>
       </c>
       <c r="D17">
-        <v>0.9970131476623064</v>
+        <v>0.9970441839258739</v>
       </c>
       <c r="E17">
-        <v>0.9843514196342864</v>
+        <v>0.9843881267997217</v>
       </c>
       <c r="F17">
-        <v>0.9856494354079529</v>
+        <v>0.9856836478341077</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034638657140101</v>
+        <v>1.034656787604054</v>
       </c>
       <c r="J17">
-        <v>1.001303827845405</v>
+        <v>1.001339653406031</v>
       </c>
       <c r="K17">
-        <v>1.011073750684503</v>
+        <v>1.011104238555467</v>
       </c>
       <c r="L17">
-        <v>0.9986395035513933</v>
+        <v>0.9986755402243159</v>
       </c>
       <c r="M17">
-        <v>0.9999138492710787</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9999474389115127</v>
+      </c>
+      <c r="N17">
+        <v>1.00028056485431</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9748797974109155</v>
+        <v>0.97491534787088</v>
       </c>
       <c r="D18">
-        <v>0.9986035443966031</v>
+        <v>0.9986331242812122</v>
       </c>
       <c r="E18">
-        <v>0.9863418941112483</v>
+        <v>0.9863768185698083</v>
       </c>
       <c r="F18">
-        <v>0.9877694735264014</v>
+        <v>0.9878020146020846</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035464121857564</v>
+        <v>1.035481401303588</v>
       </c>
       <c r="J18">
-        <v>1.002926598409314</v>
+        <v>1.002960705696287</v>
       </c>
       <c r="K18">
-        <v>1.012446426098438</v>
+        <v>1.012475493565945</v>
       </c>
       <c r="L18">
-        <v>1.000400623873281</v>
+        <v>1.000434923642045</v>
       </c>
       <c r="M18">
-        <v>1.001802715073416</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.001834676270712</v>
+      </c>
+      <c r="N18">
+        <v>1.001449712900593</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9755984615165988</v>
+        <v>0.9756333968073756</v>
       </c>
       <c r="D19">
-        <v>0.9991420764114157</v>
+        <v>0.9991711659479489</v>
       </c>
       <c r="E19">
-        <v>0.987015912008259</v>
+        <v>0.9870502363721415</v>
       </c>
       <c r="F19">
-        <v>0.9884873654348055</v>
+        <v>0.9885193443359904</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035743298739833</v>
+        <v>1.035760291572384</v>
       </c>
       <c r="J19">
-        <v>1.003475887648138</v>
+        <v>1.003509416033622</v>
       </c>
       <c r="K19">
-        <v>1.012911012141569</v>
+        <v>1.012939601160242</v>
       </c>
       <c r="L19">
-        <v>1.000996826056568</v>
+        <v>1.001030540855741</v>
       </c>
       <c r="M19">
-        <v>1.002442197289965</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.002473610468499</v>
+      </c>
+      <c r="N19">
+        <v>1.001845386153946</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9723639476182263</v>
+        <v>0.9724016667769516</v>
       </c>
       <c r="D20">
-        <v>0.9967188003637695</v>
+        <v>0.9967501075430262</v>
       </c>
       <c r="E20">
-        <v>0.9839830321660494</v>
+        <v>0.9840200710129805</v>
       </c>
       <c r="F20">
-        <v>0.9852570690234667</v>
+        <v>0.9852915926260483</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03448572030228</v>
+        <v>1.034504009031806</v>
       </c>
       <c r="J20">
-        <v>1.001003389957541</v>
+        <v>1.001039534968886</v>
       </c>
       <c r="K20">
-        <v>1.01081959213302</v>
+        <v>1.010850344123444</v>
       </c>
       <c r="L20">
-        <v>0.9983134914668637</v>
+        <v>0.9983498511562217</v>
       </c>
       <c r="M20">
-        <v>0.9995642053121644</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9995980980050416</v>
+      </c>
+      <c r="N20">
+        <v>1.000064077075406</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9614663581186118</v>
+        <v>0.9615137579278072</v>
       </c>
       <c r="D21">
-        <v>0.9885646982912634</v>
+        <v>0.9886036891962644</v>
       </c>
       <c r="E21">
-        <v>0.9737779189179127</v>
+        <v>0.9738243736505726</v>
       </c>
       <c r="F21">
-        <v>0.9743875231340841</v>
+        <v>0.9744309083084193</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030229869691707</v>
+        <v>1.030252642096355</v>
       </c>
       <c r="J21">
-        <v>0.9926684229255947</v>
+        <v>0.9927136052939374</v>
       </c>
       <c r="K21">
-        <v>1.003766003609852</v>
+        <v>1.003804233270205</v>
       </c>
       <c r="L21">
-        <v>0.9892737087726848</v>
+        <v>0.9893192198869162</v>
       </c>
       <c r="M21">
-        <v>0.9898709397441285</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9899134450993289</v>
+      </c>
+      <c r="N21">
+        <v>0.9940544112106869</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9542920266055671</v>
+        <v>0.9543460739357892</v>
       </c>
       <c r="D22">
-        <v>0.9832059818425178</v>
+        <v>0.9832502230843997</v>
       </c>
       <c r="E22">
-        <v>0.9670705761521495</v>
+        <v>0.9671234753134612</v>
       </c>
       <c r="F22">
-        <v>0.9672430580472363</v>
+        <v>0.9672925389651489</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027414106291967</v>
+        <v>1.027439937183372</v>
       </c>
       <c r="J22">
-        <v>0.9871782548023333</v>
+        <v>0.9872295883663853</v>
       </c>
       <c r="K22">
-        <v>0.9991176378040765</v>
+        <v>0.9991609626802949</v>
       </c>
       <c r="L22">
-        <v>0.9833238667953343</v>
+        <v>0.9833756212009005</v>
       </c>
       <c r="M22">
-        <v>0.9834926167362926</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9835410273721272</v>
+      </c>
+      <c r="N22">
+        <v>0.9900925529834486</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9581279464632005</v>
+        <v>0.9581784110111109</v>
       </c>
       <c r="D23">
-        <v>0.9860701558599503</v>
+        <v>0.9861115700224861</v>
       </c>
       <c r="E23">
-        <v>0.9706557092754722</v>
+        <v>0.9707051372741498</v>
       </c>
       <c r="F23">
-        <v>0.9710618968031054</v>
+        <v>0.9711080912924238</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028920877349151</v>
+        <v>1.028945061877675</v>
       </c>
       <c r="J23">
-        <v>0.990113919173966</v>
+        <v>0.9901619429120585</v>
       </c>
       <c r="K23">
-        <v>1.001603367545918</v>
+        <v>1.001643950278311</v>
       </c>
       <c r="L23">
-        <v>0.9865048976907002</v>
+        <v>0.9865532912707734</v>
       </c>
       <c r="M23">
-        <v>0.9869025887411663</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9869478175466908</v>
+      </c>
+      <c r="N23">
+        <v>0.9922112998369347</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9725416153015225</v>
+        <v>0.9725791805257724</v>
       </c>
       <c r="D24">
-        <v>0.9968518732577489</v>
+        <v>0.9968830579039127</v>
       </c>
       <c r="E24">
-        <v>0.9841495780637174</v>
+        <v>0.9841864668911947</v>
       </c>
       <c r="F24">
-        <v>0.985434455660068</v>
+        <v>0.9854688385093475</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034554868454949</v>
+        <v>1.03457308560374</v>
       </c>
       <c r="J24">
-        <v>1.001139220193604</v>
+        <v>1.001175220726881</v>
       </c>
       <c r="K24">
-        <v>1.010934500003221</v>
+        <v>1.010965132538464</v>
       </c>
       <c r="L24">
-        <v>0.998460882468225</v>
+        <v>0.9984970960628869</v>
       </c>
       <c r="M24">
-        <v>0.9997222797474073</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.999756035366925</v>
+      </c>
+      <c r="N24">
+        <v>1.000161954089311</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9880472379676719</v>
+        <v>0.9880718057988365</v>
       </c>
       <c r="D25">
-        <v>1.008480091837955</v>
+        <v>1.008500892688825</v>
       </c>
       <c r="E25">
-        <v>0.9987053011189245</v>
+        <v>0.998729490298327</v>
       </c>
       <c r="F25">
-        <v>1.000938023317191</v>
+        <v>1.000960540717851</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040555408116765</v>
+        <v>1.040567549300935</v>
       </c>
       <c r="J25">
-        <v>1.012983666337404</v>
+        <v>1.01300737918359</v>
       </c>
       <c r="K25">
-        <v>1.020948176307795</v>
+        <v>1.020968661145413</v>
       </c>
       <c r="L25">
-        <v>1.011323748922957</v>
+        <v>1.011347561362707</v>
       </c>
       <c r="M25">
-        <v>1.013521795112997</v>
+        <v>1.013543963806421</v>
+      </c>
+      <c r="N25">
+        <v>1.008687890181308</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_1/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9996113793036137</v>
+        <v>1.056830442725411</v>
       </c>
       <c r="D2">
-        <v>1.017170217540379</v>
+        <v>1.072067995341823</v>
       </c>
       <c r="E2">
-        <v>1.009588500916426</v>
+        <v>1.074578639395661</v>
       </c>
       <c r="F2">
-        <v>1.012529465060349</v>
+        <v>1.081378696936532</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044980944302238</v>
+        <v>1.076974044067674</v>
       </c>
       <c r="J2">
-        <v>1.021803720166128</v>
+        <v>1.077434755161771</v>
       </c>
       <c r="K2">
-        <v>1.028395416399494</v>
+        <v>1.082606953562091</v>
       </c>
       <c r="L2">
-        <v>1.020915849610727</v>
+        <v>1.085088288375646</v>
       </c>
       <c r="M2">
-        <v>1.023816961256088</v>
+        <v>1.091809805899579</v>
       </c>
       <c r="N2">
-        <v>1.015011998446463</v>
+        <v>1.078964836097594</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007582777329433</v>
+        <v>1.065879088181907</v>
       </c>
       <c r="D3">
-        <v>1.023164849873904</v>
+        <v>1.079474792581766</v>
       </c>
       <c r="E3">
-        <v>1.017103286683691</v>
+        <v>1.083054656046806</v>
       </c>
       <c r="F3">
-        <v>1.020537062519697</v>
+        <v>1.089560696680445</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047998404696936</v>
+        <v>1.080745562870317</v>
       </c>
       <c r="J3">
-        <v>1.027868841179461</v>
+        <v>1.084721836195973</v>
       </c>
       <c r="K3">
-        <v>1.033509669335299</v>
+        <v>1.089182573957726</v>
       </c>
       <c r="L3">
-        <v>1.027521906654071</v>
+        <v>1.092724678181908</v>
       </c>
       <c r="M3">
-        <v>1.030913741951289</v>
+        <v>1.099162870622914</v>
       </c>
       <c r="N3">
-        <v>1.019363546937398</v>
+        <v>1.086262265622705</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012570936008329</v>
+        <v>1.071525921686496</v>
       </c>
       <c r="D4">
-        <v>1.026917883010731</v>
+        <v>1.084099227417799</v>
       </c>
       <c r="E4">
-        <v>1.021811424895509</v>
+        <v>1.088348932170065</v>
       </c>
       <c r="F4">
-        <v>1.025554841918465</v>
+        <v>1.094672223778484</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049871698522289</v>
+        <v>1.083084782555565</v>
       </c>
       <c r="J4">
-        <v>1.0316584520804</v>
+        <v>1.089261500911517</v>
       </c>
       <c r="K4">
-        <v>1.036701935054777</v>
+        <v>1.093278506364997</v>
       </c>
       <c r="L4">
-        <v>1.031653543730643</v>
+        <v>1.097486345312331</v>
       </c>
       <c r="M4">
-        <v>1.035354323689571</v>
+        <v>1.103748072208013</v>
       </c>
       <c r="N4">
-        <v>1.022078133943081</v>
+        <v>1.090808377182851</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014629766703824</v>
+        <v>1.073853302842638</v>
       </c>
       <c r="D5">
-        <v>1.028467244191439</v>
+        <v>1.086005644347281</v>
       </c>
       <c r="E5">
-        <v>1.023755976906607</v>
+        <v>1.090532077196297</v>
       </c>
       <c r="F5">
-        <v>1.027627518847152</v>
+        <v>1.096780202869919</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050641247720502</v>
+        <v>1.084045400071789</v>
       </c>
       <c r="J5">
-        <v>1.033221162522461</v>
+        <v>1.091130624209472</v>
       </c>
       <c r="K5">
-        <v>1.038017517589639</v>
+        <v>1.094964783856195</v>
       </c>
       <c r="L5">
-        <v>1.03335826871277</v>
+        <v>1.099447917045278</v>
       </c>
       <c r="M5">
-        <v>1.037187020966696</v>
+        <v>1.105636982526095</v>
       </c>
       <c r="N5">
-        <v>1.023196466758548</v>
+        <v>1.092680154850282</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014973281589876</v>
+        <v>1.074241440654849</v>
       </c>
       <c r="D6">
-        <v>1.028725769792096</v>
+        <v>1.086323599980537</v>
       </c>
       <c r="E6">
-        <v>1.024080498831994</v>
+        <v>1.090896221715564</v>
       </c>
       <c r="F6">
-        <v>1.02797343787629</v>
+        <v>1.097131820521949</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050769430625546</v>
+        <v>1.084205394640264</v>
       </c>
       <c r="J6">
-        <v>1.033481814247803</v>
+        <v>1.09144222344588</v>
       </c>
       <c r="K6">
-        <v>1.038236901675471</v>
+        <v>1.095245891744108</v>
       </c>
       <c r="L6">
-        <v>1.033642665176712</v>
+        <v>1.099774989329512</v>
       </c>
       <c r="M6">
-        <v>1.037492796685928</v>
+        <v>1.105951940826532</v>
       </c>
       <c r="N6">
-        <v>1.023382934699802</v>
+        <v>1.092992196593346</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01259859316869</v>
+        <v>1.071557199049322</v>
       </c>
       <c r="D7">
-        <v>1.026938695133493</v>
+        <v>1.084124845948174</v>
       </c>
       <c r="E7">
-        <v>1.021837541850378</v>
+        <v>1.088378267008747</v>
       </c>
       <c r="F7">
-        <v>1.025582678727921</v>
+        <v>1.094700547882728</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049882050712522</v>
+        <v>1.083097706132015</v>
       </c>
       <c r="J7">
-        <v>1.03167945037818</v>
+        <v>1.089286627516217</v>
       </c>
       <c r="K7">
-        <v>1.036719615886953</v>
+        <v>1.093301175590563</v>
       </c>
       <c r="L7">
-        <v>1.031676446424738</v>
+        <v>1.097512710578454</v>
       </c>
       <c r="M7">
-        <v>1.035378943668362</v>
+        <v>1.103773460725382</v>
       </c>
       <c r="N7">
-        <v>1.02209316538466</v>
+        <v>1.090833539470212</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.00234208970449</v>
+        <v>1.059933696629574</v>
       </c>
       <c r="D8">
-        <v>1.019223289755783</v>
+        <v>1.074607639879164</v>
       </c>
       <c r="E8">
-        <v>1.012161538940829</v>
+        <v>1.077484442907399</v>
       </c>
       <c r="F8">
-        <v>1.01527106851373</v>
+        <v>1.084183498025995</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046017727740044</v>
+        <v>1.07827051614923</v>
       </c>
       <c r="J8">
-        <v>1.023882570376929</v>
+        <v>1.079935513224096</v>
       </c>
       <c r="K8">
-        <v>1.030149016072367</v>
+        <v>1.084863647235919</v>
       </c>
       <c r="L8">
-        <v>1.02317925631596</v>
+        <v>1.087707982070205</v>
       </c>
       <c r="M8">
-        <v>1.026248081600749</v>
+        <v>1.094332251563633</v>
       </c>
       <c r="N8">
-        <v>1.016504415214056</v>
+        <v>1.081469145523209</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.982842605385688</v>
+        <v>1.037687098366093</v>
       </c>
       <c r="D9">
-        <v>1.004576513516285</v>
+        <v>1.056416049686827</v>
       </c>
       <c r="E9">
-        <v>0.9938162239769158</v>
+        <v>1.056678050516036</v>
       </c>
       <c r="F9">
-        <v>0.9957266176649675</v>
+        <v>1.064105361097755</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038552283730769</v>
+        <v>1.068915605730208</v>
       </c>
       <c r="J9">
-        <v>1.009016131021354</v>
+        <v>1.061975787771035</v>
       </c>
       <c r="K9">
-        <v>1.017595773810029</v>
+        <v>1.068655634533321</v>
       </c>
       <c r="L9">
-        <v>1.007010431753644</v>
+        <v>1.0689139404446</v>
       </c>
       <c r="M9">
-        <v>1.008889410112932</v>
+        <v>1.076237460578507</v>
       </c>
       <c r="N9">
-        <v>1.005814092460021</v>
+        <v>1.063483915199996</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9686826955289616</v>
+        <v>1.021391957517015</v>
       </c>
       <c r="D10">
-        <v>0.9939657060486398</v>
+        <v>1.043116525859348</v>
       </c>
       <c r="E10">
-        <v>0.9805352593847221</v>
+        <v>1.041474718152147</v>
       </c>
       <c r="F10">
-        <v>0.9815795415126254</v>
+        <v>1.049442150693238</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033055011225537</v>
+        <v>1.061987888713564</v>
       </c>
       <c r="J10">
-        <v>0.9981964036955442</v>
+        <v>1.048781812437719</v>
       </c>
       <c r="K10">
-        <v>1.008444773015237</v>
+        <v>1.05674861864537</v>
       </c>
       <c r="L10">
-        <v>0.9952650798723832</v>
+        <v>1.055133444879622</v>
       </c>
       <c r="M10">
-        <v>0.9962895430566805</v>
+        <v>1.062972625639456</v>
       </c>
       <c r="N10">
-        <v>0.9980127064560319</v>
+        <v>1.050271202908336</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9622216428011366</v>
+        <v>1.013911587433372</v>
       </c>
       <c r="D11">
-        <v>0.9891328239267526</v>
+        <v>1.03701983195687</v>
       </c>
       <c r="E11">
-        <v>0.974486637425078</v>
+        <v>1.034506217864175</v>
       </c>
       <c r="F11">
-        <v>0.9751363842775963</v>
+        <v>1.042723669518043</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030529863004358</v>
+        <v>1.058790826161474</v>
       </c>
       <c r="J11">
-        <v>0.9932551053551525</v>
+        <v>1.042716865269025</v>
       </c>
       <c r="K11">
-        <v>1.004262630969827</v>
+        <v>1.051275820577926</v>
       </c>
       <c r="L11">
-        <v>0.9899062890342494</v>
+        <v>1.048805471642279</v>
       </c>
       <c r="M11">
-        <v>0.990542934567354</v>
+        <v>1.05688248020614</v>
       </c>
       <c r="N11">
-        <v>0.9944454733938924</v>
+        <v>1.044197642819003</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9597666531246534</v>
+        <v>1.011061246252875</v>
       </c>
       <c r="D12">
-        <v>0.98729807018801</v>
+        <v>1.034698260375929</v>
       </c>
       <c r="E12">
-        <v>0.972190232520817</v>
+        <v>1.031852715298963</v>
       </c>
       <c r="F12">
-        <v>0.9726901245944335</v>
+        <v>1.040165794482613</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029567994806882</v>
+        <v>1.057570186422159</v>
       </c>
       <c r="J12">
-        <v>0.9913770597320301</v>
+        <v>1.040404741224642</v>
       </c>
       <c r="K12">
-        <v>1.00267273325009</v>
+        <v>1.049189578977463</v>
       </c>
       <c r="L12">
-        <v>0.9878703482274895</v>
+        <v>1.046394094037188</v>
       </c>
       <c r="M12">
-        <v>0.9883599330528985</v>
+        <v>1.054561920197381</v>
       </c>
       <c r="N12">
-        <v>0.9930890697501856</v>
+        <v>1.041882235293272</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9602958470948809</v>
+        <v>1.011676048111719</v>
       </c>
       <c r="D13">
-        <v>0.9876934908446989</v>
+        <v>1.035198936368053</v>
       </c>
       <c r="E13">
-        <v>0.9726851547462295</v>
+        <v>1.032424975945722</v>
       </c>
       <c r="F13">
-        <v>0.9732173475511516</v>
+        <v>1.040717411778673</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029775439456164</v>
+        <v>1.05783357848071</v>
       </c>
       <c r="J13">
-        <v>0.9917819091900687</v>
+        <v>1.040903501313955</v>
       </c>
       <c r="K13">
-        <v>1.003015483213658</v>
+        <v>1.049639605600458</v>
       </c>
       <c r="L13">
-        <v>0.9883091998982279</v>
+        <v>1.046914218144594</v>
       </c>
       <c r="M13">
-        <v>0.9888304717920876</v>
+        <v>1.05506244619912</v>
       </c>
       <c r="N13">
-        <v>0.9933814951517315</v>
+        <v>1.042381703679121</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9620198710625962</v>
+        <v>1.013677493667696</v>
       </c>
       <c r="D14">
-        <v>0.9889819946451046</v>
+        <v>1.03682913264205</v>
       </c>
       <c r="E14">
-        <v>0.9742978605274298</v>
+        <v>1.034288252620499</v>
       </c>
       <c r="F14">
-        <v>0.9749352901961887</v>
+        <v>1.042513550429346</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030450856260713</v>
+        <v>1.05869062536239</v>
       </c>
       <c r="J14">
-        <v>0.9931007612628833</v>
+        <v>1.042526996331688</v>
       </c>
       <c r="K14">
-        <v>1.004131975302007</v>
+        <v>1.051104497696659</v>
       </c>
       <c r="L14">
-        <v>0.9897389527832061</v>
+        <v>1.048607431312705</v>
       </c>
       <c r="M14">
-        <v>0.9903635057094864</v>
+        <v>1.056691894453907</v>
       </c>
       <c r="N14">
-        <v>0.9943340113913438</v>
+        <v>1.044007504245998</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9630746218646817</v>
+        <v>1.014900871377862</v>
       </c>
       <c r="D15">
-        <v>0.9897705124922205</v>
+        <v>1.037825793838447</v>
       </c>
       <c r="E15">
-        <v>0.9752847586031449</v>
+        <v>1.035427416348178</v>
       </c>
       <c r="F15">
-        <v>0.9759865776673193</v>
+        <v>1.043611724901181</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030863763382533</v>
+        <v>1.059214178860558</v>
       </c>
       <c r="J15">
-        <v>0.9939075666772305</v>
+        <v>1.043519209719455</v>
       </c>
       <c r="K15">
-        <v>1.004814938530637</v>
+        <v>1.051999799436988</v>
       </c>
       <c r="L15">
-        <v>0.9906137040106995</v>
+        <v>1.049642388088909</v>
       </c>
       <c r="M15">
-        <v>0.9913014823434781</v>
+        <v>1.057687901571282</v>
       </c>
       <c r="N15">
-        <v>0.9949166345464046</v>
+        <v>1.045001126690583</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9691040948838375</v>
+        <v>1.021878808991269</v>
       </c>
       <c r="D16">
-        <v>0.994281115882321</v>
+        <v>1.043513517595619</v>
       </c>
       <c r="E16">
-        <v>0.9809300073222874</v>
+        <v>1.041928489924274</v>
       </c>
       <c r="F16">
-        <v>0.9820000317710067</v>
+        <v>1.049879696754615</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033219369268877</v>
+        <v>1.06219562805948</v>
       </c>
       <c r="J16">
-        <v>0.9985186041026831</v>
+        <v>1.049176383143937</v>
       </c>
       <c r="K16">
-        <v>1.00871741610042</v>
+        <v>1.057104681541241</v>
       </c>
       <c r="L16">
-        <v>0.9956146106572801</v>
+        <v>1.055545265176001</v>
       </c>
       <c r="M16">
-        <v>0.9966644096394747</v>
+        <v>1.063368992294434</v>
       </c>
       <c r="N16">
-        <v>0.9982452243276144</v>
+        <v>1.050666333950215</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9727943068109658</v>
+        <v>1.026137008803911</v>
       </c>
       <c r="D17">
-        <v>0.9970441839258739</v>
+        <v>1.046986747665544</v>
       </c>
       <c r="E17">
-        <v>0.9843881267997217</v>
+        <v>1.045898575414554</v>
       </c>
       <c r="F17">
-        <v>0.9856836478341077</v>
+        <v>1.053708102731857</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034656787604054</v>
+        <v>1.064010724563706</v>
       </c>
       <c r="J17">
-        <v>1.001339653406031</v>
+        <v>1.052626553027058</v>
       </c>
       <c r="K17">
-        <v>1.011104238555467</v>
+        <v>1.060218203812121</v>
       </c>
       <c r="L17">
-        <v>0.9986755402243159</v>
+        <v>1.059147006988197</v>
       </c>
       <c r="M17">
-        <v>0.9999474389115127</v>
+        <v>1.06683569765444</v>
       </c>
       <c r="N17">
-        <v>1.00028056485431</v>
+        <v>1.054121403470309</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.97491534787088</v>
+        <v>1.028580401104632</v>
       </c>
       <c r="D18">
-        <v>0.9986331242812122</v>
+        <v>1.048980493453757</v>
       </c>
       <c r="E18">
-        <v>0.9863768185698083</v>
+        <v>1.048177625214706</v>
       </c>
       <c r="F18">
-        <v>0.9878020146020846</v>
+        <v>1.055906045276747</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035481401303588</v>
+        <v>1.065050665025145</v>
       </c>
       <c r="J18">
-        <v>1.002960705696287</v>
+        <v>1.054605520681559</v>
       </c>
       <c r="K18">
-        <v>1.012475493565945</v>
+        <v>1.062004124077003</v>
       </c>
       <c r="L18">
-        <v>1.000434923642045</v>
+        <v>1.061213524571371</v>
       </c>
       <c r="M18">
-        <v>1.001834676270712</v>
+        <v>1.068824831640666</v>
       </c>
       <c r="N18">
-        <v>1.001449712900593</v>
+        <v>1.056103181485871</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9756333968073756</v>
+        <v>1.029406912896275</v>
       </c>
       <c r="D19">
-        <v>0.9991711659479489</v>
+        <v>1.04965503091028</v>
       </c>
       <c r="E19">
-        <v>0.9870502363721415</v>
+        <v>1.048948706944944</v>
       </c>
       <c r="F19">
-        <v>0.9885193443359904</v>
+        <v>1.056649722215701</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035760291572384</v>
+        <v>1.065402168883967</v>
       </c>
       <c r="J19">
-        <v>1.003509416033622</v>
+        <v>1.055274800762076</v>
       </c>
       <c r="K19">
-        <v>1.012939601160242</v>
+        <v>1.062608123006758</v>
       </c>
       <c r="L19">
-        <v>1.001030540855741</v>
+        <v>1.061912516476538</v>
       </c>
       <c r="M19">
-        <v>1.002473610468499</v>
+        <v>1.069497663910932</v>
       </c>
       <c r="N19">
-        <v>1.001845386153946</v>
+        <v>1.056773412020869</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9724016667769516</v>
+        <v>1.025684370671</v>
       </c>
       <c r="D20">
-        <v>0.9967501075430262</v>
+        <v>1.046617467846095</v>
       </c>
       <c r="E20">
-        <v>0.9840200710129805</v>
+        <v>1.04547646000191</v>
       </c>
       <c r="F20">
-        <v>0.9852915926260483</v>
+        <v>1.053301027508859</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034504009031806</v>
+        <v>1.063817946934352</v>
       </c>
       <c r="J20">
-        <v>1.001039534968886</v>
+        <v>1.052259886295225</v>
       </c>
       <c r="K20">
-        <v>1.010850344123444</v>
+        <v>1.059887308859671</v>
       </c>
       <c r="L20">
-        <v>0.9983498511562217</v>
+        <v>1.058764168204984</v>
       </c>
       <c r="M20">
-        <v>0.9995980980050416</v>
+        <v>1.066467202226299</v>
       </c>
       <c r="N20">
-        <v>1.000064077075406</v>
+        <v>1.05375421602966</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9615137579278072</v>
+        <v>1.013090171650401</v>
       </c>
       <c r="D21">
-        <v>0.9886036891962644</v>
+        <v>1.036350709203934</v>
       </c>
       <c r="E21">
-        <v>0.9738243736505726</v>
+        <v>1.033741425243046</v>
       </c>
       <c r="F21">
-        <v>0.9744309083084193</v>
+        <v>1.041986414356558</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030252642096355</v>
+        <v>1.058439191322675</v>
       </c>
       <c r="J21">
-        <v>0.9927136052939374</v>
+        <v>1.042050613210317</v>
       </c>
       <c r="K21">
-        <v>1.003804233270205</v>
+        <v>1.050674649248353</v>
       </c>
       <c r="L21">
-        <v>0.9893192198869162</v>
+        <v>1.048110562551548</v>
       </c>
       <c r="M21">
-        <v>0.9899134450993289</v>
+        <v>1.056213731847145</v>
       </c>
       <c r="N21">
-        <v>0.9940544112106869</v>
+        <v>1.043530444605951</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9543460739357892</v>
+        <v>1.004751169243194</v>
       </c>
       <c r="D22">
-        <v>0.9832502230843997</v>
+        <v>1.029561915644669</v>
       </c>
       <c r="E22">
-        <v>0.9671234753134612</v>
+        <v>1.025981960280917</v>
       </c>
       <c r="F22">
-        <v>0.9672925389651489</v>
+        <v>1.034507464704889</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027439937183372</v>
+        <v>1.054863594423558</v>
       </c>
       <c r="J22">
-        <v>0.9872295883663853</v>
+        <v>1.035284235809485</v>
       </c>
       <c r="K22">
-        <v>0.9991609626802949</v>
+        <v>1.044569644398576</v>
       </c>
       <c r="L22">
-        <v>0.9833756212009005</v>
+        <v>1.041055702589716</v>
       </c>
       <c r="M22">
-        <v>0.9835410273721272</v>
+        <v>1.049424976178853</v>
       </c>
       <c r="N22">
-        <v>0.9900925529834486</v>
+        <v>1.036754458173096</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9581784110111109</v>
+        <v>1.009214778372558</v>
       </c>
       <c r="D23">
-        <v>0.9861115700224861</v>
+        <v>1.03319479863003</v>
       </c>
       <c r="E23">
-        <v>0.9707051372741498</v>
+        <v>1.030134293312977</v>
       </c>
       <c r="F23">
-        <v>0.9711080912924238</v>
+        <v>1.038509428617044</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028945061877675</v>
+        <v>1.056778781129398</v>
       </c>
       <c r="J23">
-        <v>0.9901619429120585</v>
+        <v>1.038906633334769</v>
       </c>
       <c r="K23">
-        <v>1.001643950278311</v>
+        <v>1.047837875030428</v>
       </c>
       <c r="L23">
-        <v>0.9865532912707734</v>
+        <v>1.044831967821175</v>
       </c>
       <c r="M23">
-        <v>0.9869478175466908</v>
+        <v>1.053058685018042</v>
       </c>
       <c r="N23">
-        <v>0.9922112998369347</v>
+        <v>1.040381999918361</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9725791805257724</v>
+        <v>1.025889022444342</v>
       </c>
       <c r="D24">
-        <v>0.9968830579039127</v>
+        <v>1.046784428337289</v>
       </c>
       <c r="E24">
-        <v>0.9841864668911947</v>
+        <v>1.045667308468569</v>
       </c>
       <c r="F24">
-        <v>0.9854688385093475</v>
+        <v>1.053485075251352</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03457308560374</v>
+        <v>1.063905112611693</v>
       </c>
       <c r="J24">
-        <v>1.001175220726881</v>
+        <v>1.052425670128748</v>
       </c>
       <c r="K24">
-        <v>1.010965132538464</v>
+        <v>1.060036918776953</v>
       </c>
       <c r="L24">
-        <v>0.9984970960628869</v>
+        <v>1.058937262134137</v>
       </c>
       <c r="M24">
-        <v>0.999756035366925</v>
+        <v>1.066633810764851</v>
       </c>
       <c r="N24">
-        <v>1.000161954089311</v>
+        <v>1.053920235295243</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9880718057988365</v>
+        <v>1.043673559785487</v>
       </c>
       <c r="D25">
-        <v>1.008500892688825</v>
+        <v>1.061307755551129</v>
       </c>
       <c r="E25">
-        <v>0.998729490298327</v>
+        <v>1.062271288824125</v>
       </c>
       <c r="F25">
-        <v>1.000960540717851</v>
+        <v>1.069501641034126</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040567549300935</v>
+        <v>1.071445980897931</v>
       </c>
       <c r="J25">
-        <v>1.01300737918359</v>
+        <v>1.066815512539016</v>
       </c>
       <c r="K25">
-        <v>1.020968661145413</v>
+        <v>1.073023458619115</v>
       </c>
       <c r="L25">
-        <v>1.011347561362707</v>
+        <v>1.073974141945214</v>
       </c>
       <c r="M25">
-        <v>1.013543963806421</v>
+        <v>1.081108994030029</v>
       </c>
       <c r="N25">
-        <v>1.008687890181308</v>
+        <v>1.068330512932271</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_1/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.056830442725411</v>
+        <v>0.995589474916727</v>
       </c>
       <c r="D2">
-        <v>1.072067995341823</v>
+        <v>1.017930713885634</v>
       </c>
       <c r="E2">
-        <v>1.074578639395661</v>
+        <v>1.003795112759647</v>
       </c>
       <c r="F2">
-        <v>1.081378696936532</v>
+        <v>1.022084210496209</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.076974044067674</v>
+        <v>1.043008822121879</v>
       </c>
       <c r="J2">
-        <v>1.077434755161771</v>
+        <v>1.017902909078882</v>
       </c>
       <c r="K2">
-        <v>1.082606953562091</v>
+        <v>1.029145771876738</v>
       </c>
       <c r="L2">
-        <v>1.085088288375646</v>
+        <v>1.015201827634745</v>
       </c>
       <c r="M2">
-        <v>1.091809805899579</v>
+        <v>1.033244217486253</v>
       </c>
       <c r="N2">
-        <v>1.078964836097594</v>
+        <v>1.009829490771644</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.065879088181907</v>
+        <v>0.9997718057610477</v>
       </c>
       <c r="D3">
-        <v>1.079474792581766</v>
+        <v>1.02093177760095</v>
       </c>
       <c r="E3">
-        <v>1.083054656046806</v>
+        <v>1.007468849039088</v>
       </c>
       <c r="F3">
-        <v>1.089560696680445</v>
+        <v>1.025627315604567</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.080745562870317</v>
+        <v>1.043892060288617</v>
       </c>
       <c r="J3">
-        <v>1.084721836195973</v>
+        <v>1.020268693515209</v>
       </c>
       <c r="K3">
-        <v>1.089182573957726</v>
+        <v>1.031303658400148</v>
       </c>
       <c r="L3">
-        <v>1.092724678181908</v>
+        <v>1.018007048250812</v>
       </c>
       <c r="M3">
-        <v>1.099162870622914</v>
+        <v>1.03594246337936</v>
       </c>
       <c r="N3">
-        <v>1.086262265622705</v>
+        <v>1.0106318932942</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.071525921686496</v>
+        <v>1.002427226673992</v>
       </c>
       <c r="D4">
-        <v>1.084099227417799</v>
+        <v>1.022839691312656</v>
       </c>
       <c r="E4">
-        <v>1.088348932170065</v>
+        <v>1.009807131527035</v>
       </c>
       <c r="F4">
-        <v>1.094672223778484</v>
+        <v>1.027881243215044</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.083084782555565</v>
+        <v>1.044442849116488</v>
       </c>
       <c r="J4">
-        <v>1.089261500911517</v>
+        <v>1.021769046877316</v>
       </c>
       <c r="K4">
-        <v>1.093278506364997</v>
+        <v>1.032670059964331</v>
       </c>
       <c r="L4">
-        <v>1.097486345312331</v>
+        <v>1.019788616739067</v>
       </c>
       <c r="M4">
-        <v>1.103748072208013</v>
+        <v>1.037654420359914</v>
       </c>
       <c r="N4">
-        <v>1.090808377182851</v>
+        <v>1.011140486116104</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.073853302842638</v>
+        <v>1.00353179958872</v>
       </c>
       <c r="D5">
-        <v>1.086005644347281</v>
+        <v>1.023633868219577</v>
       </c>
       <c r="E5">
-        <v>1.090532077196297</v>
+        <v>1.010781135585842</v>
       </c>
       <c r="F5">
-        <v>1.096780202869919</v>
+        <v>1.028819801571357</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.084045400071789</v>
+        <v>1.044669522903743</v>
       </c>
       <c r="J5">
-        <v>1.091130624209472</v>
+        <v>1.022392703716309</v>
       </c>
       <c r="K5">
-        <v>1.094964783856195</v>
+        <v>1.033237516091015</v>
       </c>
       <c r="L5">
-        <v>1.099447917045278</v>
+        <v>1.020529778706965</v>
       </c>
       <c r="M5">
-        <v>1.105636982526095</v>
+        <v>1.038366205820569</v>
       </c>
       <c r="N5">
-        <v>1.092680154850282</v>
+        <v>1.01135182367853</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.074241440654849</v>
+        <v>1.003716583625608</v>
       </c>
       <c r="D6">
-        <v>1.086323599980537</v>
+        <v>1.02376675649651</v>
       </c>
       <c r="E6">
-        <v>1.090896221715564</v>
+        <v>1.010944155172483</v>
       </c>
       <c r="F6">
-        <v>1.097131820521949</v>
+        <v>1.028976869990735</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.084205394640264</v>
+        <v>1.044707298755784</v>
       </c>
       <c r="J6">
-        <v>1.09144222344588</v>
+        <v>1.022497008295172</v>
       </c>
       <c r="K6">
-        <v>1.095245891744108</v>
+        <v>1.033332390240324</v>
       </c>
       <c r="L6">
-        <v>1.099774989329512</v>
+        <v>1.020653771719451</v>
       </c>
       <c r="M6">
-        <v>1.105951940826532</v>
+        <v>1.038485259321646</v>
       </c>
       <c r="N6">
-        <v>1.092992196593346</v>
+        <v>1.01138716493492</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.071557199049322</v>
+        <v>1.002442031744136</v>
       </c>
       <c r="D7">
-        <v>1.084124845948174</v>
+        <v>1.02285033393416</v>
       </c>
       <c r="E7">
-        <v>1.088378267008747</v>
+        <v>1.0098201812365</v>
       </c>
       <c r="F7">
-        <v>1.094700547882728</v>
+        <v>1.027893819261109</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.083097706132015</v>
+        <v>1.044445897000521</v>
       </c>
       <c r="J7">
-        <v>1.089286627516217</v>
+        <v>1.021777407814219</v>
       </c>
       <c r="K7">
-        <v>1.093301175590563</v>
+        <v>1.032677669533346</v>
       </c>
       <c r="L7">
-        <v>1.097512710578454</v>
+        <v>1.019798550564528</v>
       </c>
       <c r="M7">
-        <v>1.103773460725382</v>
+        <v>1.037663962117604</v>
       </c>
       <c r="N7">
-        <v>1.090833539470212</v>
+        <v>1.011143319657387</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.059933696629574</v>
+        <v>0.9970136851756866</v>
       </c>
       <c r="D8">
-        <v>1.074607639879164</v>
+        <v>1.018952110001586</v>
       </c>
       <c r="E8">
-        <v>1.077484442907399</v>
+        <v>1.005044899749076</v>
       </c>
       <c r="F8">
-        <v>1.084183498025995</v>
+        <v>1.023289799488027</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.07827051614923</v>
+        <v>1.043311659678275</v>
       </c>
       <c r="J8">
-        <v>1.079935513224096</v>
+        <v>1.01870887015387</v>
       </c>
       <c r="K8">
-        <v>1.084863647235919</v>
+        <v>1.029881339428944</v>
       </c>
       <c r="L8">
-        <v>1.087707982070205</v>
+        <v>1.016156965568499</v>
       </c>
       <c r="M8">
-        <v>1.094332251563633</v>
+        <v>1.034163272767438</v>
       </c>
       <c r="N8">
-        <v>1.081469145523209</v>
+        <v>1.010102905403256</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.037687098366093</v>
+        <v>0.9870399535758942</v>
       </c>
       <c r="D9">
-        <v>1.056416049686827</v>
+        <v>1.011812183658684</v>
       </c>
       <c r="E9">
-        <v>1.056678050516036</v>
+        <v>0.9963185900980492</v>
       </c>
       <c r="F9">
-        <v>1.064105361097755</v>
+        <v>1.014867742450635</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.068915605730208</v>
+        <v>1.041150281949703</v>
       </c>
       <c r="J9">
-        <v>1.061975787771035</v>
+        <v>1.013058814108385</v>
       </c>
       <c r="K9">
-        <v>1.068655634533321</v>
+        <v>1.02471647996338</v>
       </c>
       <c r="L9">
-        <v>1.0689139404446</v>
+        <v>1.009471679331753</v>
       </c>
       <c r="M9">
-        <v>1.076237460578507</v>
+        <v>1.027724120006299</v>
       </c>
       <c r="N9">
-        <v>1.063483915199996</v>
+        <v>1.008185119855381</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.021391957517015</v>
+        <v>0.9800881536275199</v>
       </c>
       <c r="D10">
-        <v>1.043116525859348</v>
+        <v>1.006854648951765</v>
       </c>
       <c r="E10">
-        <v>1.041474718152147</v>
+        <v>0.990270945106547</v>
       </c>
       <c r="F10">
-        <v>1.049442150693238</v>
+        <v>1.009026303010675</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.061987888713564</v>
+        <v>1.039594078405741</v>
       </c>
       <c r="J10">
-        <v>1.048781812437719</v>
+        <v>1.009114680792898</v>
       </c>
       <c r="K10">
-        <v>1.05674861864537</v>
+        <v>1.02110123377608</v>
       </c>
       <c r="L10">
-        <v>1.055133444879622</v>
+        <v>1.004818110936877</v>
       </c>
       <c r="M10">
-        <v>1.062972625639456</v>
+        <v>1.023234475057536</v>
       </c>
       <c r="N10">
-        <v>1.050271202908336</v>
+        <v>1.006845177103301</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.013911587433372</v>
+        <v>0.9769994071697058</v>
       </c>
       <c r="D11">
-        <v>1.03701983195687</v>
+        <v>1.004657406093795</v>
       </c>
       <c r="E11">
-        <v>1.034506217864175</v>
+        <v>0.9875927538517195</v>
       </c>
       <c r="F11">
-        <v>1.042723669518043</v>
+        <v>1.006438616189833</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.058790826161474</v>
+        <v>1.038891465131484</v>
       </c>
       <c r="J11">
-        <v>1.042716865269025</v>
+        <v>1.007361361042494</v>
       </c>
       <c r="K11">
-        <v>1.051275820577926</v>
+        <v>1.019492021810125</v>
       </c>
       <c r="L11">
-        <v>1.048805471642279</v>
+        <v>1.002752508107771</v>
       </c>
       <c r="M11">
-        <v>1.05688248020614</v>
+        <v>1.021240122608492</v>
       </c>
       <c r="N11">
-        <v>1.044197642819003</v>
+        <v>1.006249285633488</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.011061246252875</v>
+        <v>0.9758396870602727</v>
       </c>
       <c r="D12">
-        <v>1.034698260375929</v>
+        <v>1.003833312825881</v>
       </c>
       <c r="E12">
-        <v>1.031852715298963</v>
+        <v>0.9865885642776</v>
       </c>
       <c r="F12">
-        <v>1.040165794482613</v>
+        <v>1.005468265053028</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.057570186422159</v>
+        <v>1.038626031842688</v>
       </c>
       <c r="J12">
-        <v>1.040404741224642</v>
+        <v>1.006702957907259</v>
       </c>
       <c r="K12">
-        <v>1.049189578977463</v>
+        <v>1.018887439267744</v>
       </c>
       <c r="L12">
-        <v>1.046394094037188</v>
+        <v>1.001977297126353</v>
       </c>
       <c r="M12">
-        <v>1.054561920197381</v>
+        <v>1.020491446273172</v>
       </c>
       <c r="N12">
-        <v>1.041882235293272</v>
+        <v>1.006025486476974</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.011676048111719</v>
+        <v>0.9760890234471659</v>
       </c>
       <c r="D13">
-        <v>1.035198936368053</v>
+        <v>1.004010448552258</v>
       </c>
       <c r="E13">
-        <v>1.032424975945722</v>
+        <v>0.9868043987632318</v>
       </c>
       <c r="F13">
-        <v>1.040717411778673</v>
+        <v>1.00567683042802</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.05783357848071</v>
+        <v>1.038683171790642</v>
       </c>
       <c r="J13">
-        <v>1.040903501313955</v>
+        <v>1.006844515979133</v>
       </c>
       <c r="K13">
-        <v>1.049639605600458</v>
+        <v>1.019017438771038</v>
       </c>
       <c r="L13">
-        <v>1.046914218144594</v>
+        <v>1.002143948405022</v>
       </c>
       <c r="M13">
-        <v>1.05506244619912</v>
+        <v>1.020652402174185</v>
       </c>
       <c r="N13">
-        <v>1.042381703679121</v>
+        <v>1.006073605112393</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.013677493667696</v>
+        <v>0.9769038014642256</v>
       </c>
       <c r="D14">
-        <v>1.03682913264205</v>
+        <v>1.004589450273488</v>
       </c>
       <c r="E14">
-        <v>1.034288252620499</v>
+        <v>0.9875099414687876</v>
       </c>
       <c r="F14">
-        <v>1.042513550429346</v>
+        <v>1.006358596161131</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.05869062536239</v>
+        <v>1.038869615918583</v>
       </c>
       <c r="J14">
-        <v>1.042526996331688</v>
+        <v>1.007307084783531</v>
       </c>
       <c r="K14">
-        <v>1.051104497696659</v>
+        <v>1.019442188184391</v>
       </c>
       <c r="L14">
-        <v>1.048607431312705</v>
+        <v>1.002688593320944</v>
       </c>
       <c r="M14">
-        <v>1.056691894453907</v>
+        <v>1.021178399602593</v>
       </c>
       <c r="N14">
-        <v>1.044007504245998</v>
+        <v>1.00623083708907</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.014900871377862</v>
+        <v>0.9774041478880622</v>
       </c>
       <c r="D15">
-        <v>1.037825793838447</v>
+        <v>1.004945129848148</v>
       </c>
       <c r="E15">
-        <v>1.035427416348178</v>
+        <v>0.9879433914835307</v>
       </c>
       <c r="F15">
-        <v>1.043611724901181</v>
+        <v>1.006777426887003</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.059214178860558</v>
+        <v>1.03898389642957</v>
       </c>
       <c r="J15">
-        <v>1.043519209719455</v>
+        <v>1.007591132734656</v>
       </c>
       <c r="K15">
-        <v>1.051999799436988</v>
+        <v>1.019702974290686</v>
       </c>
       <c r="L15">
-        <v>1.049642388088909</v>
+        <v>1.003023102027541</v>
       </c>
       <c r="M15">
-        <v>1.057687901571282</v>
+        <v>1.021501429017177</v>
       </c>
       <c r="N15">
-        <v>1.045001126690583</v>
+        <v>1.006327383971357</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.021878808991269</v>
+        <v>0.9802914363233876</v>
       </c>
       <c r="D16">
-        <v>1.043513517595619</v>
+        <v>1.006999378320038</v>
       </c>
       <c r="E16">
-        <v>1.041928489924274</v>
+        <v>0.9904473961991516</v>
       </c>
       <c r="F16">
-        <v>1.049879696754615</v>
+        <v>1.0091967764531</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.06219562805948</v>
+        <v>1.039640091575925</v>
       </c>
       <c r="J16">
-        <v>1.049176383143937</v>
+        <v>1.009230058642392</v>
       </c>
       <c r="K16">
-        <v>1.057104681541241</v>
+        <v>1.021207086575795</v>
       </c>
       <c r="L16">
-        <v>1.055545265176001</v>
+        <v>1.004954102745398</v>
       </c>
       <c r="M16">
-        <v>1.063368992294434</v>
+        <v>1.023365746292441</v>
       </c>
       <c r="N16">
-        <v>1.050666333950215</v>
+        <v>1.006884385406418</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.026137008803911</v>
+        <v>0.9820810965277189</v>
       </c>
       <c r="D17">
-        <v>1.046986747665544</v>
+        <v>1.008274175528247</v>
       </c>
       <c r="E17">
-        <v>1.045898575414554</v>
+        <v>0.992001849083371</v>
       </c>
       <c r="F17">
-        <v>1.053708102731857</v>
+        <v>1.01069847917511</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.064010724563706</v>
+        <v>1.04004391480426</v>
       </c>
       <c r="J17">
-        <v>1.052626553027058</v>
+        <v>1.010245724242225</v>
       </c>
       <c r="K17">
-        <v>1.060218203812121</v>
+        <v>1.022138667321281</v>
       </c>
       <c r="L17">
-        <v>1.059147006988197</v>
+        <v>1.006151583388817</v>
       </c>
       <c r="M17">
-        <v>1.06683569765444</v>
+        <v>1.024521490022932</v>
       </c>
       <c r="N17">
-        <v>1.054121403470309</v>
+        <v>1.007229507906989</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.028580401104632</v>
+        <v>0.9831174378231705</v>
       </c>
       <c r="D18">
-        <v>1.048980493453757</v>
+        <v>1.009012885082869</v>
       </c>
       <c r="E18">
-        <v>1.048177625214706</v>
+        <v>0.9929028238711644</v>
       </c>
       <c r="F18">
-        <v>1.055906045276747</v>
+        <v>1.011568800282189</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.065050665025145</v>
+        <v>1.040276691643624</v>
       </c>
       <c r="J18">
-        <v>1.054605520681559</v>
+        <v>1.010833778089989</v>
       </c>
       <c r="K18">
-        <v>1.062004124077003</v>
+        <v>1.022677837015956</v>
       </c>
       <c r="L18">
-        <v>1.061213524571371</v>
+        <v>1.006845198776521</v>
       </c>
       <c r="M18">
-        <v>1.068824831640666</v>
+        <v>1.025190785041816</v>
       </c>
       <c r="N18">
-        <v>1.056103181485871</v>
+        <v>1.007429305608047</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.029406912896275</v>
+        <v>0.9834695430939515</v>
       </c>
       <c r="D19">
-        <v>1.04965503091028</v>
+        <v>1.00926395186185</v>
       </c>
       <c r="E19">
-        <v>1.048948706944944</v>
+        <v>0.9932090774112946</v>
       </c>
       <c r="F19">
-        <v>1.056649722215701</v>
+        <v>1.011864620027988</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.065402168883967</v>
+        <v>1.04035559709972</v>
       </c>
       <c r="J19">
-        <v>1.055274800762076</v>
+        <v>1.011033557646411</v>
       </c>
       <c r="K19">
-        <v>1.062608123006758</v>
+        <v>1.022860974569767</v>
       </c>
       <c r="L19">
-        <v>1.061912516476538</v>
+        <v>1.007080890678251</v>
       </c>
       <c r="M19">
-        <v>1.069497663910932</v>
+        <v>1.025418187577901</v>
       </c>
       <c r="N19">
-        <v>1.056773412020869</v>
+        <v>1.007497178931357</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025684370671</v>
+        <v>0.9818898668737304</v>
       </c>
       <c r="D20">
-        <v>1.046617467846095</v>
+        <v>1.008137906724323</v>
       </c>
       <c r="E20">
-        <v>1.04547646000191</v>
+        <v>0.9918356648940856</v>
       </c>
       <c r="F20">
-        <v>1.053301027508859</v>
+        <v>1.010537942457675</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.063817946934352</v>
+        <v>1.040000875447906</v>
       </c>
       <c r="J20">
-        <v>1.052259886295225</v>
+        <v>1.010137206775178</v>
       </c>
       <c r="K20">
-        <v>1.059887308859671</v>
+        <v>1.022039154434909</v>
       </c>
       <c r="L20">
-        <v>1.058764168204984</v>
+        <v>1.006023609704537</v>
       </c>
       <c r="M20">
-        <v>1.066467202226299</v>
+        <v>1.024397991626186</v>
       </c>
       <c r="N20">
-        <v>1.05375421602966</v>
+        <v>1.007192636059199</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C21">
-        <v>1.013090171650401</v>
+        <v>0.9766642177196675</v>
       </c>
       <c r="D21">
-        <v>1.036350709203934</v>
+        <v>1.004419170679494</v>
       </c>
       <c r="E21">
-        <v>1.033741425243046</v>
+        <v>0.9873024396734367</v>
       </c>
       <c r="F21">
-        <v>1.041986414356558</v>
+        <v>1.006158089666675</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.058439191322675</v>
+        <v>1.038814836732517</v>
       </c>
       <c r="J21">
-        <v>1.042050613210317</v>
+        <v>1.007171069532962</v>
       </c>
       <c r="K21">
-        <v>1.050674649248353</v>
+        <v>1.01931730141208</v>
       </c>
       <c r="L21">
-        <v>1.048110562551548</v>
+        <v>1.002528431506499</v>
       </c>
       <c r="M21">
-        <v>1.056213731847145</v>
+        <v>1.021023726862405</v>
       </c>
       <c r="N21">
-        <v>1.043530444605951</v>
+        <v>1.006184604906988</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.004751169243194</v>
+        <v>0.973306438443783</v>
       </c>
       <c r="D22">
-        <v>1.029561915644669</v>
+        <v>1.002034936326852</v>
       </c>
       <c r="E22">
-        <v>1.025981960280917</v>
+        <v>0.9843976508151827</v>
       </c>
       <c r="F22">
-        <v>1.034507464704889</v>
+        <v>1.003351032275176</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.054863594423558</v>
+        <v>1.038043302325391</v>
       </c>
       <c r="J22">
-        <v>1.035284235809485</v>
+        <v>1.005264652116005</v>
       </c>
       <c r="K22">
-        <v>1.044569644398576</v>
+        <v>1.017566188232225</v>
       </c>
       <c r="L22">
-        <v>1.041055702589716</v>
+        <v>1.000284661804237</v>
       </c>
       <c r="M22">
-        <v>1.049424976178853</v>
+        <v>1.018856395581185</v>
       </c>
       <c r="N22">
-        <v>1.036754458173096</v>
+        <v>1.005536536328559</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.009214778372558</v>
+        <v>0.9750935219387719</v>
       </c>
       <c r="D23">
-        <v>1.03319479863003</v>
+        <v>1.003303353606</v>
       </c>
       <c r="E23">
-        <v>1.030134293312977</v>
+        <v>0.9859428637451595</v>
       </c>
       <c r="F23">
-        <v>1.038509428617044</v>
+        <v>1.004844299092771</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.056778781129398</v>
+        <v>1.038454800610321</v>
       </c>
       <c r="J23">
-        <v>1.038906633334769</v>
+        <v>1.006279320930872</v>
       </c>
       <c r="K23">
-        <v>1.047837875030428</v>
+        <v>1.01849835175001</v>
       </c>
       <c r="L23">
-        <v>1.044831967821175</v>
+        <v>1.001478631521287</v>
       </c>
       <c r="M23">
-        <v>1.053058685018042</v>
+        <v>1.020009794415718</v>
       </c>
       <c r="N23">
-        <v>1.040381999918361</v>
+        <v>1.005881478903732</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025889022444342</v>
+        <v>0.9819762985704866</v>
       </c>
       <c r="D24">
-        <v>1.046784428337289</v>
+        <v>1.00819949572006</v>
       </c>
       <c r="E24">
-        <v>1.045667308468569</v>
+        <v>0.991910773993371</v>
       </c>
       <c r="F24">
-        <v>1.053485075251352</v>
+        <v>1.010610499356239</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.063905112611693</v>
+        <v>1.040020331620116</v>
       </c>
       <c r="J24">
-        <v>1.052425670128748</v>
+        <v>1.01018625461969</v>
       </c>
       <c r="K24">
-        <v>1.060036918776953</v>
+        <v>1.022084133001849</v>
       </c>
       <c r="L24">
-        <v>1.058937262134137</v>
+        <v>1.006081450481174</v>
       </c>
       <c r="M24">
-        <v>1.066633810764851</v>
+        <v>1.024453810140762</v>
       </c>
       <c r="N24">
-        <v>1.053920235295243</v>
+        <v>1.007209301508053</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.043673559785487</v>
+        <v>0.9896695805500969</v>
       </c>
       <c r="D25">
-        <v>1.061307755551129</v>
+        <v>1.013691658761665</v>
       </c>
       <c r="E25">
-        <v>1.062271288824125</v>
+        <v>0.9986135289831151</v>
       </c>
       <c r="F25">
-        <v>1.069501641034126</v>
+        <v>1.017083563152962</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.071445980897931</v>
+        <v>1.041728916255781</v>
       </c>
       <c r="J25">
-        <v>1.066815512539016</v>
+        <v>1.014549677083276</v>
       </c>
       <c r="K25">
-        <v>1.073023458619115</v>
+        <v>1.0260810834201</v>
       </c>
       <c r="L25">
-        <v>1.073974141945214</v>
+        <v>1.011233406324662</v>
       </c>
       <c r="M25">
-        <v>1.081108994030029</v>
+        <v>1.029422343363385</v>
       </c>
       <c r="N25">
-        <v>1.068330512932271</v>
+        <v>1.00869138179734</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_1/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.995589474916727</v>
+        <v>1.026409909042907</v>
       </c>
       <c r="D2">
-        <v>1.017930713885634</v>
+        <v>1.035091042317973</v>
       </c>
       <c r="E2">
-        <v>1.003795112759647</v>
+        <v>1.030039241472381</v>
       </c>
       <c r="F2">
-        <v>1.022084210496209</v>
+        <v>1.04386335903152</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043008822121879</v>
+        <v>1.033178144066372</v>
       </c>
       <c r="J2">
-        <v>1.017902909078882</v>
+        <v>1.031573507755817</v>
       </c>
       <c r="K2">
-        <v>1.029145771876738</v>
+        <v>1.037888642323885</v>
       </c>
       <c r="L2">
-        <v>1.015201827634745</v>
+        <v>1.032851408866051</v>
       </c>
       <c r="M2">
-        <v>1.033244217486253</v>
+        <v>1.046636026768367</v>
       </c>
       <c r="N2">
-        <v>1.009829490771644</v>
+        <v>1.014534486990944</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9997718057610477</v>
+        <v>1.027306469732585</v>
       </c>
       <c r="D3">
-        <v>1.02093177760095</v>
+        <v>1.035754859373252</v>
       </c>
       <c r="E3">
-        <v>1.007468849039088</v>
+        <v>1.030883158265832</v>
       </c>
       <c r="F3">
-        <v>1.025627315604567</v>
+        <v>1.04466648462613</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043892060288617</v>
+        <v>1.033309341724197</v>
       </c>
       <c r="J3">
-        <v>1.020268693515209</v>
+        <v>1.032110088853492</v>
       </c>
       <c r="K3">
-        <v>1.031303658400148</v>
+        <v>1.038362169641206</v>
       </c>
       <c r="L3">
-        <v>1.018007048250812</v>
+        <v>1.033503501140152</v>
       </c>
       <c r="M3">
-        <v>1.03594246337936</v>
+        <v>1.047250294595473</v>
       </c>
       <c r="N3">
-        <v>1.0106318932942</v>
+        <v>1.014714506794011</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.002427226673992</v>
+        <v>1.027887271470443</v>
       </c>
       <c r="D4">
-        <v>1.022839691312656</v>
+        <v>1.036184790439941</v>
       </c>
       <c r="E4">
-        <v>1.009807131527035</v>
+        <v>1.031430246615142</v>
       </c>
       <c r="F4">
-        <v>1.027881243215044</v>
+        <v>1.045186892443338</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044442849116488</v>
+        <v>1.03339306787626</v>
       </c>
       <c r="J4">
-        <v>1.021769046877316</v>
+        <v>1.032457338243665</v>
       </c>
       <c r="K4">
-        <v>1.032670059964331</v>
+        <v>1.038668287911581</v>
       </c>
       <c r="L4">
-        <v>1.019788616739067</v>
+        <v>1.033925822948246</v>
       </c>
       <c r="M4">
-        <v>1.037654420359914</v>
+        <v>1.047647844302253</v>
       </c>
       <c r="N4">
-        <v>1.011140486116104</v>
+        <v>1.014830943175951</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.00353179958872</v>
+        <v>1.028131598846378</v>
       </c>
       <c r="D5">
-        <v>1.023633868219577</v>
+        <v>1.036365626816863</v>
       </c>
       <c r="E5">
-        <v>1.010781135585842</v>
+        <v>1.031660484544147</v>
       </c>
       <c r="F5">
-        <v>1.028819801571357</v>
+        <v>1.045405845264041</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044669522903743</v>
+        <v>1.033427986209251</v>
       </c>
       <c r="J5">
-        <v>1.022392703716309</v>
+        <v>1.032603331604044</v>
       </c>
       <c r="K5">
-        <v>1.033237516091015</v>
+        <v>1.038796910412612</v>
       </c>
       <c r="L5">
-        <v>1.020529778706965</v>
+        <v>1.034103455317522</v>
       </c>
       <c r="M5">
-        <v>1.038366205820569</v>
+        <v>1.047814991203749</v>
       </c>
       <c r="N5">
-        <v>1.01135182367853</v>
+        <v>1.014879880973006</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.003716583625608</v>
+        <v>1.028172631732706</v>
       </c>
       <c r="D6">
-        <v>1.02376675649651</v>
+        <v>1.036395995465377</v>
       </c>
       <c r="E6">
-        <v>1.010944155172483</v>
+        <v>1.031699156647365</v>
       </c>
       <c r="F6">
-        <v>1.028976869990735</v>
+        <v>1.045442618519534</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044707298755784</v>
+        <v>1.033433832704857</v>
       </c>
       <c r="J6">
-        <v>1.022497008295172</v>
+        <v>1.032627845066999</v>
       </c>
       <c r="K6">
-        <v>1.033332390240324</v>
+        <v>1.038818502577496</v>
       </c>
       <c r="L6">
-        <v>1.020653771719451</v>
+        <v>1.034133285710822</v>
       </c>
       <c r="M6">
-        <v>1.038485259321646</v>
+        <v>1.04784305685719</v>
       </c>
       <c r="N6">
-        <v>1.01138716493492</v>
+        <v>1.01488809712417</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.002442031744136</v>
+        <v>1.027890535564382</v>
       </c>
       <c r="D7">
-        <v>1.02285033393416</v>
+        <v>1.036187206419767</v>
       </c>
       <c r="E7">
-        <v>1.0098201812365</v>
+        <v>1.031433322116862</v>
       </c>
       <c r="F7">
-        <v>1.027893819261109</v>
+        <v>1.045189817422704</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044445897000521</v>
+        <v>1.033393535558293</v>
       </c>
       <c r="J7">
-        <v>1.021777407814219</v>
+        <v>1.032459288977397</v>
       </c>
       <c r="K7">
-        <v>1.032677669533346</v>
+        <v>1.038670006846867</v>
       </c>
       <c r="L7">
-        <v>1.019798550564528</v>
+        <v>1.033928196135497</v>
       </c>
       <c r="M7">
-        <v>1.037663962117604</v>
+        <v>1.047650077662414</v>
       </c>
       <c r="N7">
-        <v>1.011143319657387</v>
+        <v>1.014831597133139</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9970136851756866</v>
+        <v>1.026712766995123</v>
       </c>
       <c r="D8">
-        <v>1.018952110001586</v>
+        <v>1.035315299169447</v>
       </c>
       <c r="E8">
-        <v>1.005044899749076</v>
+        <v>1.030324235369896</v>
       </c>
       <c r="F8">
-        <v>1.023289799488027</v>
+        <v>1.044134626448891</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043311659678275</v>
+        <v>1.0332227242847</v>
       </c>
       <c r="J8">
-        <v>1.01870887015387</v>
+        <v>1.03175483770751</v>
       </c>
       <c r="K8">
-        <v>1.029881339428944</v>
+        <v>1.038048731472149</v>
       </c>
       <c r="L8">
-        <v>1.016156965568499</v>
+        <v>1.033071708132492</v>
       </c>
       <c r="M8">
-        <v>1.034163272767438</v>
+        <v>1.046843604531437</v>
       </c>
       <c r="N8">
-        <v>1.010102905403256</v>
+        <v>1.014595335288627</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9870399535758942</v>
+        <v>1.024642557111042</v>
       </c>
       <c r="D9">
-        <v>1.011812183658684</v>
+        <v>1.033782003016323</v>
       </c>
       <c r="E9">
-        <v>0.9963185900980492</v>
+        <v>1.028377751215857</v>
       </c>
       <c r="F9">
-        <v>1.014867742450635</v>
+        <v>1.042280931267871</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041150281949703</v>
+        <v>1.032912819532516</v>
       </c>
       <c r="J9">
-        <v>1.013058814108385</v>
+        <v>1.030513905751888</v>
       </c>
       <c r="K9">
-        <v>1.02471647996338</v>
+        <v>1.03695183320209</v>
       </c>
       <c r="L9">
-        <v>1.009471679331753</v>
+        <v>1.031565395894436</v>
       </c>
       <c r="M9">
-        <v>1.027724120006299</v>
+        <v>1.045423155058899</v>
       </c>
       <c r="N9">
-        <v>1.008185119855381</v>
+        <v>1.014178660600265</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9800881536275199</v>
+        <v>1.023265973036195</v>
       </c>
       <c r="D10">
-        <v>1.006854648951765</v>
+        <v>1.032762001472766</v>
       </c>
       <c r="E10">
-        <v>0.990270945106547</v>
+        <v>1.027085484444111</v>
       </c>
       <c r="F10">
-        <v>1.009026303010675</v>
+        <v>1.041049066632327</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039594078405741</v>
+        <v>1.032700261464613</v>
       </c>
       <c r="J10">
-        <v>1.009114680792898</v>
+        <v>1.029686957962527</v>
       </c>
       <c r="K10">
-        <v>1.02110123377608</v>
+        <v>1.036219209066395</v>
       </c>
       <c r="L10">
-        <v>1.004818110936877</v>
+        <v>1.030563238844331</v>
       </c>
       <c r="M10">
-        <v>1.023234475057536</v>
+        <v>1.044476721953571</v>
       </c>
       <c r="N10">
-        <v>1.006845177103301</v>
+        <v>1.013900668398148</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9769994071697058</v>
+        <v>1.022670757142992</v>
       </c>
       <c r="D11">
-        <v>1.004657406093795</v>
+        <v>1.032320871667393</v>
       </c>
       <c r="E11">
-        <v>0.9875927538517195</v>
+        <v>1.026527217775891</v>
       </c>
       <c r="F11">
-        <v>1.006438616189833</v>
+        <v>1.040516611285781</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038891465131484</v>
+        <v>1.032606817032283</v>
       </c>
       <c r="J11">
-        <v>1.007361361042494</v>
+        <v>1.029328975911317</v>
       </c>
       <c r="K11">
-        <v>1.019492021810125</v>
+        <v>1.035901668165862</v>
       </c>
       <c r="L11">
-        <v>1.002752508107771</v>
+        <v>1.030129797451905</v>
       </c>
       <c r="M11">
-        <v>1.021240122608492</v>
+        <v>1.044067051375537</v>
       </c>
       <c r="N11">
-        <v>1.006249285633488</v>
+        <v>1.013780250789118</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9758396870602727</v>
+        <v>1.022449797106156</v>
       </c>
       <c r="D12">
-        <v>1.003833312825881</v>
+        <v>1.032157098900333</v>
       </c>
       <c r="E12">
-        <v>0.9865885642776</v>
+        <v>1.026320048670734</v>
       </c>
       <c r="F12">
-        <v>1.005468265053028</v>
+        <v>1.040318978268269</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038626031842688</v>
+        <v>1.032571897089926</v>
       </c>
       <c r="J12">
-        <v>1.006702957907259</v>
+        <v>1.029196020409796</v>
       </c>
       <c r="K12">
-        <v>1.018887439267744</v>
+        <v>1.035783674043233</v>
       </c>
       <c r="L12">
-        <v>1.001977297126353</v>
+        <v>1.029968874398547</v>
       </c>
       <c r="M12">
-        <v>1.020491446273172</v>
+        <v>1.043914904214712</v>
       </c>
       <c r="N12">
-        <v>1.006025486476974</v>
+        <v>1.013735515997402</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9760890234471659</v>
+        <v>1.022497187895885</v>
       </c>
       <c r="D13">
-        <v>1.004010448552258</v>
+        <v>1.032192224954696</v>
       </c>
       <c r="E13">
-        <v>0.9868043987632318</v>
+        <v>1.026364478251038</v>
       </c>
       <c r="F13">
-        <v>1.00567683042802</v>
+        <v>1.040361364647941</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038683171790642</v>
+        <v>1.032579397052527</v>
       </c>
       <c r="J13">
-        <v>1.006844515979133</v>
+        <v>1.029224539119762</v>
       </c>
       <c r="K13">
-        <v>1.019017438771038</v>
+        <v>1.035808986212603</v>
       </c>
       <c r="L13">
-        <v>1.002143948405022</v>
+        <v>1.030003389461359</v>
       </c>
       <c r="M13">
-        <v>1.020652402174185</v>
+        <v>1.043947539244119</v>
       </c>
       <c r="N13">
-        <v>1.006073605112393</v>
+        <v>1.013745112041257</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9769038014642256</v>
+        <v>1.022652489864933</v>
       </c>
       <c r="D14">
-        <v>1.004589450273488</v>
+        <v>1.032307332466812</v>
       </c>
       <c r="E14">
-        <v>0.9875099414687876</v>
+        <v>1.026510089105145</v>
       </c>
       <c r="F14">
-        <v>1.006358596161131</v>
+        <v>1.040500271918272</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038869615918583</v>
+        <v>1.032603934829877</v>
       </c>
       <c r="J14">
-        <v>1.007307084783531</v>
+        <v>1.029317985455847</v>
       </c>
       <c r="K14">
-        <v>1.019442188184391</v>
+        <v>1.03589191565161</v>
       </c>
       <c r="L14">
-        <v>1.002688593320944</v>
+        <v>1.030116493936049</v>
       </c>
       <c r="M14">
-        <v>1.021178399602593</v>
+        <v>1.044054474371246</v>
       </c>
       <c r="N14">
-        <v>1.00623083708907</v>
+        <v>1.013776553123791</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9774041478880622</v>
+        <v>1.02274819375314</v>
       </c>
       <c r="D15">
-        <v>1.004945129848148</v>
+        <v>1.032378264985286</v>
       </c>
       <c r="E15">
-        <v>0.9879433914835307</v>
+        <v>1.026599830779196</v>
       </c>
       <c r="F15">
-        <v>1.006777426887003</v>
+        <v>1.040585876489135</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03898389642957</v>
+        <v>1.032619025487147</v>
       </c>
       <c r="J15">
-        <v>1.007591132734656</v>
+        <v>1.029375562846791</v>
       </c>
       <c r="K15">
-        <v>1.019702974290686</v>
+        <v>1.035943005251615</v>
       </c>
       <c r="L15">
-        <v>1.003023102027541</v>
+        <v>1.030186191497928</v>
       </c>
       <c r="M15">
-        <v>1.021501429017177</v>
+        <v>1.044120363690055</v>
       </c>
       <c r="N15">
-        <v>1.006327383971357</v>
+        <v>1.013795924187179</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9802914363233876</v>
+        <v>1.023305493662928</v>
       </c>
       <c r="D16">
-        <v>1.006999378320038</v>
+        <v>1.032791289278179</v>
       </c>
       <c r="E16">
-        <v>0.9904473961991516</v>
+        <v>1.027122562157326</v>
       </c>
       <c r="F16">
-        <v>1.0091967764531</v>
+        <v>1.041084424117294</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039640091575925</v>
+        <v>1.032706433507182</v>
       </c>
       <c r="J16">
-        <v>1.009230058642392</v>
+        <v>1.029710718087056</v>
       </c>
       <c r="K16">
-        <v>1.021207086575795</v>
+        <v>1.036240276789637</v>
       </c>
       <c r="L16">
-        <v>1.004954102745398</v>
+        <v>1.030592015557551</v>
       </c>
       <c r="M16">
-        <v>1.023365746292441</v>
+        <v>1.044503913545201</v>
       </c>
       <c r="N16">
-        <v>1.006884385406418</v>
+        <v>1.013908659205692</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9820810965277189</v>
+        <v>1.02365530277541</v>
       </c>
       <c r="D17">
-        <v>1.008274175528247</v>
+        <v>1.033050513646742</v>
       </c>
       <c r="E17">
-        <v>0.992001849083371</v>
+        <v>1.027450805196967</v>
       </c>
       <c r="F17">
-        <v>1.01069847917511</v>
+        <v>1.041397405569129</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04004391480426</v>
+        <v>1.032760886427045</v>
       </c>
       <c r="J17">
-        <v>1.010245724242225</v>
+        <v>1.029920977524286</v>
       </c>
       <c r="K17">
-        <v>1.022138667321281</v>
+        <v>1.03642666530958</v>
       </c>
       <c r="L17">
-        <v>1.006151583388817</v>
+        <v>1.030846712895934</v>
       </c>
       <c r="M17">
-        <v>1.024521490022932</v>
+        <v>1.044744543111902</v>
       </c>
       <c r="N17">
-        <v>1.007229507906989</v>
+        <v>1.013979363136245</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9831174378231705</v>
+        <v>1.023859422830791</v>
       </c>
       <c r="D18">
-        <v>1.009012885082869</v>
+        <v>1.033201766590211</v>
       </c>
       <c r="E18">
-        <v>0.9929028238711644</v>
+        <v>1.027642388487612</v>
       </c>
       <c r="F18">
-        <v>1.011568800282189</v>
+        <v>1.041580053908096</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040276691643624</v>
+        <v>1.032792512252632</v>
       </c>
       <c r="J18">
-        <v>1.010833778089989</v>
+        <v>1.030043627074791</v>
       </c>
       <c r="K18">
-        <v>1.022677837015956</v>
+        <v>1.036535352603146</v>
       </c>
       <c r="L18">
-        <v>1.006845198776521</v>
+        <v>1.030995321619779</v>
       </c>
       <c r="M18">
-        <v>1.025190785041816</v>
+        <v>1.044884911789165</v>
       </c>
       <c r="N18">
-        <v>1.007429305608047</v>
+        <v>1.014020599155913</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9834695430939515</v>
+        <v>1.023929036416982</v>
       </c>
       <c r="D19">
-        <v>1.00926395186185</v>
+        <v>1.033253348661504</v>
       </c>
       <c r="E19">
-        <v>0.9932090774112946</v>
+        <v>1.027707734535463</v>
       </c>
       <c r="F19">
-        <v>1.011864620027988</v>
+        <v>1.041642347744262</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04035559709972</v>
+        <v>1.032803272815795</v>
       </c>
       <c r="J19">
-        <v>1.011033557646411</v>
+        <v>1.030085448854999</v>
       </c>
       <c r="K19">
-        <v>1.022860974569767</v>
+        <v>1.036572407038849</v>
       </c>
       <c r="L19">
-        <v>1.007080890678251</v>
+        <v>1.031046001466803</v>
       </c>
       <c r="M19">
-        <v>1.025418187577901</v>
+        <v>1.04493277612805</v>
       </c>
       <c r="N19">
-        <v>1.007497178931357</v>
+        <v>1.014034658815113</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9818898668737304</v>
+        <v>1.023617763044015</v>
       </c>
       <c r="D20">
-        <v>1.008137906724323</v>
+        <v>1.033022695959613</v>
       </c>
       <c r="E20">
-        <v>0.9918356648940856</v>
+        <v>1.027415574917021</v>
       </c>
       <c r="F20">
-        <v>1.010537942457675</v>
+        <v>1.0413638161382</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040000875447906</v>
+        <v>1.032755058169594</v>
       </c>
       <c r="J20">
-        <v>1.010137206775178</v>
+        <v>1.029898417760068</v>
       </c>
       <c r="K20">
-        <v>1.022039154434909</v>
+        <v>1.036406670676936</v>
       </c>
       <c r="L20">
-        <v>1.006023609704537</v>
+        <v>1.030819381299344</v>
       </c>
       <c r="M20">
-        <v>1.024397991626186</v>
+        <v>1.044718724427068</v>
       </c>
       <c r="N20">
-        <v>1.007192636059199</v>
+        <v>1.013971777724106</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9766642177196675</v>
+        <v>1.022606753716227</v>
       </c>
       <c r="D21">
-        <v>1.004419170679494</v>
+        <v>1.032273433882735</v>
       </c>
       <c r="E21">
-        <v>0.9873024396734367</v>
+        <v>1.026467204914042</v>
       </c>
       <c r="F21">
-        <v>1.006158089666675</v>
+        <v>1.040459363182623</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038814836732517</v>
+        <v>1.03259671487239</v>
       </c>
       <c r="J21">
-        <v>1.007171069532962</v>
+        <v>1.029290467416194</v>
       </c>
       <c r="K21">
-        <v>1.01931730141208</v>
+        <v>1.035867496239051</v>
       </c>
       <c r="L21">
-        <v>1.002528431506499</v>
+        <v>1.030083185367824</v>
       </c>
       <c r="M21">
-        <v>1.021023726862405</v>
+        <v>1.044022984001874</v>
       </c>
       <c r="N21">
-        <v>1.006184604906988</v>
+        <v>1.013767294679736</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.973306438443783</v>
+        <v>1.021971842789575</v>
       </c>
       <c r="D22">
-        <v>1.002034936326852</v>
+        <v>1.031802821151851</v>
       </c>
       <c r="E22">
-        <v>0.9843976508151827</v>
+        <v>1.02587206183415</v>
       </c>
       <c r="F22">
-        <v>1.003351032275176</v>
+        <v>1.039891535273113</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038043302325391</v>
+        <v>1.032495940465163</v>
       </c>
       <c r="J22">
-        <v>1.005264652116005</v>
+        <v>1.028908312110262</v>
       </c>
       <c r="K22">
-        <v>1.017566188232225</v>
+        <v>1.035528234434984</v>
       </c>
       <c r="L22">
-        <v>1.000284661804237</v>
+        <v>1.029620752351875</v>
       </c>
       <c r="M22">
-        <v>1.018856395581185</v>
+        <v>1.043585676657004</v>
       </c>
       <c r="N22">
-        <v>1.005536536328559</v>
+        <v>1.013638691673904</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9750935219387719</v>
+        <v>1.022308349475578</v>
       </c>
       <c r="D23">
-        <v>1.003303353606</v>
+        <v>1.03205225597616</v>
       </c>
       <c r="E23">
-        <v>0.9859428637451595</v>
+        <v>1.026187450316684</v>
       </c>
       <c r="F23">
-        <v>1.004844299092771</v>
+        <v>1.040192471581777</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038454800610321</v>
+        <v>1.032549478099622</v>
       </c>
       <c r="J23">
-        <v>1.006279320930872</v>
+        <v>1.029110891208421</v>
       </c>
       <c r="K23">
-        <v>1.01849835175001</v>
+        <v>1.035708107899183</v>
       </c>
       <c r="L23">
-        <v>1.001478631521287</v>
+        <v>1.02986585443145</v>
       </c>
       <c r="M23">
-        <v>1.020009794415718</v>
+        <v>1.043817488509632</v>
       </c>
       <c r="N23">
-        <v>1.005881478903732</v>
+        <v>1.013706869859529</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9819762985704866</v>
+        <v>1.023634725378539</v>
       </c>
       <c r="D24">
-        <v>1.00819949572006</v>
+        <v>1.033035265415324</v>
       </c>
       <c r="E24">
-        <v>0.991910773993371</v>
+        <v>1.027431493579021</v>
       </c>
       <c r="F24">
-        <v>1.010610499356239</v>
+        <v>1.041378993473537</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040020331620116</v>
+        <v>1.032757692127442</v>
       </c>
       <c r="J24">
-        <v>1.01018625461969</v>
+        <v>1.029908611519456</v>
       </c>
       <c r="K24">
-        <v>1.022084133001849</v>
+        <v>1.036415705483537</v>
       </c>
       <c r="L24">
-        <v>1.006081450481174</v>
+        <v>1.030831731122982</v>
       </c>
       <c r="M24">
-        <v>1.024453810140762</v>
+        <v>1.044730390737791</v>
       </c>
       <c r="N24">
-        <v>1.007209301508053</v>
+        <v>1.01397520525895</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9896695805500969</v>
+        <v>1.025177135166707</v>
       </c>
       <c r="D25">
-        <v>1.013691658761665</v>
+        <v>1.034178017170867</v>
       </c>
       <c r="E25">
-        <v>0.9986135289831151</v>
+        <v>1.028880021375857</v>
       </c>
       <c r="F25">
-        <v>1.017083563152962</v>
+        <v>1.042759470822809</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041728916255781</v>
+        <v>1.032993989718563</v>
       </c>
       <c r="J25">
-        <v>1.014549677083276</v>
+        <v>1.030834661608462</v>
       </c>
       <c r="K25">
-        <v>1.0260810834201</v>
+        <v>1.037235652625442</v>
       </c>
       <c r="L25">
-        <v>1.011233406324662</v>
+        <v>1.031954458182301</v>
       </c>
       <c r="M25">
-        <v>1.029422343363385</v>
+        <v>1.045790287901</v>
       </c>
       <c r="N25">
-        <v>1.00869138179734</v>
+        <v>1.014286419822408</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_1/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026409909042907</v>
+        <v>0.9808796602661547</v>
       </c>
       <c r="D2">
-        <v>1.035091042317973</v>
+        <v>1.003185260890933</v>
       </c>
       <c r="E2">
-        <v>1.030039241472381</v>
+        <v>0.9891904242779497</v>
       </c>
       <c r="F2">
-        <v>1.04386335903152</v>
+        <v>0.9566901678769163</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033178144066372</v>
+        <v>1.038133375796825</v>
       </c>
       <c r="J2">
-        <v>1.031573507755817</v>
+        <v>1.003647694853418</v>
       </c>
       <c r="K2">
-        <v>1.037888642323885</v>
+        <v>1.014600397625697</v>
       </c>
       <c r="L2">
-        <v>1.032851408866051</v>
+        <v>1.000802436544836</v>
       </c>
       <c r="M2">
-        <v>1.046636026768367</v>
+        <v>0.9687877744751215</v>
       </c>
       <c r="N2">
-        <v>1.014534486990944</v>
+        <v>1.00507298970011</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027306469732585</v>
+        <v>0.9871663943449521</v>
       </c>
       <c r="D3">
-        <v>1.035754859373252</v>
+        <v>1.007938012700554</v>
       </c>
       <c r="E3">
-        <v>1.030883158265832</v>
+        <v>0.9949380323240355</v>
       </c>
       <c r="F3">
-        <v>1.04466648462613</v>
+        <v>0.9658497242226776</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033309341724197</v>
+        <v>1.040041530652696</v>
       </c>
       <c r="J3">
-        <v>1.032110088853492</v>
+        <v>1.008013137407179</v>
       </c>
       <c r="K3">
-        <v>1.038362169641206</v>
+        <v>1.018470322799204</v>
       </c>
       <c r="L3">
-        <v>1.033503501140152</v>
+        <v>1.005636094345149</v>
       </c>
       <c r="M3">
-        <v>1.047250294595473</v>
+        <v>0.976939052496972</v>
       </c>
       <c r="N3">
-        <v>1.014714506794011</v>
+        <v>1.00944463168302</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.027887271470443</v>
+        <v>0.9911141025712381</v>
       </c>
       <c r="D4">
-        <v>1.036184790439941</v>
+        <v>1.010921853980466</v>
       </c>
       <c r="E4">
-        <v>1.031430246615142</v>
+        <v>0.9985525297670258</v>
       </c>
       <c r="F4">
-        <v>1.045186892443338</v>
+        <v>0.9715872419210645</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03339306787626</v>
+        <v>1.041221930591055</v>
       </c>
       <c r="J4">
-        <v>1.032457338243665</v>
+        <v>1.010747874538617</v>
       </c>
       <c r="K4">
-        <v>1.038668287911581</v>
+        <v>1.020890225062564</v>
       </c>
       <c r="L4">
-        <v>1.033925822948246</v>
+        <v>1.00866845592969</v>
       </c>
       <c r="M4">
-        <v>1.047647844302253</v>
+        <v>0.9820411271343505</v>
       </c>
       <c r="N4">
-        <v>1.014830943175951</v>
+        <v>1.012183252454864</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028131598846378</v>
+        <v>0.9927464755026393</v>
       </c>
       <c r="D5">
-        <v>1.036365626816863</v>
+        <v>1.012155420155584</v>
       </c>
       <c r="E5">
-        <v>1.031660484544147</v>
+        <v>1.0000483499682</v>
       </c>
       <c r="F5">
-        <v>1.045405845264041</v>
+        <v>0.973956861412536</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033427986209251</v>
+        <v>1.041705680640467</v>
       </c>
       <c r="J5">
-        <v>1.032603331604044</v>
+        <v>1.01187710005249</v>
       </c>
       <c r="K5">
-        <v>1.038796910412612</v>
+        <v>1.021888342695298</v>
       </c>
       <c r="L5">
-        <v>1.034103455317522</v>
+        <v>1.009921605931829</v>
       </c>
       <c r="M5">
-        <v>1.047814991203749</v>
+        <v>0.9841473250434858</v>
       </c>
       <c r="N5">
-        <v>1.014879880973006</v>
+        <v>1.01331408159849</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028172631732706</v>
+        <v>0.9930190028794245</v>
       </c>
       <c r="D6">
-        <v>1.036395995465377</v>
+        <v>1.012361348588026</v>
       </c>
       <c r="E6">
-        <v>1.031699156647365</v>
+        <v>1.000298150578627</v>
       </c>
       <c r="F6">
-        <v>1.045442618519534</v>
+        <v>0.9743523216861423</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033433832704857</v>
+        <v>1.041786186008289</v>
       </c>
       <c r="J6">
-        <v>1.032627845066999</v>
+        <v>1.012065532210244</v>
       </c>
       <c r="K6">
-        <v>1.038818502577496</v>
+        <v>1.022054830665378</v>
       </c>
       <c r="L6">
-        <v>1.034133285710822</v>
+        <v>1.010130777643399</v>
       </c>
       <c r="M6">
-        <v>1.04784305685719</v>
+        <v>0.9844987643184177</v>
       </c>
       <c r="N6">
-        <v>1.01488809712417</v>
+        <v>1.013502781351521</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.027890535564382</v>
+        <v>0.991136019527191</v>
       </c>
       <c r="D7">
-        <v>1.036187206419767</v>
+        <v>1.010938417497095</v>
       </c>
       <c r="E7">
-        <v>1.031433322116862</v>
+        <v>0.9985726085023273</v>
       </c>
       <c r="F7">
-        <v>1.045189817422704</v>
+        <v>0.9716190680051067</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033393535558293</v>
+        <v>1.04122844291713</v>
       </c>
       <c r="J7">
-        <v>1.032459288977397</v>
+        <v>1.010763042321788</v>
       </c>
       <c r="K7">
-        <v>1.038670006846867</v>
+        <v>1.020903636244118</v>
       </c>
       <c r="L7">
-        <v>1.033928196135497</v>
+        <v>1.008685284196802</v>
       </c>
       <c r="M7">
-        <v>1.047650077662414</v>
+        <v>0.9820694191860302</v>
       </c>
       <c r="N7">
-        <v>1.014831597133139</v>
+        <v>1.012198441778026</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.026712766995123</v>
+        <v>0.983030155167949</v>
       </c>
       <c r="D8">
-        <v>1.035315299169447</v>
+        <v>1.004811093891034</v>
       </c>
       <c r="E8">
-        <v>1.030324235369896</v>
+        <v>0.9911553450572548</v>
       </c>
       <c r="F8">
-        <v>1.044134626448891</v>
+        <v>0.9598267162284249</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.0332227242847</v>
+        <v>1.038789811213845</v>
       </c>
       <c r="J8">
-        <v>1.03175483770751</v>
+        <v>1.005142336020002</v>
       </c>
       <c r="K8">
-        <v>1.038048731472149</v>
+        <v>1.015926287859686</v>
       </c>
       <c r="L8">
-        <v>1.033071708132492</v>
+        <v>1.002456470854237</v>
       </c>
       <c r="M8">
-        <v>1.046843604531437</v>
+        <v>0.9715798342820967</v>
       </c>
       <c r="N8">
-        <v>1.014595335288627</v>
+        <v>1.006569753428587</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024642557111042</v>
+        <v>0.9677488994652391</v>
       </c>
       <c r="D9">
-        <v>1.033782003016323</v>
+        <v>0.9932599504341959</v>
       </c>
       <c r="E9">
-        <v>1.028377751215857</v>
+        <v>0.9772180473341047</v>
       </c>
       <c r="F9">
-        <v>1.042280931267871</v>
+        <v>0.937450440250869</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032912819532516</v>
+        <v>1.034051211644084</v>
       </c>
       <c r="J9">
-        <v>1.030513905751888</v>
+        <v>0.9944942863564774</v>
       </c>
       <c r="K9">
-        <v>1.03695183320209</v>
+        <v>1.006463335042038</v>
       </c>
       <c r="L9">
-        <v>1.031565395894436</v>
+        <v>0.9906918864787264</v>
       </c>
       <c r="M9">
-        <v>1.045423155058899</v>
+        <v>0.9516469902710437</v>
       </c>
       <c r="N9">
-        <v>1.014178660600265</v>
+        <v>0.9959065823131926</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.023265973036195</v>
+        <v>0.9567689598764317</v>
       </c>
       <c r="D10">
-        <v>1.032762001472766</v>
+        <v>0.9849681979234564</v>
       </c>
       <c r="E10">
-        <v>1.027085484444111</v>
+        <v>0.9672389504932747</v>
       </c>
       <c r="F10">
-        <v>1.041049066632327</v>
+        <v>0.9212229913861346</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032700261464613</v>
+        <v>1.030554952759146</v>
       </c>
       <c r="J10">
-        <v>1.029686957962527</v>
+        <v>0.9868093687520866</v>
       </c>
       <c r="K10">
-        <v>1.036219209066395</v>
+        <v>0.9996142657303966</v>
       </c>
       <c r="L10">
-        <v>1.030563238844331</v>
+        <v>0.982226028670106</v>
       </c>
       <c r="M10">
-        <v>1.044476721953571</v>
+        <v>0.9371768361643287</v>
       </c>
       <c r="N10">
-        <v>1.013900668398148</v>
+        <v>0.9882107512443311</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.022670757142992</v>
+        <v>0.9517943911689559</v>
       </c>
       <c r="D11">
-        <v>1.032320871667393</v>
+        <v>0.9812154188902075</v>
       </c>
       <c r="E11">
-        <v>1.026527217775891</v>
+        <v>0.9627271650668648</v>
       </c>
       <c r="F11">
-        <v>1.040516611285781</v>
+        <v>0.9138214095351267</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032606817032283</v>
+        <v>1.028950364388442</v>
       </c>
       <c r="J11">
-        <v>1.029328975911317</v>
+        <v>0.9833197969847124</v>
       </c>
       <c r="K11">
-        <v>1.035901668165862</v>
+        <v>0.9965004976296035</v>
       </c>
       <c r="L11">
-        <v>1.030129797451905</v>
+        <v>0.9783879711829144</v>
       </c>
       <c r="M11">
-        <v>1.044067051375537</v>
+        <v>0.9305746319952471</v>
       </c>
       <c r="N11">
-        <v>1.013780250789118</v>
+        <v>0.9847162238847877</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022449797106156</v>
+        <v>0.9499103293955012</v>
       </c>
       <c r="D12">
-        <v>1.032157098900333</v>
+        <v>0.9797948651997065</v>
       </c>
       <c r="E12">
-        <v>1.026320048670734</v>
+        <v>0.9610198724842172</v>
       </c>
       <c r="F12">
-        <v>1.040318978268269</v>
+        <v>0.9110092476470603</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032571897089926</v>
+        <v>1.028339659263604</v>
       </c>
       <c r="J12">
-        <v>1.029196020409796</v>
+        <v>0.9819969987091623</v>
       </c>
       <c r="K12">
-        <v>1.035783674043233</v>
+        <v>0.995319678629414</v>
       </c>
       <c r="L12">
-        <v>1.029968874398547</v>
+        <v>0.9769340148185514</v>
       </c>
       <c r="M12">
-        <v>1.043914904214712</v>
+        <v>0.9280660011942757</v>
       </c>
       <c r="N12">
-        <v>1.013735515997402</v>
+        <v>0.9833915470839595</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022497187895885</v>
+        <v>0.9503161654899661</v>
       </c>
       <c r="D13">
-        <v>1.032192224954696</v>
+        <v>0.9801008215204886</v>
       </c>
       <c r="E13">
-        <v>1.026364478251038</v>
+        <v>0.9613875626064685</v>
       </c>
       <c r="F13">
-        <v>1.040361364647941</v>
+        <v>0.911615428396981</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032579397052527</v>
+        <v>1.028471341072533</v>
       </c>
       <c r="J13">
-        <v>1.029224539119762</v>
+        <v>0.9822819881490757</v>
       </c>
       <c r="K13">
-        <v>1.035808986212603</v>
+        <v>0.995574099518045</v>
       </c>
       <c r="L13">
-        <v>1.030003389461359</v>
+        <v>0.9772472185614987</v>
       </c>
       <c r="M13">
-        <v>1.043947539244119</v>
+        <v>0.9286067596211171</v>
       </c>
       <c r="N13">
-        <v>1.013745112041257</v>
+        <v>0.9836769412415661</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.022652489864933</v>
+        <v>0.9516394144050031</v>
       </c>
       <c r="D14">
-        <v>1.032307332466812</v>
+        <v>0.9810985520651587</v>
       </c>
       <c r="E14">
-        <v>1.026510089105145</v>
+        <v>0.9625866978915726</v>
       </c>
       <c r="F14">
-        <v>1.040500271918272</v>
+        <v>0.9135902798519784</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032603934829877</v>
+        <v>1.028900189670843</v>
       </c>
       <c r="J14">
-        <v>1.029317985455847</v>
+        <v>0.983211011408592</v>
       </c>
       <c r="K14">
-        <v>1.03589191565161</v>
+        <v>0.9964033974399925</v>
       </c>
       <c r="L14">
-        <v>1.030116493936049</v>
+        <v>0.9782683800383807</v>
       </c>
       <c r="M14">
-        <v>1.044054474371246</v>
+        <v>0.9303684521981923</v>
       </c>
       <c r="N14">
-        <v>1.013776553123791</v>
+        <v>0.9846072838206715</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.02274819375314</v>
+        <v>0.9524497999695049</v>
       </c>
       <c r="D15">
-        <v>1.032378264985286</v>
+        <v>0.9817096901864548</v>
       </c>
       <c r="E15">
-        <v>1.026599830779196</v>
+        <v>0.9633212730028859</v>
       </c>
       <c r="F15">
-        <v>1.040585876489135</v>
+        <v>0.9147985042635145</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032619025487147</v>
+        <v>1.02916243652558</v>
       </c>
       <c r="J15">
-        <v>1.029375562846791</v>
+        <v>0.9837798125146768</v>
       </c>
       <c r="K15">
-        <v>1.035943005251615</v>
+        <v>0.9969110809525269</v>
       </c>
       <c r="L15">
-        <v>1.030186191497928</v>
+        <v>0.978893718070631</v>
       </c>
       <c r="M15">
-        <v>1.044120363690055</v>
+        <v>0.9314462451013519</v>
       </c>
       <c r="N15">
-        <v>1.013795924187179</v>
+        <v>0.9851768926895695</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.023305493662928</v>
+        <v>0.9570942030702357</v>
       </c>
       <c r="D16">
-        <v>1.032791289278179</v>
+        <v>0.9852136545462384</v>
       </c>
       <c r="E16">
-        <v>1.027122562157326</v>
+        <v>0.9675341371228204</v>
       </c>
       <c r="F16">
-        <v>1.041084424117294</v>
+        <v>0.9217057740773622</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032706433507182</v>
+        <v>1.030659445786042</v>
       </c>
       <c r="J16">
-        <v>1.029710718087056</v>
+        <v>0.9870373602804065</v>
       </c>
       <c r="K16">
-        <v>1.036240276789637</v>
+        <v>0.9998176336933799</v>
       </c>
       <c r="L16">
-        <v>1.030592015557551</v>
+        <v>0.9824769169337627</v>
       </c>
       <c r="M16">
-        <v>1.044503913545201</v>
+        <v>0.9376074445750252</v>
       </c>
       <c r="N16">
-        <v>1.013908659205692</v>
+        <v>0.9884390665467722</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.02365530277541</v>
+        <v>0.959946438347293</v>
       </c>
       <c r="D17">
-        <v>1.033050513646742</v>
+        <v>0.9873666559878278</v>
       </c>
       <c r="E17">
-        <v>1.027450805196967</v>
+        <v>0.9701238536681177</v>
       </c>
       <c r="F17">
-        <v>1.041397405569129</v>
+        <v>0.9259338217717892</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032760886427045</v>
+        <v>1.0315734942377</v>
       </c>
       <c r="J17">
-        <v>1.029920977524286</v>
+        <v>0.9890358604642296</v>
       </c>
       <c r="K17">
-        <v>1.03642666530958</v>
+        <v>1.001599879736122</v>
       </c>
       <c r="L17">
-        <v>1.030846712895934</v>
+        <v>0.9846768145318668</v>
       </c>
       <c r="M17">
-        <v>1.044744543111902</v>
+        <v>0.9413783399904981</v>
       </c>
       <c r="N17">
-        <v>1.013979363136245</v>
+        <v>0.9904404048300876</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.023859422830791</v>
+        <v>0.9615890931339021</v>
       </c>
       <c r="D18">
-        <v>1.033201766590211</v>
+        <v>0.9886069605823394</v>
       </c>
       <c r="E18">
-        <v>1.027642388487612</v>
+        <v>0.9716161898551563</v>
       </c>
       <c r="F18">
-        <v>1.041580053908096</v>
+        <v>0.9283642827555935</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032792512252632</v>
+        <v>1.032097972696703</v>
       </c>
       <c r="J18">
-        <v>1.030043627074791</v>
+        <v>0.9901860960971813</v>
       </c>
       <c r="K18">
-        <v>1.036535352603146</v>
+        <v>1.002625293972256</v>
       </c>
       <c r="L18">
-        <v>1.030995321619779</v>
+        <v>0.9859435368513132</v>
       </c>
       <c r="M18">
-        <v>1.044884911789165</v>
+        <v>0.9435457994297781</v>
       </c>
       <c r="N18">
-        <v>1.014020599155913</v>
+        <v>0.9915922739295722</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.023929036416982</v>
+        <v>0.9621457232528809</v>
       </c>
       <c r="D19">
-        <v>1.033253348661504</v>
+        <v>0.9890273046832589</v>
       </c>
       <c r="E19">
-        <v>1.027707734535463</v>
+        <v>0.9721220281237697</v>
       </c>
       <c r="F19">
-        <v>1.041642347744262</v>
+        <v>0.9291871361273738</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032803272815795</v>
+        <v>1.032275365613751</v>
       </c>
       <c r="J19">
-        <v>1.030085448854999</v>
+        <v>0.9905757393964304</v>
       </c>
       <c r="K19">
-        <v>1.036572407038849</v>
+        <v>1.002972591107042</v>
       </c>
       <c r="L19">
-        <v>1.031046001466803</v>
+        <v>0.9863727366262861</v>
       </c>
       <c r="M19">
-        <v>1.04493277612805</v>
+        <v>0.9442795718718821</v>
       </c>
       <c r="N19">
-        <v>1.014034658815113</v>
+        <v>0.9919824705669988</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.023617763044015</v>
+        <v>0.9596426149713482</v>
       </c>
       <c r="D20">
-        <v>1.033022695959613</v>
+        <v>0.9871372780142</v>
       </c>
       <c r="E20">
-        <v>1.027415574917021</v>
+        <v>0.9698479029563289</v>
       </c>
       <c r="F20">
-        <v>1.0413638161382</v>
+        <v>0.9254839276146822</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032755058169594</v>
+        <v>1.031476329552086</v>
       </c>
       <c r="J20">
-        <v>1.029898417760068</v>
+        <v>0.9888230544487693</v>
       </c>
       <c r="K20">
-        <v>1.036406670676936</v>
+        <v>1.001410137572246</v>
       </c>
       <c r="L20">
-        <v>1.030819381299344</v>
+        <v>0.9844425034729674</v>
       </c>
       <c r="M20">
-        <v>1.044718724427068</v>
+        <v>0.9409771111172349</v>
       </c>
       <c r="N20">
-        <v>1.013971777724106</v>
+        <v>0.9902272966056762</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.022606753716227</v>
+        <v>0.9512507802630005</v>
       </c>
       <c r="D21">
-        <v>1.032273433882735</v>
+        <v>0.9808054989756164</v>
       </c>
       <c r="E21">
-        <v>1.026467204914042</v>
+        <v>0.962234473706826</v>
       </c>
       <c r="F21">
-        <v>1.040459363182623</v>
+        <v>0.9130105291780276</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03259671487239</v>
+        <v>1.028774319260959</v>
       </c>
       <c r="J21">
-        <v>1.029290467416194</v>
+        <v>0.9829381919442276</v>
       </c>
       <c r="K21">
-        <v>1.035867496239051</v>
+        <v>0.99615987597081</v>
       </c>
       <c r="L21">
-        <v>1.030083185367824</v>
+        <v>0.9779684769185928</v>
       </c>
       <c r="M21">
-        <v>1.044022984001874</v>
+        <v>0.9298512817357742</v>
       </c>
       <c r="N21">
-        <v>1.013767294679736</v>
+        <v>0.9843340769213749</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.021971842789575</v>
+        <v>0.9457626255410115</v>
       </c>
       <c r="D22">
-        <v>1.031802821151851</v>
+        <v>0.9766692010242394</v>
       </c>
       <c r="E22">
-        <v>1.02587206183415</v>
+        <v>0.9572641882151439</v>
       </c>
       <c r="F22">
-        <v>1.039891535273113</v>
+        <v>0.9048001046437193</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032495940465163</v>
+        <v>1.026989825147709</v>
       </c>
       <c r="J22">
-        <v>1.028908312110262</v>
+        <v>0.9790827676971762</v>
       </c>
       <c r="K22">
-        <v>1.035528234434984</v>
+        <v>0.9927174602434204</v>
       </c>
       <c r="L22">
-        <v>1.029620752351875</v>
+        <v>0.9737326027439217</v>
       </c>
       <c r="M22">
-        <v>1.043585676657004</v>
+        <v>0.92252687590035</v>
       </c>
       <c r="N22">
-        <v>1.013638691673904</v>
+        <v>0.9804731775296693</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.022308349475578</v>
+        <v>0.9486932780286603</v>
       </c>
       <c r="D23">
-        <v>1.03205225597616</v>
+        <v>0.9788774687328187</v>
       </c>
       <c r="E23">
-        <v>1.026187450316684</v>
+        <v>0.9599174427514714</v>
       </c>
       <c r="F23">
-        <v>1.040192471581777</v>
+        <v>0.909189957716977</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032549478099622</v>
+        <v>1.027944333018099</v>
       </c>
       <c r="J23">
-        <v>1.029110891208421</v>
+        <v>0.9811421818391534</v>
       </c>
       <c r="K23">
-        <v>1.035708107899183</v>
+        <v>0.9945564882253206</v>
       </c>
       <c r="L23">
-        <v>1.02986585443145</v>
+        <v>0.9759947103163038</v>
       </c>
       <c r="M23">
-        <v>1.043817488509632</v>
+        <v>0.9264430437923478</v>
       </c>
       <c r="N23">
-        <v>1.013706869859529</v>
+        <v>0.982535516275946</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.023634725378539</v>
+        <v>0.9597799643544814</v>
       </c>
       <c r="D24">
-        <v>1.033035265415324</v>
+        <v>0.9872409717985241</v>
       </c>
       <c r="E24">
-        <v>1.027431493579021</v>
+        <v>0.9699726492502896</v>
       </c>
       <c r="F24">
-        <v>1.041378993473537</v>
+        <v>0.9256873252224286</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032757692127442</v>
+        <v>1.031520260806924</v>
       </c>
       <c r="J24">
-        <v>1.029908611519456</v>
+        <v>0.9889192599211912</v>
       </c>
       <c r="K24">
-        <v>1.036415705483537</v>
+        <v>1.001495917438564</v>
       </c>
       <c r="L24">
-        <v>1.030831731122982</v>
+        <v>0.9845484291808866</v>
       </c>
       <c r="M24">
-        <v>1.044730390737791</v>
+        <v>0.9411585077665032</v>
       </c>
       <c r="N24">
-        <v>1.01397520525895</v>
+        <v>0.9903236387009038</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025177135166707</v>
+        <v>0.9718293444188668</v>
       </c>
       <c r="D25">
-        <v>1.034178017170867</v>
+        <v>0.9963436022413883</v>
       </c>
       <c r="E25">
-        <v>1.028880021375857</v>
+        <v>0.9809339417017415</v>
       </c>
       <c r="F25">
-        <v>1.042759470822809</v>
+        <v>0.9434468498730937</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032993989718563</v>
+        <v>1.035332430314847</v>
       </c>
       <c r="J25">
-        <v>1.030834661608462</v>
+        <v>0.9973434328126056</v>
       </c>
       <c r="K25">
-        <v>1.037235652625442</v>
+        <v>1.008998945501333</v>
       </c>
       <c r="L25">
-        <v>1.031954458182301</v>
+        <v>0.9938356246433075</v>
       </c>
       <c r="M25">
-        <v>1.045790287901</v>
+        <v>0.9569914751140857</v>
       </c>
       <c r="N25">
-        <v>1.014286419822408</v>
+        <v>0.9987597748840903</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_1/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9808796602661547</v>
+        <v>0.9974319765258025</v>
       </c>
       <c r="D2">
-        <v>1.003185260890933</v>
+        <v>1.019793343827933</v>
       </c>
       <c r="E2">
-        <v>0.9891904242779497</v>
+        <v>1.005624958787947</v>
       </c>
       <c r="F2">
-        <v>0.9566901678769163</v>
+        <v>1.01550979688685</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038133375796825</v>
+        <v>1.046561648295694</v>
       </c>
       <c r="J2">
-        <v>1.003647694853418</v>
+        <v>1.019689768975337</v>
       </c>
       <c r="K2">
-        <v>1.014600397625697</v>
+        <v>1.030983644680359</v>
       </c>
       <c r="L2">
-        <v>1.000802436544836</v>
+        <v>1.017006481316191</v>
       </c>
       <c r="M2">
-        <v>0.9687877744751215</v>
+        <v>1.026757203001276</v>
       </c>
       <c r="N2">
-        <v>1.00507298970011</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.021137845407331</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.029748840238498</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.032978313126209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9871663943449521</v>
+        <v>1.002135184114526</v>
       </c>
       <c r="D3">
-        <v>1.007938012700554</v>
+        <v>1.023042594556598</v>
       </c>
       <c r="E3">
-        <v>0.9949380323240355</v>
+        <v>1.009818754431183</v>
       </c>
       <c r="F3">
-        <v>0.9658497242226776</v>
+        <v>1.018953940067949</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040041530652696</v>
+        <v>1.047715468404945</v>
       </c>
       <c r="J3">
-        <v>1.008013137407179</v>
+        <v>1.022567810615244</v>
       </c>
       <c r="K3">
-        <v>1.018470322799204</v>
+        <v>1.033388891765057</v>
       </c>
       <c r="L3">
-        <v>1.005636094345149</v>
+        <v>1.020327525245695</v>
       </c>
       <c r="M3">
-        <v>0.976939052496972</v>
+        <v>1.029349912283662</v>
       </c>
       <c r="N3">
-        <v>1.00944463168302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.024019974196485</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.031800823985391</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.03467637646452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9911141025712381</v>
+        <v>1.005110464981622</v>
       </c>
       <c r="D4">
-        <v>1.010921853980466</v>
+        <v>1.025098628993483</v>
       </c>
       <c r="E4">
-        <v>0.9985525297670258</v>
+        <v>1.012476982221685</v>
       </c>
       <c r="F4">
-        <v>0.9715872419210645</v>
+        <v>1.021142882854258</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041221930591055</v>
+        <v>1.048429790438068</v>
       </c>
       <c r="J4">
-        <v>1.010747874538617</v>
+        <v>1.024384341828232</v>
       </c>
       <c r="K4">
-        <v>1.020890225062564</v>
+        <v>1.034903286428974</v>
       </c>
       <c r="L4">
-        <v>1.00866845592969</v>
+        <v>1.022427117719508</v>
       </c>
       <c r="M4">
-        <v>0.9820411271343505</v>
+        <v>1.030992656906273</v>
       </c>
       <c r="N4">
-        <v>1.012183252454864</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.025839085092155</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.033100960946049</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.03574810080968</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9927464755026393</v>
+        <v>1.006349874461479</v>
       </c>
       <c r="D5">
-        <v>1.012155420155584</v>
+        <v>1.025957006027957</v>
       </c>
       <c r="E5">
-        <v>1.0000483499682</v>
+        <v>1.013585964501146</v>
       </c>
       <c r="F5">
-        <v>0.973956861412536</v>
+        <v>1.022055805355414</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041705680640467</v>
+        <v>1.048724962841191</v>
       </c>
       <c r="J5">
-        <v>1.01187710005249</v>
+        <v>1.025141585417747</v>
       </c>
       <c r="K5">
-        <v>1.021888342695298</v>
+        <v>1.035534922573265</v>
       </c>
       <c r="L5">
-        <v>1.009921605931829</v>
+        <v>1.023302578749923</v>
       </c>
       <c r="M5">
-        <v>0.9841473250434858</v>
+        <v>1.031677014109077</v>
       </c>
       <c r="N5">
-        <v>1.01331408159849</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.026597404054423</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.033642589213989</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.036201934340635</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9930190028794245</v>
+        <v>1.006562288689226</v>
       </c>
       <c r="D6">
-        <v>1.012361348588026</v>
+        <v>1.02610634260491</v>
       </c>
       <c r="E6">
-        <v>1.000298150578627</v>
+        <v>1.013776621020455</v>
       </c>
       <c r="F6">
-        <v>0.9743523216861423</v>
+        <v>1.02221081422101</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041786186008289</v>
+        <v>1.048777051943842</v>
       </c>
       <c r="J6">
-        <v>1.012065532210244</v>
+        <v>1.025273206325797</v>
       </c>
       <c r="K6">
-        <v>1.022054830665378</v>
+        <v>1.035646182568437</v>
       </c>
       <c r="L6">
-        <v>1.010130777643399</v>
+        <v>1.023454045993223</v>
       </c>
       <c r="M6">
-        <v>0.9844987643184177</v>
+        <v>1.031793682515253</v>
       </c>
       <c r="N6">
-        <v>1.013502781351521</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.02672921187926</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.03373492531857</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.036289394005506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.991136019527191</v>
+        <v>1.005141121950059</v>
       </c>
       <c r="D7">
-        <v>1.010938417497095</v>
+        <v>1.025125763349285</v>
       </c>
       <c r="E7">
-        <v>0.9985726085023273</v>
+        <v>1.012505815753159</v>
       </c>
       <c r="F7">
-        <v>0.9716190680051067</v>
+        <v>1.021161183498182</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04122844291713</v>
+        <v>1.048441708762314</v>
       </c>
       <c r="J7">
-        <v>1.010763042321788</v>
+        <v>1.024408182445651</v>
       </c>
       <c r="K7">
-        <v>1.020903636244118</v>
+        <v>1.034927209850285</v>
       </c>
       <c r="L7">
-        <v>1.008685284196802</v>
+        <v>1.022452662215274</v>
       </c>
       <c r="M7">
-        <v>0.9820694191860302</v>
+        <v>1.031007829787272</v>
       </c>
       <c r="N7">
-        <v>1.012198441778026</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.025862959565985</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.033112969388893</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.035785237109992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.983030155167949</v>
+        <v>0.9990534626695838</v>
       </c>
       <c r="D8">
-        <v>1.004811093891034</v>
+        <v>1.020920492719518</v>
       </c>
       <c r="E8">
-        <v>0.9911553450572548</v>
+        <v>1.007071491725115</v>
       </c>
       <c r="F8">
-        <v>0.9598267162284249</v>
+        <v>1.016689780147173</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038789811213845</v>
+        <v>1.046968128505475</v>
       </c>
       <c r="J8">
-        <v>1.005142336020002</v>
+        <v>1.020689157635753</v>
       </c>
       <c r="K8">
-        <v>1.015926287859686</v>
+        <v>1.031824347362779</v>
       </c>
       <c r="L8">
-        <v>1.002456470854237</v>
+        <v>1.01815651964766</v>
       </c>
       <c r="M8">
-        <v>0.9715798342820967</v>
+        <v>1.027648325610935</v>
       </c>
       <c r="N8">
-        <v>1.006569753428587</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.022138653314278</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.030454114406662</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.033595838355139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9677488994652391</v>
+        <v>0.9877543106783541</v>
       </c>
       <c r="D9">
-        <v>0.9932599504341959</v>
+        <v>1.013113610921891</v>
       </c>
       <c r="E9">
-        <v>0.9772180473341047</v>
+        <v>0.9970262071987842</v>
       </c>
       <c r="F9">
-        <v>0.937450440250869</v>
+        <v>1.008481463347672</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034051211644084</v>
+        <v>1.04410423887253</v>
       </c>
       <c r="J9">
-        <v>0.9944942863564774</v>
+        <v>1.013747032155775</v>
       </c>
       <c r="K9">
-        <v>1.006463335042038</v>
+        <v>1.025997452408538</v>
       </c>
       <c r="L9">
-        <v>0.9906918864787264</v>
+        <v>1.010167717081207</v>
       </c>
       <c r="M9">
-        <v>0.9516469902710437</v>
+        <v>1.021438417325794</v>
       </c>
       <c r="N9">
-        <v>0.9959065823131926</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.015186669219845</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.025539301098287</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.029472553262992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9567689598764317</v>
+        <v>0.9799655227738704</v>
       </c>
       <c r="D10">
-        <v>0.9849681979234564</v>
+        <v>1.007747824851214</v>
       </c>
       <c r="E10">
-        <v>0.9672389504932747</v>
+        <v>0.9901497482894731</v>
       </c>
       <c r="F10">
-        <v>0.9212229913861346</v>
+        <v>1.003122301715807</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030554952759146</v>
+        <v>1.042069638613165</v>
       </c>
       <c r="J10">
-        <v>0.9868093687520866</v>
+        <v>1.008997202266124</v>
       </c>
       <c r="K10">
-        <v>0.9996142657303966</v>
+        <v>1.021978584952107</v>
       </c>
       <c r="L10">
-        <v>0.982226028670106</v>
+        <v>1.004699159147511</v>
       </c>
       <c r="M10">
-        <v>0.9371768361643287</v>
+        <v>1.017435409951619</v>
       </c>
       <c r="N10">
-        <v>0.9882107512443311</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.010430094026939</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.022423574556282</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.026647886773289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9517943911689559</v>
+        <v>0.9777134614099821</v>
       </c>
       <c r="D11">
-        <v>0.9812154188902075</v>
+        <v>1.006239014915455</v>
       </c>
       <c r="E11">
-        <v>0.9627271650668648</v>
+        <v>0.9882977299254961</v>
       </c>
       <c r="F11">
-        <v>0.9138214095351267</v>
+        <v>1.003489419743</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028950364388442</v>
+        <v>1.041590090447274</v>
       </c>
       <c r="J11">
-        <v>0.9833197969847124</v>
+        <v>1.00804370338997</v>
       </c>
       <c r="K11">
-        <v>0.9965004976296035</v>
+        <v>1.021044223935632</v>
       </c>
       <c r="L11">
-        <v>0.9783879711829144</v>
+        <v>1.003443760481812</v>
       </c>
       <c r="M11">
-        <v>0.9305746319952471</v>
+        <v>1.01834582937899</v>
       </c>
       <c r="N11">
-        <v>0.9847162238847877</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.009475241073012</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.023587919744376</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.026020476906442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9499103293955012</v>
+        <v>0.9772773085880186</v>
       </c>
       <c r="D12">
-        <v>0.9797948651997065</v>
+        <v>1.00596263497149</v>
       </c>
       <c r="E12">
-        <v>0.9610198724842172</v>
+        <v>0.9880073655380757</v>
       </c>
       <c r="F12">
-        <v>0.9110092476470603</v>
+        <v>1.004538515878243</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028339659263604</v>
+        <v>1.041553820691803</v>
       </c>
       <c r="J12">
-        <v>0.9819969987091623</v>
+        <v>1.008075467929265</v>
       </c>
       <c r="K12">
-        <v>0.995319678629414</v>
+        <v>1.020976484985472</v>
       </c>
       <c r="L12">
-        <v>0.9769340148185514</v>
+        <v>1.003367989522962</v>
       </c>
       <c r="M12">
-        <v>0.9280660011942757</v>
+        <v>1.019579278586026</v>
       </c>
       <c r="N12">
-        <v>0.9833915470839595</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.009507050721596</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.024894724584882</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.025972582183118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9503161654899661</v>
+        <v>0.9782234519171416</v>
       </c>
       <c r="D13">
-        <v>0.9801008215204886</v>
+        <v>1.006632004281524</v>
       </c>
       <c r="E13">
-        <v>0.9613875626064685</v>
+        <v>0.9889111103613182</v>
       </c>
       <c r="F13">
-        <v>0.911615428396981</v>
+        <v>1.006208356786776</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028471341072533</v>
+        <v>1.041869974329092</v>
       </c>
       <c r="J13">
-        <v>0.9822819881490757</v>
+        <v>1.008882798323531</v>
       </c>
       <c r="K13">
-        <v>0.995574099518045</v>
+        <v>1.02158962813311</v>
       </c>
       <c r="L13">
-        <v>0.9772472185614987</v>
+        <v>1.004209125134618</v>
       </c>
       <c r="M13">
-        <v>0.9286067596211171</v>
+        <v>1.021173935561829</v>
       </c>
       <c r="N13">
-        <v>0.9836769412415661</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.010315527617625</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.0264355821302</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.026403582079233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9516394144050031</v>
+        <v>0.9794958275909686</v>
       </c>
       <c r="D14">
-        <v>0.9810985520651587</v>
+        <v>1.007518847115684</v>
       </c>
       <c r="E14">
-        <v>0.9625866978915726</v>
+        <v>0.9900690643860146</v>
       </c>
       <c r="F14">
-        <v>0.9135902798519784</v>
+        <v>1.007627911356477</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028900189670843</v>
+        <v>1.042245522628595</v>
       </c>
       <c r="J14">
-        <v>0.983211011408592</v>
+        <v>1.009784114693563</v>
       </c>
       <c r="K14">
-        <v>0.9964033974399925</v>
+        <v>1.022317133174718</v>
       </c>
       <c r="L14">
-        <v>0.9782683800383807</v>
+        <v>1.005197943903214</v>
       </c>
       <c r="M14">
-        <v>0.9303684521981923</v>
+        <v>1.022424178091499</v>
       </c>
       <c r="N14">
-        <v>0.9846072838206715</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.011218123960285</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.027598881942698</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.026919404497075</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9524497999695049</v>
+        <v>0.9801233740576065</v>
       </c>
       <c r="D15">
-        <v>0.9817096901864548</v>
+        <v>1.007954618256305</v>
       </c>
       <c r="E15">
-        <v>0.9633212730028859</v>
+        <v>0.9906285718454789</v>
       </c>
       <c r="F15">
-        <v>0.9147985042635145</v>
+        <v>1.00816016762374</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02916243652558</v>
+        <v>1.042420804755376</v>
       </c>
       <c r="J15">
-        <v>0.9837798125146768</v>
+        <v>1.010190823314673</v>
       </c>
       <c r="K15">
-        <v>0.9969110809525269</v>
+        <v>1.022656962364227</v>
       </c>
       <c r="L15">
-        <v>0.978893718070631</v>
+        <v>1.005656486255987</v>
       </c>
       <c r="M15">
-        <v>0.9314462451013519</v>
+        <v>1.022858736780865</v>
       </c>
       <c r="N15">
-        <v>0.9851768926895695</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.011625410154287</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.027980211123549</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.027165616315901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9570942030702357</v>
+        <v>0.9832229482535776</v>
       </c>
       <c r="D16">
-        <v>0.9852136545462384</v>
+        <v>1.010088719024163</v>
       </c>
       <c r="E16">
-        <v>0.9675341371228204</v>
+        <v>0.9933450542272321</v>
       </c>
       <c r="F16">
-        <v>0.9217057740773622</v>
+        <v>1.010141894574504</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030659445786042</v>
+        <v>1.043234576077536</v>
       </c>
       <c r="J16">
-        <v>0.9870373602804065</v>
+        <v>1.012039414152296</v>
       </c>
       <c r="K16">
-        <v>0.9998176336933799</v>
+        <v>1.024242026927323</v>
       </c>
       <c r="L16">
-        <v>0.9824769169337627</v>
+        <v>1.007798479931477</v>
       </c>
       <c r="M16">
-        <v>0.9376074445750252</v>
+        <v>1.024294269881287</v>
       </c>
       <c r="N16">
-        <v>0.9884390665467722</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.013476626202936</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.029075795379678</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.028289530785553</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.959946438347293</v>
+        <v>0.9849452438881834</v>
       </c>
       <c r="D17">
-        <v>0.9873666559878278</v>
+        <v>1.011269578676782</v>
       </c>
       <c r="E17">
-        <v>0.9701238536681177</v>
+        <v>0.9948345951688092</v>
       </c>
       <c r="F17">
-        <v>0.9259338217717892</v>
+        <v>1.01092612437994</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0315734942377</v>
+        <v>1.043662427071484</v>
       </c>
       <c r="J17">
-        <v>0.9890358604642296</v>
+        <v>1.012994505396707</v>
       </c>
       <c r="K17">
-        <v>1.001599879736122</v>
+        <v>1.025082855129529</v>
       </c>
       <c r="L17">
-        <v>0.9846768145318668</v>
+        <v>1.008933802887949</v>
       </c>
       <c r="M17">
-        <v>0.9413783399904981</v>
+        <v>1.024745253311032</v>
       </c>
       <c r="N17">
-        <v>0.9904404048300876</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.014433073786465</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.029302056377187</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.028886648895897</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9615890931339021</v>
+        <v>0.9855892833513025</v>
       </c>
       <c r="D18">
-        <v>0.9886069605823394</v>
+        <v>1.011696430068366</v>
       </c>
       <c r="E18">
-        <v>0.9716161898551563</v>
+        <v>0.9953483746905262</v>
       </c>
       <c r="F18">
-        <v>0.9283642827555935</v>
+        <v>1.010576523411769</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032097972696703</v>
+        <v>1.04377839472521</v>
       </c>
       <c r="J18">
-        <v>0.9901860960971813</v>
+        <v>1.013207986637123</v>
       </c>
       <c r="K18">
-        <v>1.002625293972256</v>
+        <v>1.025316276595033</v>
       </c>
       <c r="L18">
-        <v>0.9859435368513132</v>
+        <v>1.009247887241767</v>
       </c>
       <c r="M18">
-        <v>0.9435457994297781</v>
+        <v>1.02421515593644</v>
       </c>
       <c r="N18">
-        <v>0.9915922739295722</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.014646858194728</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.028642778269576</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.029039936532342</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9621457232528809</v>
+        <v>0.9852279800167145</v>
       </c>
       <c r="D19">
-        <v>0.9890273046832589</v>
+        <v>1.01142730819442</v>
       </c>
       <c r="E19">
-        <v>0.9721220281237697</v>
+        <v>0.9949489783243336</v>
       </c>
       <c r="F19">
-        <v>0.9291871361273738</v>
+        <v>1.009091284656817</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032275365613751</v>
+        <v>1.043607861694125</v>
       </c>
       <c r="J19">
-        <v>0.9905757393964304</v>
+        <v>1.012722944147629</v>
       </c>
       <c r="K19">
-        <v>1.002972591107042</v>
+        <v>1.024988162753244</v>
       </c>
       <c r="L19">
-        <v>0.9863727366262861</v>
+        <v>1.00879045731019</v>
       </c>
       <c r="M19">
-        <v>0.9442795718718821</v>
+        <v>1.022691202722309</v>
       </c>
       <c r="N19">
-        <v>0.9919824705669988</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.014161126889264</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.027108006492704</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.028814404968032</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9596426149713482</v>
+        <v>0.9820315471286768</v>
       </c>
       <c r="D20">
-        <v>0.9871372780142</v>
+        <v>1.009183448646648</v>
       </c>
       <c r="E20">
-        <v>0.9698479029563289</v>
+        <v>0.9919757735668551</v>
       </c>
       <c r="F20">
-        <v>0.9254839276146822</v>
+        <v>1.004541082803595</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031476329552086</v>
+        <v>1.042625213425111</v>
       </c>
       <c r="J20">
-        <v>0.9888230544487693</v>
+        <v>1.01027313666431</v>
       </c>
       <c r="K20">
-        <v>1.001410137572246</v>
+        <v>1.023066717652537</v>
       </c>
       <c r="L20">
-        <v>0.9844425034729674</v>
+        <v>1.006161202216568</v>
       </c>
       <c r="M20">
-        <v>0.9409771111172349</v>
+        <v>1.018504549976328</v>
       </c>
       <c r="N20">
-        <v>0.9902272966056762</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011707840398322</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.023258946340391</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.027459818286855</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9512507802630005</v>
+        <v>0.9759094836307807</v>
       </c>
       <c r="D21">
-        <v>0.9808054989756164</v>
+        <v>1.004960269422986</v>
       </c>
       <c r="E21">
-        <v>0.962234473706826</v>
+        <v>0.9865574187097839</v>
       </c>
       <c r="F21">
-        <v>0.9130105291780276</v>
+        <v>0.9999763602684271</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028774319260959</v>
+        <v>1.040973908008951</v>
       </c>
       <c r="J21">
-        <v>0.9829381919442276</v>
+        <v>1.006450128760662</v>
       </c>
       <c r="K21">
-        <v>0.99615987597081</v>
+        <v>1.019848273423343</v>
       </c>
       <c r="L21">
-        <v>0.9779684769185928</v>
+        <v>1.001798020139105</v>
       </c>
       <c r="M21">
-        <v>0.9298512817357742</v>
+        <v>1.01495818052582</v>
       </c>
       <c r="N21">
-        <v>0.9843340769213749</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.007879403384946</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.020410499331512</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.025187493095977</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9457626255410115</v>
+        <v>0.9720192238408064</v>
       </c>
       <c r="D22">
-        <v>0.9766692010242394</v>
+        <v>1.002277715815235</v>
       </c>
       <c r="E22">
-        <v>0.9572641882151439</v>
+        <v>0.9831285311773461</v>
       </c>
       <c r="F22">
-        <v>0.9048001046437193</v>
+        <v>0.9972144410045796</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026989825147709</v>
+        <v>1.039913172807936</v>
       </c>
       <c r="J22">
-        <v>0.9790827676971762</v>
+        <v>1.004038612463404</v>
       </c>
       <c r="K22">
-        <v>0.9927174602434204</v>
+        <v>1.01780418534993</v>
       </c>
       <c r="L22">
-        <v>0.9737326027439217</v>
+        <v>0.999041791631214</v>
       </c>
       <c r="M22">
-        <v>0.92252687590035</v>
+        <v>1.012841283073019</v>
       </c>
       <c r="N22">
-        <v>0.9804731775296693</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.005464462457941</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.018735066367582</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.023728521181771</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9486932780286603</v>
+        <v>0.9740781379331147</v>
       </c>
       <c r="D23">
-        <v>0.9788774687328187</v>
+        <v>1.003692581910754</v>
       </c>
       <c r="E23">
-        <v>0.9599174427514714</v>
+        <v>0.9849411072128588</v>
       </c>
       <c r="F23">
-        <v>0.909189957716977</v>
+        <v>0.9986784353372022</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027944333018099</v>
+        <v>1.040472670835364</v>
       </c>
       <c r="J23">
-        <v>0.9811421818391534</v>
+        <v>1.00531070177662</v>
       </c>
       <c r="K23">
-        <v>0.9945564882253206</v>
+        <v>1.018880116726878</v>
       </c>
       <c r="L23">
-        <v>0.9759947103163038</v>
+        <v>1.000497021122885</v>
       </c>
       <c r="M23">
-        <v>0.9264430437923478</v>
+        <v>1.01396269852516</v>
       </c>
       <c r="N23">
-        <v>0.982535516275946</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.006738358283892</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.019622618819196</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.024479500587457</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9597799643544814</v>
+        <v>0.9819920130999145</v>
       </c>
       <c r="D24">
-        <v>0.9872409717985241</v>
+        <v>1.009145352242424</v>
       </c>
       <c r="E24">
-        <v>0.9699726492502896</v>
+        <v>0.991926314605828</v>
       </c>
       <c r="F24">
-        <v>0.9256873252224286</v>
+        <v>1.004329626387604</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031520260806924</v>
+        <v>1.042597651500608</v>
       </c>
       <c r="J24">
-        <v>0.9889192599211912</v>
+        <v>1.010201332288202</v>
       </c>
       <c r="K24">
-        <v>1.001495917438564</v>
+        <v>1.023013746377605</v>
       </c>
       <c r="L24">
-        <v>0.9845484291808866</v>
+        <v>1.006096712375532</v>
       </c>
       <c r="M24">
-        <v>0.9411585077665032</v>
+        <v>1.018281133171055</v>
       </c>
       <c r="N24">
-        <v>0.9903236387009038</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.011635934051763</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.023040464475313</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.027394646332116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9718293444188668</v>
+        <v>0.9907672512463793</v>
       </c>
       <c r="D25">
-        <v>0.9963436022413883</v>
+        <v>1.015202456792569</v>
       </c>
       <c r="E25">
-        <v>0.9809339417017415</v>
+        <v>0.9997017380491308</v>
       </c>
       <c r="F25">
-        <v>0.9434468498730937</v>
+        <v>1.010653445467854</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035332430314847</v>
+        <v>1.044888138915653</v>
       </c>
       <c r="J25">
-        <v>0.9973434328126056</v>
+        <v>1.015609379961032</v>
       </c>
       <c r="K25">
-        <v>1.008998945501333</v>
+        <v>1.027569270589572</v>
       </c>
       <c r="L25">
-        <v>0.9938356246433075</v>
+        <v>1.012304685915368</v>
       </c>
       <c r="M25">
-        <v>0.9569914751140857</v>
+        <v>1.023088601224496</v>
       </c>
       <c r="N25">
-        <v>0.9987597748840903</v>
+        <v>1.017051661772601</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.026845337629188</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.030612801969889</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_1/res_bus/vm_pu.xlsx
@@ -433,49 +433,49 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9974319765258025</v>
+        <v>1.024845048605706</v>
       </c>
       <c r="D2">
-        <v>1.019793343827933</v>
+        <v>1.043663397466695</v>
       </c>
       <c r="E2">
-        <v>1.005624958787947</v>
+        <v>1.042961238102601</v>
       </c>
       <c r="F2">
-        <v>1.01550979688685</v>
+        <v>1.050568428257912</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046561648295694</v>
+        <v>1.060591448363189</v>
       </c>
       <c r="J2">
-        <v>1.019689768975337</v>
+        <v>1.046307218711138</v>
       </c>
       <c r="K2">
-        <v>1.030983644680359</v>
+        <v>1.054546186755616</v>
       </c>
       <c r="L2">
-        <v>1.017006481316191</v>
+        <v>1.053852822519674</v>
       </c>
       <c r="M2">
-        <v>1.026757203001276</v>
+        <v>1.061365505730318</v>
       </c>
       <c r="N2">
-        <v>1.021137845407331</v>
+        <v>1.01914685677232</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.029748840238498</v>
+        <v>1.057138884428719</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.032978313126209</v>
+        <v>1.049639064005139</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -486,49 +486,49 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002135184114526</v>
+        <v>1.028187538772589</v>
       </c>
       <c r="D3">
-        <v>1.023042594556598</v>
+        <v>1.045938804616266</v>
       </c>
       <c r="E3">
-        <v>1.009818754431183</v>
+        <v>1.045714523279245</v>
       </c>
       <c r="F3">
-        <v>1.018953940067949</v>
+        <v>1.05307703954551</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047715468404945</v>
+        <v>1.061502904983602</v>
       </c>
       <c r="J3">
-        <v>1.022567810615244</v>
+        <v>1.047938203281794</v>
       </c>
       <c r="K3">
-        <v>1.033388891765057</v>
+        <v>1.056015787660836</v>
       </c>
       <c r="L3">
-        <v>1.020327525245695</v>
+        <v>1.055794073798028</v>
       </c>
       <c r="M3">
-        <v>1.029349912283662</v>
+        <v>1.063073011073583</v>
       </c>
       <c r="N3">
-        <v>1.024019974196485</v>
+        <v>1.019700888388815</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.031800823985391</v>
+        <v>1.058490228958401</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.03467637646452</v>
+        <v>1.05067554270693</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -539,49 +539,49 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005110464981622</v>
+        <v>1.030316586871074</v>
       </c>
       <c r="D4">
-        <v>1.025098628993483</v>
+        <v>1.047391823588266</v>
       </c>
       <c r="E4">
-        <v>1.012476982221685</v>
+        <v>1.04747359626761</v>
       </c>
       <c r="F4">
-        <v>1.021142882854258</v>
+        <v>1.054680455320842</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048429790438068</v>
+        <v>1.062075215663096</v>
       </c>
       <c r="J4">
-        <v>1.024384341828232</v>
+        <v>1.048975346219753</v>
       </c>
       <c r="K4">
-        <v>1.034903286428974</v>
+        <v>1.056950035393202</v>
       </c>
       <c r="L4">
-        <v>1.022427117719508</v>
+        <v>1.05703092777135</v>
       </c>
       <c r="M4">
-        <v>1.030992656906273</v>
+        <v>1.064160859441313</v>
       </c>
       <c r="N4">
-        <v>1.025839085092155</v>
+        <v>1.020053232343074</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.033100960946049</v>
+        <v>1.059351166718368</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.03574810080968</v>
+        <v>1.051336998294944</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -592,49 +592,49 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006349874461479</v>
+        <v>1.031206691573614</v>
       </c>
       <c r="D5">
-        <v>1.025957006027957</v>
+        <v>1.048001970026381</v>
       </c>
       <c r="E5">
-        <v>1.013585964501146</v>
+        <v>1.04821075762844</v>
       </c>
       <c r="F5">
-        <v>1.022055805355414</v>
+        <v>1.05535266818117</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048724962841191</v>
+        <v>1.062313894761891</v>
       </c>
       <c r="J5">
-        <v>1.025141585417747</v>
+        <v>1.049409948539659</v>
       </c>
       <c r="K5">
-        <v>1.035534922573265</v>
+        <v>1.057342657399636</v>
       </c>
       <c r="L5">
-        <v>1.023302578749923</v>
+        <v>1.057549256517135</v>
       </c>
       <c r="M5">
-        <v>1.031677014109077</v>
+        <v>1.064616942642487</v>
       </c>
       <c r="N5">
-        <v>1.026597404054423</v>
+        <v>1.020201259453792</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.033642589213989</v>
+        <v>1.059712116782812</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.036201934340635</v>
+        <v>1.051621666656739</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -645,49 +645,49 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006562288689226</v>
+        <v>1.03135925096717</v>
       </c>
       <c r="D6">
-        <v>1.02610634260491</v>
+        <v>1.048108804799986</v>
       </c>
       <c r="E6">
-        <v>1.013776621020455</v>
+        <v>1.048337756124114</v>
       </c>
       <c r="F6">
-        <v>1.02221081422101</v>
+        <v>1.055468640349394</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048777051943842</v>
+        <v>1.062356412829571</v>
       </c>
       <c r="J6">
-        <v>1.025273206325797</v>
+        <v>1.049486153992058</v>
       </c>
       <c r="K6">
-        <v>1.035646182568437</v>
+        <v>1.05741295542113</v>
       </c>
       <c r="L6">
-        <v>1.023454045993223</v>
+        <v>1.057639517775035</v>
       </c>
       <c r="M6">
-        <v>1.031793682515253</v>
+        <v>1.06469662818014</v>
       </c>
       <c r="N6">
-        <v>1.02672921187926</v>
+        <v>1.020227670754309</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.03373492531857</v>
+        <v>1.059775180916681</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.036289394005506</v>
+        <v>1.051679981467993</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -698,49 +698,49 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005141121950059</v>
+        <v>1.030338090733049</v>
       </c>
       <c r="D7">
-        <v>1.025125763349285</v>
+        <v>1.047412464813964</v>
       </c>
       <c r="E7">
-        <v>1.012505815753159</v>
+        <v>1.047492952289196</v>
       </c>
       <c r="F7">
-        <v>1.021161183498182</v>
+        <v>1.054698509126405</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048441708762314</v>
+        <v>1.062085617418532</v>
       </c>
       <c r="J7">
-        <v>1.024408182445651</v>
+        <v>1.048990523595807</v>
       </c>
       <c r="K7">
-        <v>1.034927209850285</v>
+        <v>1.056967633465407</v>
       </c>
       <c r="L7">
-        <v>1.022452662215274</v>
+        <v>1.057047254803072</v>
       </c>
       <c r="M7">
-        <v>1.031007829787272</v>
+        <v>1.064175927012058</v>
       </c>
       <c r="N7">
-        <v>1.025862959565985</v>
+        <v>1.020059638550261</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.033112969388893</v>
+        <v>1.059363091388794</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.035785237109992</v>
+        <v>1.051369244195223</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -751,49 +751,49 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9990534626695838</v>
+        <v>1.025993741492308</v>
       </c>
       <c r="D8">
-        <v>1.020920492719518</v>
+        <v>1.044451865923667</v>
       </c>
       <c r="E8">
-        <v>1.007071491725115</v>
+        <v>1.043908274308895</v>
       </c>
       <c r="F8">
-        <v>1.016689780147173</v>
+        <v>1.051431629696946</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046968128505475</v>
+        <v>1.060912036293655</v>
       </c>
       <c r="J8">
-        <v>1.020689157635753</v>
+        <v>1.046873881533831</v>
       </c>
       <c r="K8">
-        <v>1.031824347362779</v>
+        <v>1.055061580236284</v>
       </c>
       <c r="L8">
-        <v>1.01815651964766</v>
+        <v>1.054524597491981</v>
       </c>
       <c r="M8">
-        <v>1.027648325610935</v>
+        <v>1.061957238662806</v>
       </c>
       <c r="N8">
-        <v>1.022138653314278</v>
+        <v>1.019340951789893</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.030454114406662</v>
+        <v>1.057607190735795</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.033595838355139</v>
+        <v>1.05002604383901</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -804,49 +804,49 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9877543106783541</v>
+        <v>1.018054651341317</v>
       </c>
       <c r="D9">
-        <v>1.013113610921891</v>
+        <v>1.039062438686672</v>
       </c>
       <c r="E9">
-        <v>0.9970262071987842</v>
+        <v>1.037398154980204</v>
       </c>
       <c r="F9">
-        <v>1.008481463347672</v>
+        <v>1.045503572199932</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04410423887253</v>
+        <v>1.058696260096117</v>
       </c>
       <c r="J9">
-        <v>1.013747032155775</v>
+        <v>1.042985575825566</v>
       </c>
       <c r="K9">
-        <v>1.025997452408538</v>
+        <v>1.051552023532838</v>
       </c>
       <c r="L9">
-        <v>1.010167717081207</v>
+        <v>1.049912274193689</v>
       </c>
       <c r="M9">
-        <v>1.021438417325794</v>
+        <v>1.057899137007019</v>
       </c>
       <c r="N9">
-        <v>1.015186669219845</v>
+        <v>1.018018973619902</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.025539301098287</v>
+        <v>1.054395542522863</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.029472553262992</v>
+        <v>1.047541498328789</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -857,49 +857,49 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9799655227738704</v>
+        <v>1.01262117128036</v>
       </c>
       <c r="D10">
-        <v>1.007747824851214</v>
+        <v>1.035413948981189</v>
       </c>
       <c r="E10">
-        <v>0.9901497482894731</v>
+        <v>1.032996832841148</v>
       </c>
       <c r="F10">
-        <v>1.003122301715807</v>
+        <v>1.041529797697804</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042069638613165</v>
+        <v>1.057159850621405</v>
       </c>
       <c r="J10">
-        <v>1.008997202266124</v>
+        <v>1.040342833829521</v>
       </c>
       <c r="K10">
-        <v>1.021978584952107</v>
+        <v>1.049171936560836</v>
       </c>
       <c r="L10">
-        <v>1.004699159147511</v>
+        <v>1.046794825295208</v>
       </c>
       <c r="M10">
-        <v>1.017435409951619</v>
+        <v>1.055187629158556</v>
       </c>
       <c r="N10">
-        <v>1.010430094026939</v>
+        <v>1.017126948923182</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.022423574556282</v>
+        <v>1.052300193085102</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.026647886773289</v>
+        <v>1.045875249601028</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -910,49 +910,49 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9777134614099821</v>
+        <v>1.010640130235344</v>
       </c>
       <c r="D11">
-        <v>1.006239014915455</v>
+        <v>1.034222893446262</v>
       </c>
       <c r="E11">
-        <v>0.9882977299254961</v>
+        <v>1.031584969394067</v>
       </c>
       <c r="F11">
-        <v>1.003489419743</v>
+        <v>1.040496231091801</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041590090447274</v>
+        <v>1.056752025803025</v>
       </c>
       <c r="J11">
-        <v>1.00804370338997</v>
+        <v>1.039576869995138</v>
       </c>
       <c r="K11">
-        <v>1.021044223935632</v>
+        <v>1.04852704095751</v>
       </c>
       <c r="L11">
-        <v>1.003443760481812</v>
+        <v>1.045934847588361</v>
       </c>
       <c r="M11">
-        <v>1.01834582937899</v>
+        <v>1.054692827576764</v>
       </c>
       <c r="N11">
-        <v>1.009475241073012</v>
+        <v>1.01691809424071</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.023587919744376</v>
+        <v>1.052337960674385</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.026020476906442</v>
+        <v>1.045451680687245</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -963,49 +963,49 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9772773085880186</v>
+        <v>1.010045426665334</v>
       </c>
       <c r="D12">
-        <v>1.00596263497149</v>
+        <v>1.033918916375578</v>
       </c>
       <c r="E12">
-        <v>0.9880073655380757</v>
+        <v>1.031241793040223</v>
       </c>
       <c r="F12">
-        <v>1.004538515878243</v>
+        <v>1.040364292321263</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041553820691803</v>
+        <v>1.056694565723165</v>
       </c>
       <c r="J12">
-        <v>1.008075467929265</v>
+        <v>1.039430647761106</v>
       </c>
       <c r="K12">
-        <v>1.020976484985472</v>
+        <v>1.048423910046118</v>
       </c>
       <c r="L12">
-        <v>1.003367989522962</v>
+        <v>1.045793966124664</v>
       </c>
       <c r="M12">
-        <v>1.019579278586026</v>
+        <v>1.054756986423073</v>
       </c>
       <c r="N12">
-        <v>1.009507050721596</v>
+        <v>1.016907213938853</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.024894724584882</v>
+        <v>1.052710449330843</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.025972582183118</v>
+        <v>1.045378765681338</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1016,49 +1016,49 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9782234519171416</v>
+        <v>1.0104917341434</v>
       </c>
       <c r="D13">
-        <v>1.006632004281524</v>
+        <v>1.034294535507561</v>
       </c>
       <c r="E13">
-        <v>0.9889111103613182</v>
+        <v>1.031712990231644</v>
       </c>
       <c r="F13">
-        <v>1.006208356786776</v>
+        <v>1.040937841173931</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041869974329092</v>
+        <v>1.056917879190879</v>
       </c>
       <c r="J13">
-        <v>1.008882798323531</v>
+        <v>1.039767584958725</v>
       </c>
       <c r="K13">
-        <v>1.02158962813311</v>
+        <v>1.048751004019618</v>
       </c>
       <c r="L13">
-        <v>1.004209125134618</v>
+        <v>1.04621475414122</v>
       </c>
       <c r="M13">
-        <v>1.021173935561829</v>
+        <v>1.055279082796499</v>
       </c>
       <c r="N13">
-        <v>1.010315527617625</v>
+        <v>1.017055096555501</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.0264355821302</v>
+        <v>1.053396445386566</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.026403582079233</v>
+        <v>1.045607567947239</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1069,49 +1069,49 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9794958275909686</v>
+        <v>1.011276905724398</v>
       </c>
       <c r="D14">
-        <v>1.007518847115684</v>
+        <v>1.034867030761545</v>
       </c>
       <c r="E14">
-        <v>0.9900690643860146</v>
+        <v>1.032412589886646</v>
       </c>
       <c r="F14">
-        <v>1.007627911356477</v>
+        <v>1.041659982647788</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042245522628595</v>
+        <v>1.057201909380518</v>
       </c>
       <c r="J14">
-        <v>1.009784114693563</v>
+        <v>1.04022295757692</v>
       </c>
       <c r="K14">
-        <v>1.022317133174718</v>
+        <v>1.049176204823343</v>
       </c>
       <c r="L14">
-        <v>1.005197943903214</v>
+        <v>1.046764290640401</v>
       </c>
       <c r="M14">
-        <v>1.022424178091499</v>
+        <v>1.055852808051158</v>
       </c>
       <c r="N14">
-        <v>1.011218123960285</v>
+        <v>1.01723081309099</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.027598881942698</v>
+        <v>1.054021387012533</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.026919404497075</v>
+        <v>1.045909595641357</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1122,49 +1122,49 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9801233740576065</v>
+        <v>1.011699981854506</v>
       </c>
       <c r="D15">
-        <v>1.007954618256305</v>
+        <v>1.035162000938452</v>
       </c>
       <c r="E15">
-        <v>0.9906285718454789</v>
+        <v>1.032768451037125</v>
       </c>
       <c r="F15">
-        <v>1.00816016762374</v>
+        <v>1.04200143108929</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042420804755376</v>
+        <v>1.057337247255599</v>
       </c>
       <c r="J15">
-        <v>1.010190823314673</v>
+        <v>1.040445804466262</v>
       </c>
       <c r="K15">
-        <v>1.022656962364227</v>
+        <v>1.049381521256264</v>
       </c>
       <c r="L15">
-        <v>1.005656486255987</v>
+        <v>1.047029127580772</v>
       </c>
       <c r="M15">
-        <v>1.022858736780865</v>
+        <v>1.056104693988221</v>
       </c>
       <c r="N15">
-        <v>1.011625410154287</v>
+        <v>1.017311026229147</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.027980211123549</v>
+        <v>1.054257640235873</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.027165616315901</v>
+        <v>1.046060545347919</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1175,49 +1175,49 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9832229482535776</v>
+        <v>1.013915816335452</v>
       </c>
       <c r="D16">
-        <v>1.010088719024163</v>
+        <v>1.036640877299625</v>
       </c>
       <c r="E16">
-        <v>0.9933450542272321</v>
+        <v>1.034547549173988</v>
       </c>
       <c r="F16">
-        <v>1.010141894574504</v>
+        <v>1.043597678301877</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043234576077536</v>
+        <v>1.057963903267742</v>
       </c>
       <c r="J16">
-        <v>1.012039414152296</v>
+        <v>1.04151293678161</v>
       </c>
       <c r="K16">
-        <v>1.024242026927323</v>
+        <v>1.050343819532932</v>
       </c>
       <c r="L16">
-        <v>1.007798479931477</v>
+        <v>1.048284917418762</v>
       </c>
       <c r="M16">
-        <v>1.024294269881287</v>
+        <v>1.057187485147307</v>
       </c>
       <c r="N16">
-        <v>1.013476626202936</v>
+        <v>1.017665254304901</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.029075795379678</v>
+        <v>1.055075164638226</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.028289530785553</v>
+        <v>1.04674402906561</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1228,49 +1228,49 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9849452438881834</v>
+        <v>1.015206054963361</v>
       </c>
       <c r="D17">
-        <v>1.011269578676782</v>
+        <v>1.037476622418717</v>
       </c>
       <c r="E17">
-        <v>0.9948345951688092</v>
+        <v>1.03554681423202</v>
       </c>
       <c r="F17">
-        <v>1.01092612437994</v>
+        <v>1.04444107596095</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043662427071484</v>
+        <v>1.058293166186759</v>
       </c>
       <c r="J17">
-        <v>1.012994505396707</v>
+        <v>1.042092172622881</v>
       </c>
       <c r="K17">
-        <v>1.025082855129529</v>
+        <v>1.050857979417662</v>
       </c>
       <c r="L17">
-        <v>1.008933802887949</v>
+        <v>1.048959020224714</v>
       </c>
       <c r="M17">
-        <v>1.024745253311032</v>
+        <v>1.057712315331939</v>
       </c>
       <c r="N17">
-        <v>1.014433073786465</v>
+        <v>1.017844578783719</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.029302056377187</v>
+        <v>1.055362386576889</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.028886648895897</v>
+        <v>1.047110101482321</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1281,49 +1281,49 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9855892833513025</v>
+        <v>1.015807580510212</v>
       </c>
       <c r="D18">
-        <v>1.011696430068366</v>
+        <v>1.037815572743603</v>
       </c>
       <c r="E18">
-        <v>0.9953483746905262</v>
+        <v>1.035943871141588</v>
       </c>
       <c r="F18">
-        <v>1.010576523411769</v>
+        <v>1.044678771136409</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04377839472521</v>
+        <v>1.058384603234735</v>
       </c>
       <c r="J18">
-        <v>1.013207986637123</v>
+        <v>1.042286416606019</v>
       </c>
       <c r="K18">
-        <v>1.025316276595033</v>
+        <v>1.05101199493155</v>
       </c>
       <c r="L18">
-        <v>1.009247887241767</v>
+        <v>1.049169726873018</v>
       </c>
       <c r="M18">
-        <v>1.02421515593644</v>
+        <v>1.057768418023443</v>
       </c>
       <c r="N18">
-        <v>1.014646858194728</v>
+        <v>1.017881518350187</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.028642778269576</v>
+        <v>1.055172011267687</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.029039936532342</v>
+        <v>1.047207523321021</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1334,49 +1334,49 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9852279800167145</v>
+        <v>1.015794966512833</v>
       </c>
       <c r="D19">
-        <v>1.01142730819442</v>
+        <v>1.037718536579257</v>
       </c>
       <c r="E19">
-        <v>0.9949489783243336</v>
+        <v>1.035803020618276</v>
       </c>
       <c r="F19">
-        <v>1.009091284656817</v>
+        <v>1.044375111065281</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043607861694125</v>
+        <v>1.058270435011796</v>
       </c>
       <c r="J19">
-        <v>1.012722944147629</v>
+        <v>1.04214303759491</v>
       </c>
       <c r="K19">
-        <v>1.024988162753244</v>
+        <v>1.050855253229353</v>
       </c>
       <c r="L19">
-        <v>1.00879045731019</v>
+        <v>1.048969708589196</v>
       </c>
       <c r="M19">
-        <v>1.022691202722309</v>
+        <v>1.057408765934926</v>
       </c>
       <c r="N19">
-        <v>1.014161126889264</v>
+        <v>1.017796972059399</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.027108006492704</v>
+        <v>1.054566759339144</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.028814404968032</v>
+        <v>1.047103008483602</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1387,49 +1387,49 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9820315471286768</v>
+        <v>1.014052731727827</v>
       </c>
       <c r="D20">
-        <v>1.009183448646648</v>
+        <v>1.036388747409997</v>
       </c>
       <c r="E20">
-        <v>0.9919757735668551</v>
+        <v>1.034159454914113</v>
       </c>
       <c r="F20">
-        <v>1.004541082803595</v>
+        <v>1.042581654383085</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042625213425111</v>
+        <v>1.057579495637859</v>
       </c>
       <c r="J20">
-        <v>1.01027313666431</v>
+        <v>1.041052489116501</v>
       </c>
       <c r="K20">
-        <v>1.023066717652537</v>
+        <v>1.049820562373982</v>
       </c>
       <c r="L20">
-        <v>1.006161202216568</v>
+        <v>1.047627116895439</v>
       </c>
       <c r="M20">
-        <v>1.018504549976328</v>
+        <v>1.055914917360072</v>
       </c>
       <c r="N20">
-        <v>1.011707840398322</v>
+        <v>1.017370341268863</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.023258946340391</v>
+        <v>1.052865379411905</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.027459818286855</v>
+        <v>1.046375326948074</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1440,49 +1440,49 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9759094836307807</v>
+        <v>1.009901678467359</v>
       </c>
       <c r="D21">
-        <v>1.004960269422986</v>
+        <v>1.033581207902563</v>
       </c>
       <c r="E21">
-        <v>0.9865574187097839</v>
+        <v>1.030771395276198</v>
       </c>
       <c r="F21">
-        <v>0.9999763602684271</v>
+        <v>1.039477254262418</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040973908008951</v>
+        <v>1.056358904104427</v>
       </c>
       <c r="J21">
-        <v>1.006450128760662</v>
+        <v>1.038991169690116</v>
       </c>
       <c r="K21">
-        <v>1.019848273423343</v>
+        <v>1.047953130075507</v>
       </c>
       <c r="L21">
-        <v>1.001798020139105</v>
+        <v>1.045192339333894</v>
       </c>
       <c r="M21">
-        <v>1.01495818052582</v>
+        <v>1.053747423376972</v>
       </c>
       <c r="N21">
-        <v>1.007879403384946</v>
+        <v>1.016665202833866</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.020410499331512</v>
+        <v>1.051109794172951</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.025187493095977</v>
+        <v>1.045058197942629</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1493,49 +1493,49 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9720192238408064</v>
+        <v>1.007261954059276</v>
       </c>
       <c r="D22">
-        <v>1.002277715815235</v>
+        <v>1.031803597662307</v>
       </c>
       <c r="E22">
-        <v>0.9831285311773461</v>
+        <v>1.028633862692979</v>
       </c>
       <c r="F22">
-        <v>0.9972144410045796</v>
+        <v>1.037534388711703</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039913172807936</v>
+        <v>1.05558019298185</v>
       </c>
       <c r="J22">
-        <v>1.004038612463404</v>
+        <v>1.037686688843832</v>
       </c>
       <c r="K22">
-        <v>1.01780418534993</v>
+        <v>1.046770293901339</v>
       </c>
       <c r="L22">
-        <v>0.999041791631214</v>
+        <v>1.043658647048163</v>
       </c>
       <c r="M22">
-        <v>1.012841283073019</v>
+        <v>1.052397234073125</v>
       </c>
       <c r="N22">
-        <v>1.005464462457941</v>
+        <v>1.016220348116565</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.018735066367582</v>
+        <v>1.050041224533223</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.023728521181771</v>
+        <v>1.044208578924436</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1546,49 +1546,49 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9740781379331147</v>
+        <v>1.008656767707209</v>
       </c>
       <c r="D23">
-        <v>1.003692581910754</v>
+        <v>1.032737254315431</v>
       </c>
       <c r="E23">
-        <v>0.9849411072128588</v>
+        <v>1.029761144002151</v>
       </c>
       <c r="F23">
-        <v>0.9986784353372022</v>
+        <v>1.038558661605192</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040472670835364</v>
+        <v>1.05598859267355</v>
       </c>
       <c r="J23">
-        <v>1.00531070177662</v>
+        <v>1.038371899516291</v>
       </c>
       <c r="K23">
-        <v>1.018880116726878</v>
+        <v>1.047388466409818</v>
       </c>
       <c r="L23">
-        <v>1.000497021122885</v>
+        <v>1.044465504168108</v>
       </c>
       <c r="M23">
-        <v>1.01396269852516</v>
+        <v>1.053107054704641</v>
       </c>
       <c r="N23">
-        <v>1.006738358283892</v>
+        <v>1.016452671891894</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.019622618819196</v>
+        <v>1.050602992450814</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.024479500587457</v>
+        <v>1.044636137006893</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1599,49 +1599,49 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9819920130999145</v>
+        <v>1.014066631288262</v>
       </c>
       <c r="D24">
-        <v>1.009145352242424</v>
+        <v>1.036377306427849</v>
       </c>
       <c r="E24">
-        <v>0.991926314605828</v>
+        <v>1.034150201888191</v>
       </c>
       <c r="F24">
-        <v>1.004329626387604</v>
+        <v>1.042549071945713</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042597651500608</v>
+        <v>1.057561960845716</v>
       </c>
       <c r="J24">
-        <v>1.010201332288202</v>
+        <v>1.041033747128019</v>
       </c>
       <c r="K24">
-        <v>1.023013746377605</v>
+        <v>1.049794354643343</v>
       </c>
       <c r="L24">
-        <v>1.006096712375532</v>
+        <v>1.047603017148888</v>
       </c>
       <c r="M24">
-        <v>1.018281133171055</v>
+        <v>1.055868024503209</v>
       </c>
       <c r="N24">
-        <v>1.011635934051763</v>
+        <v>1.017357535573168</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.023040464475313</v>
+        <v>1.052788081671675</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.027394646332116</v>
+        <v>1.046329772963091</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -1652,49 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9907672512463793</v>
+        <v>1.020155645943494</v>
       </c>
       <c r="D25">
-        <v>1.015202456792569</v>
+        <v>1.040493992367878</v>
       </c>
       <c r="E25">
-        <v>0.9997017380491308</v>
+        <v>1.039118253464276</v>
       </c>
       <c r="F25">
-        <v>1.010653445467854</v>
+        <v>1.047069718290347</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044888138915653</v>
+        <v>1.059296891799896</v>
       </c>
       <c r="J25">
-        <v>1.015609379961032</v>
+        <v>1.044023223997413</v>
       </c>
       <c r="K25">
-        <v>1.027569270589572</v>
+        <v>1.052494608405504</v>
       </c>
       <c r="L25">
-        <v>1.012304685915368</v>
+        <v>1.051138209554944</v>
       </c>
       <c r="M25">
-        <v>1.023088601224496</v>
+        <v>1.058978778308723</v>
       </c>
       <c r="N25">
-        <v>1.017051661772601</v>
+        <v>1.018373854651594</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.026845337629188</v>
+        <v>1.055249989679984</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.030612801969889</v>
+        <v>1.04823611820433</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_1/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,105 +439,123 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024845048605706</v>
+        <v>1.023311642151229</v>
       </c>
       <c r="D2">
-        <v>1.043663397466695</v>
+        <v>1.041320794671715</v>
       </c>
       <c r="E2">
-        <v>1.042961238102601</v>
+        <v>1.04140218125443</v>
       </c>
       <c r="F2">
-        <v>1.050568428257912</v>
+        <v>1.048951016938031</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.060591448363189</v>
+        <v>1.059305296137317</v>
       </c>
       <c r="J2">
-        <v>1.046307218711138</v>
+        <v>1.044816780332606</v>
       </c>
       <c r="K2">
-        <v>1.054546186755616</v>
+        <v>1.052232984662337</v>
       </c>
       <c r="L2">
-        <v>1.053852822519674</v>
+        <v>1.052313347040963</v>
       </c>
       <c r="M2">
-        <v>1.061365505730318</v>
+        <v>1.059768045270704</v>
       </c>
       <c r="N2">
-        <v>1.01914685677232</v>
+        <v>1.018954904933258</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.057138884428719</v>
+        <v>1.055874628858397</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.049639064005139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.048012125340094</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025833679974578</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C3">
-        <v>1.028187538772589</v>
+        <v>1.026537478596167</v>
       </c>
       <c r="D3">
-        <v>1.045938804616266</v>
+        <v>1.043443165971368</v>
       </c>
       <c r="E3">
-        <v>1.045714523279245</v>
+        <v>1.044039037850854</v>
       </c>
       <c r="F3">
-        <v>1.05307703954551</v>
+        <v>1.051348005718772</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.061502904983602</v>
+        <v>1.060126547726279</v>
       </c>
       <c r="J3">
-        <v>1.047938203281794</v>
+        <v>1.046329949335346</v>
       </c>
       <c r="K3">
-        <v>1.056015787660836</v>
+        <v>1.053548794782985</v>
       </c>
       <c r="L3">
-        <v>1.055794073798028</v>
+        <v>1.054137811681224</v>
       </c>
       <c r="M3">
-        <v>1.063073011073583</v>
+        <v>1.061363475554904</v>
       </c>
       <c r="N3">
-        <v>1.019700888388815</v>
+        <v>1.019361998184662</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.058490228958401</v>
+        <v>1.057137277716991</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.05067554270693</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.048939590653697</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.026089168429504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030316586871074</v>
+        <v>1.02859283942941</v>
       </c>
       <c r="D4">
-        <v>1.047391823588266</v>
+        <v>1.044799095766864</v>
       </c>
       <c r="E4">
-        <v>1.04747359626761</v>
+        <v>1.045724445719143</v>
       </c>
       <c r="F4">
-        <v>1.054680455320842</v>
+        <v>1.052880723977005</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.062075215663096</v>
+        <v>1.060641550644995</v>
       </c>
       <c r="J4">
-        <v>1.048975346219753</v>
+        <v>1.047292376928404</v>
       </c>
       <c r="K4">
-        <v>1.056950035393202</v>
+        <v>1.054385306492248</v>
       </c>
       <c r="L4">
-        <v>1.05703092777135</v>
+        <v>1.055300644034025</v>
       </c>
       <c r="M4">
-        <v>1.064160859441313</v>
+        <v>1.062380218014306</v>
       </c>
       <c r="N4">
-        <v>1.020053232343074</v>
+        <v>1.019621005113762</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.059351166718368</v>
+        <v>1.057941942755563</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.051336998294944</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.049532024835596</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.026249377525253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031206691573614</v>
+        <v>1.029452243970308</v>
       </c>
       <c r="D5">
-        <v>1.048001970026381</v>
+        <v>1.045368775108835</v>
       </c>
       <c r="E5">
-        <v>1.04821075762844</v>
+        <v>1.046430900845764</v>
       </c>
       <c r="F5">
-        <v>1.05535266818117</v>
+        <v>1.053523471556152</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.062313894761891</v>
+        <v>1.060856309466923</v>
       </c>
       <c r="J5">
-        <v>1.049409948539659</v>
+        <v>1.047695789934915</v>
       </c>
       <c r="K5">
-        <v>1.057342657399636</v>
+        <v>1.054737155045126</v>
       </c>
       <c r="L5">
-        <v>1.057549256517135</v>
+        <v>1.05578809020456</v>
       </c>
       <c r="M5">
-        <v>1.064616942642487</v>
+        <v>1.062806639490975</v>
       </c>
       <c r="N5">
-        <v>1.020201259453792</v>
+        <v>1.019729872547127</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.059712116782812</v>
+        <v>1.058279418775555</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.051621666656739</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.049788575846416</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.026316725422133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03135925096717</v>
+        <v>1.029599507799325</v>
       </c>
       <c r="D6">
-        <v>1.048108804799986</v>
+        <v>1.045468719383126</v>
       </c>
       <c r="E6">
-        <v>1.048337756124114</v>
+        <v>1.046552614557211</v>
       </c>
       <c r="F6">
-        <v>1.055468640349394</v>
+        <v>1.053634397420395</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.062356412829571</v>
+        <v>1.060894734766047</v>
       </c>
       <c r="J6">
-        <v>1.049486153992058</v>
+        <v>1.047766617749032</v>
       </c>
       <c r="K6">
-        <v>1.05741295542113</v>
+        <v>1.054800510113304</v>
       </c>
       <c r="L6">
-        <v>1.057639517775035</v>
+        <v>1.055873036936932</v>
       </c>
       <c r="M6">
-        <v>1.06469662818014</v>
+        <v>1.062881245371785</v>
       </c>
       <c r="N6">
-        <v>1.020227670754309</v>
+        <v>1.019749330765789</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.059775180916681</v>
+        <v>1.058338462915224</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.051679981467993</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.04984285075352</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.026329427804717</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030338090733049</v>
+        <v>1.028620327320236</v>
       </c>
       <c r="D7">
-        <v>1.047412464813964</v>
+        <v>1.044823826858833</v>
       </c>
       <c r="E7">
-        <v>1.047492952289196</v>
+        <v>1.04574917928829</v>
       </c>
       <c r="F7">
-        <v>1.054698509126405</v>
+        <v>1.052902922607785</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.062085617418532</v>
+        <v>1.060655041200464</v>
       </c>
       <c r="J7">
-        <v>1.048990523595807</v>
+        <v>1.047313379427977</v>
       </c>
       <c r="K7">
-        <v>1.056967633465407</v>
+        <v>1.054406939496485</v>
       </c>
       <c r="L7">
-        <v>1.057047254803072</v>
+        <v>1.055322283394496</v>
       </c>
       <c r="M7">
-        <v>1.064175927012058</v>
+        <v>1.062399379244763</v>
       </c>
       <c r="N7">
-        <v>1.020059638550261</v>
+        <v>1.019653426703979</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.059363091388794</v>
+        <v>1.057957107228985</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.051369244195223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.04956912313621</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.026255823614568</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025993741492308</v>
+        <v>1.024440948274773</v>
       </c>
       <c r="D8">
-        <v>1.044451865923667</v>
+        <v>1.042071946468597</v>
       </c>
       <c r="E8">
-        <v>1.043908274308895</v>
+        <v>1.042327988327789</v>
       </c>
       <c r="F8">
-        <v>1.051431629696946</v>
+        <v>1.049790680071783</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.060912036293655</v>
+        <v>1.059606051892564</v>
       </c>
       <c r="J8">
-        <v>1.046873881533831</v>
+        <v>1.045363169043164</v>
       </c>
       <c r="K8">
-        <v>1.055061580236284</v>
+        <v>1.052710658719467</v>
       </c>
       <c r="L8">
-        <v>1.054524597491981</v>
+        <v>1.052963572954782</v>
       </c>
       <c r="M8">
-        <v>1.061957238662806</v>
+        <v>1.060335937525636</v>
       </c>
       <c r="N8">
-        <v>1.019340951789893</v>
+        <v>1.01918162232359</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.057607190735795</v>
+        <v>1.05632406804509</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.05002604383901</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.048374704065212</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025930960453314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.018054651341317</v>
+        <v>1.01678598600129</v>
       </c>
       <c r="D9">
-        <v>1.039062438686672</v>
+        <v>1.037050506744591</v>
       </c>
       <c r="E9">
-        <v>1.037398154980204</v>
+        <v>1.036100257625252</v>
       </c>
       <c r="F9">
-        <v>1.045503572199932</v>
+        <v>1.044132413774375</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.058696260096117</v>
+        <v>1.057607034254083</v>
       </c>
       <c r="J9">
-        <v>1.042985575825566</v>
+        <v>1.041759601370434</v>
       </c>
       <c r="K9">
-        <v>1.051552023532838</v>
+        <v>1.049569763515861</v>
       </c>
       <c r="L9">
-        <v>1.049912274193689</v>
+        <v>1.048633579567568</v>
       </c>
       <c r="M9">
-        <v>1.057899137007019</v>
+        <v>1.056547869890251</v>
       </c>
       <c r="N9">
-        <v>1.018018973619902</v>
+        <v>1.018221092355155</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.054395542522863</v>
+        <v>1.053326124550112</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.047541498328789</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.046150533197728</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.025307227251631</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.01262117128036</v>
+        <v>1.011577748247025</v>
       </c>
       <c r="D10">
-        <v>1.035413948981189</v>
+        <v>1.033674975046654</v>
       </c>
       <c r="E10">
-        <v>1.032996832841148</v>
+        <v>1.031919262876992</v>
       </c>
       <c r="F10">
-        <v>1.041529797697804</v>
+        <v>1.040364653592535</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.057159850621405</v>
+        <v>1.056233846682928</v>
       </c>
       <c r="J10">
-        <v>1.040342833829521</v>
+        <v>1.039339425287271</v>
       </c>
       <c r="K10">
-        <v>1.049171936560836</v>
+        <v>1.04746171949025</v>
       </c>
       <c r="L10">
-        <v>1.046794825295208</v>
+        <v>1.04573516761966</v>
       </c>
       <c r="M10">
-        <v>1.055187629158556</v>
+        <v>1.054041449352355</v>
       </c>
       <c r="N10">
-        <v>1.017126948923182</v>
+        <v>1.017691353637413</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.052300193085102</v>
+        <v>1.051393137365918</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.045875249601028</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.044678306205622</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024886280628088</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.010640130235344</v>
+        <v>1.00969877233054</v>
       </c>
       <c r="D11">
-        <v>1.034222893446262</v>
+        <v>1.032591273105706</v>
       </c>
       <c r="E11">
-        <v>1.031584969394067</v>
+        <v>1.030604342762345</v>
       </c>
       <c r="F11">
-        <v>1.040496231091801</v>
+        <v>1.03941850583423</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.056752025803025</v>
+        <v>1.055893574296815</v>
       </c>
       <c r="J11">
-        <v>1.039576869995138</v>
+        <v>1.038673564061305</v>
       </c>
       <c r="K11">
-        <v>1.04852704095751</v>
+        <v>1.046923670485864</v>
       </c>
       <c r="L11">
-        <v>1.045934847588361</v>
+        <v>1.044971298252328</v>
       </c>
       <c r="M11">
-        <v>1.054692827576764</v>
+        <v>1.053633459710091</v>
       </c>
       <c r="N11">
-        <v>1.01691809424071</v>
+        <v>1.017775316534042</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.052337960674385</v>
+        <v>1.051500014228778</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.045451680687245</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.044333496380267</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024826085130826</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.010045426665334</v>
+        <v>1.009128832838369</v>
       </c>
       <c r="D12">
-        <v>1.033918916375578</v>
+        <v>1.032312047294266</v>
       </c>
       <c r="E12">
-        <v>1.031241793040223</v>
+        <v>1.030284407947198</v>
       </c>
       <c r="F12">
-        <v>1.040364292321263</v>
+        <v>1.039307751139063</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.056694565723165</v>
+        <v>1.055852176937666</v>
       </c>
       <c r="J12">
-        <v>1.039430647761106</v>
+        <v>1.038551806709569</v>
       </c>
       <c r="K12">
-        <v>1.048423910046118</v>
+        <v>1.046845321034504</v>
       </c>
       <c r="L12">
-        <v>1.045793966124664</v>
+        <v>1.044853530413113</v>
       </c>
       <c r="M12">
-        <v>1.054756986423073</v>
+        <v>1.053718730143366</v>
       </c>
       <c r="N12">
-        <v>1.016907213938853</v>
+        <v>1.01786985051886</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.052710449330843</v>
+        <v>1.051889472147475</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.045378765681338</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.044278103196074</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024843338017109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.0104917341434</v>
+        <v>1.009532185773728</v>
       </c>
       <c r="D13">
-        <v>1.034294535507561</v>
+        <v>1.032643300203208</v>
       </c>
       <c r="E13">
-        <v>1.031712990231644</v>
+        <v>1.030714851537593</v>
       </c>
       <c r="F13">
-        <v>1.040937841173931</v>
+        <v>1.039845962427191</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.056917879190879</v>
+        <v>1.056047837142984</v>
       </c>
       <c r="J13">
-        <v>1.039767584958725</v>
+        <v>1.038847367347457</v>
       </c>
       <c r="K13">
-        <v>1.048751004019618</v>
+        <v>1.047128707210922</v>
       </c>
       <c r="L13">
-        <v>1.04621475414122</v>
+        <v>1.045234207503359</v>
       </c>
       <c r="M13">
-        <v>1.055279082796499</v>
+        <v>1.054206011722648</v>
       </c>
       <c r="N13">
-        <v>1.017055096555501</v>
+        <v>1.017948615124007</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.053396445386566</v>
+        <v>1.052548147431889</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.045607567947239</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.044475757254303</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024926747076478</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.011276905724398</v>
+        <v>1.010257444018309</v>
       </c>
       <c r="D14">
-        <v>1.034867030761545</v>
+        <v>1.033154132867349</v>
       </c>
       <c r="E14">
-        <v>1.032412589886646</v>
+        <v>1.031357690207246</v>
       </c>
       <c r="F14">
-        <v>1.041659982647788</v>
+        <v>1.040518409105556</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.057201909380518</v>
+        <v>1.056293163777434</v>
       </c>
       <c r="J14">
-        <v>1.04022295757692</v>
+        <v>1.039244694526763</v>
       </c>
       <c r="K14">
-        <v>1.049176204823343</v>
+        <v>1.047492957763572</v>
       </c>
       <c r="L14">
-        <v>1.046764290640401</v>
+        <v>1.045727749129561</v>
       </c>
       <c r="M14">
-        <v>1.055852808051158</v>
+        <v>1.054730650065884</v>
       </c>
       <c r="N14">
-        <v>1.01723081309099</v>
+        <v>1.017998280756216</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.054021387012533</v>
+        <v>1.053134401845301</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.045909595641357</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.044734826429568</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.025015806576913</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.011699981854506</v>
+        <v>1.010651521658147</v>
       </c>
       <c r="D15">
-        <v>1.035162000938452</v>
+        <v>1.033419141829405</v>
       </c>
       <c r="E15">
-        <v>1.032768451037125</v>
+        <v>1.031686056783033</v>
       </c>
       <c r="F15">
-        <v>1.04200143108929</v>
+        <v>1.040835640607981</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.057337247255599</v>
+        <v>1.056409663229068</v>
       </c>
       <c r="J15">
-        <v>1.040445804466262</v>
+        <v>1.039439351018411</v>
       </c>
       <c r="K15">
-        <v>1.049381521256264</v>
+        <v>1.047668605581985</v>
       </c>
       <c r="L15">
-        <v>1.047029127580772</v>
+        <v>1.04596542582338</v>
       </c>
       <c r="M15">
-        <v>1.056104693988221</v>
+        <v>1.05495858037237</v>
       </c>
       <c r="N15">
-        <v>1.017311026229147</v>
+        <v>1.018012039211864</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.054257640235873</v>
+        <v>1.053351743385333</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.046060545347919</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.044865369437298</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.025054616626951</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.013915816335452</v>
+        <v>1.012735903812338</v>
       </c>
       <c r="D16">
-        <v>1.036640877299625</v>
+        <v>1.034758844820927</v>
       </c>
       <c r="E16">
-        <v>1.034547549173988</v>
+        <v>1.033339914304235</v>
       </c>
       <c r="F16">
-        <v>1.043597678301877</v>
+        <v>1.042320160622806</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.057963903267742</v>
+        <v>1.05694925438642</v>
       </c>
       <c r="J16">
-        <v>1.04151293678161</v>
+        <v>1.040377974803415</v>
       </c>
       <c r="K16">
-        <v>1.050343819532932</v>
+        <v>1.048492730053653</v>
       </c>
       <c r="L16">
-        <v>1.048284917418762</v>
+        <v>1.047097224466481</v>
       </c>
       <c r="M16">
-        <v>1.057187485147307</v>
+        <v>1.055930597851629</v>
       </c>
       <c r="N16">
-        <v>1.017665254304901</v>
+        <v>1.01805302958229</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.055075164638226</v>
+        <v>1.054081683575919</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.04674402906561</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.045451462053096</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.025215195119193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.015206054963361</v>
+        <v>1.013963870214074</v>
       </c>
       <c r="D17">
-        <v>1.037476622418717</v>
+        <v>1.035525224125365</v>
       </c>
       <c r="E17">
-        <v>1.03554681423202</v>
+        <v>1.034279253602337</v>
       </c>
       <c r="F17">
-        <v>1.04444107596095</v>
+        <v>1.043108895390294</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.058293166186759</v>
+        <v>1.057235706254562</v>
       </c>
       <c r="J17">
-        <v>1.042092172622881</v>
+        <v>1.040895815239908</v>
       </c>
       <c r="K17">
-        <v>1.050857979417662</v>
+        <v>1.04893777608124</v>
       </c>
       <c r="L17">
-        <v>1.048959020224714</v>
+        <v>1.047711802570193</v>
       </c>
       <c r="M17">
-        <v>1.057712315331939</v>
+        <v>1.056401052836845</v>
       </c>
       <c r="N17">
-        <v>1.017844578783719</v>
+        <v>1.018086734981435</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.055362386576889</v>
+        <v>1.05432582435591</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.047110101482321</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.045768917827805</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.025292076799946</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.015807580510212</v>
+        <v>1.014548914419772</v>
       </c>
       <c r="D18">
-        <v>1.037815572743603</v>
+        <v>1.03584329800366</v>
       </c>
       <c r="E18">
-        <v>1.035943871141588</v>
+        <v>1.034660036389528</v>
       </c>
       <c r="F18">
-        <v>1.044678771136409</v>
+        <v>1.043330541411337</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.058384603234735</v>
+        <v>1.057314578102015</v>
       </c>
       <c r="J18">
-        <v>1.042286416606019</v>
+        <v>1.041073329147024</v>
       </c>
       <c r="K18">
-        <v>1.05101199493155</v>
+        <v>1.049070739157782</v>
       </c>
       <c r="L18">
-        <v>1.049169726873018</v>
+        <v>1.047906159970284</v>
       </c>
       <c r="M18">
-        <v>1.057768418023443</v>
+        <v>1.056441021977113</v>
       </c>
       <c r="N18">
-        <v>1.017881518350187</v>
+        <v>1.018073835562192</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.055172011267687</v>
+        <v>1.054122481600628</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.047207523321021</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.045850319435207</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.025295453627127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.015794966512833</v>
+        <v>1.014555539218392</v>
       </c>
       <c r="D19">
-        <v>1.037718536579257</v>
+        <v>1.035765327431195</v>
       </c>
       <c r="E19">
-        <v>1.035803020618276</v>
+        <v>1.034537337056162</v>
       </c>
       <c r="F19">
-        <v>1.044375111065281</v>
+        <v>1.043041845407537</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.058270435011796</v>
+        <v>1.057212320248662</v>
       </c>
       <c r="J19">
-        <v>1.04214303759491</v>
+        <v>1.040948231258193</v>
       </c>
       <c r="K19">
-        <v>1.050855253229353</v>
+        <v>1.048932606595212</v>
       </c>
       <c r="L19">
-        <v>1.048969708589196</v>
+        <v>1.047723906602952</v>
       </c>
       <c r="M19">
-        <v>1.057408765934926</v>
+        <v>1.056096008340824</v>
       </c>
       <c r="N19">
-        <v>1.017796972059399</v>
+        <v>1.018004263794737</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.054566759339144</v>
+        <v>1.05352847385755</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.047103008483602</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.045759586940193</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.025236807611025</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.014052731727827</v>
+        <v>1.012930081402283</v>
       </c>
       <c r="D20">
-        <v>1.036388747409997</v>
+        <v>1.03456384525644</v>
       </c>
       <c r="E20">
-        <v>1.034159454914113</v>
+        <v>1.033006002561055</v>
       </c>
       <c r="F20">
-        <v>1.042581654383085</v>
+        <v>1.041348277783795</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.057579495637859</v>
+        <v>1.0566001908483</v>
       </c>
       <c r="J20">
-        <v>1.041052489116501</v>
+        <v>1.039971511023653</v>
       </c>
       <c r="K20">
-        <v>1.049820562373982</v>
+        <v>1.048024989924324</v>
       </c>
       <c r="L20">
-        <v>1.047627116895439</v>
+        <v>1.04649229002081</v>
       </c>
       <c r="M20">
-        <v>1.055914917360072</v>
+        <v>1.054701048612956</v>
       </c>
       <c r="N20">
-        <v>1.017370341268863</v>
+        <v>1.017764700093498</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.052865379411905</v>
+        <v>1.051904745271247</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.046375326948074</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.045122139481768</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.025001965152485</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.009901678467359</v>
+        <v>1.009049858638944</v>
       </c>
       <c r="D21">
-        <v>1.033581207902563</v>
+        <v>1.032037669857384</v>
       </c>
       <c r="E21">
-        <v>1.030771395276198</v>
+        <v>1.029875179155027</v>
       </c>
       <c r="F21">
-        <v>1.039477254262418</v>
+        <v>1.038471712784047</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.056358904104427</v>
+        <v>1.055556507012096</v>
       </c>
       <c r="J21">
-        <v>1.038991169690116</v>
+        <v>1.038174022050948</v>
       </c>
       <c r="K21">
-        <v>1.047953130075507</v>
+        <v>1.046436478845651</v>
       </c>
       <c r="L21">
-        <v>1.045192339333894</v>
+        <v>1.04431183211469</v>
       </c>
       <c r="M21">
-        <v>1.053747423376972</v>
+        <v>1.052759129739727</v>
       </c>
       <c r="N21">
-        <v>1.016665202833866</v>
+        <v>1.017695791140358</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.051109794172951</v>
+        <v>1.050327636907645</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.045058197942629</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.044002540574587</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.02468109020087</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.007261954059276</v>
+        <v>1.006580510667212</v>
       </c>
       <c r="D22">
-        <v>1.031803597662307</v>
+        <v>1.03043706509509</v>
       </c>
       <c r="E22">
-        <v>1.028633862692979</v>
+        <v>1.027899161205319</v>
       </c>
       <c r="F22">
-        <v>1.037534388711703</v>
+        <v>1.036672215019924</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.05558019298185</v>
+        <v>1.054888734435762</v>
       </c>
       <c r="J22">
-        <v>1.037686688843832</v>
+        <v>1.037034571151148</v>
       </c>
       <c r="K22">
-        <v>1.046770293901339</v>
+        <v>1.045428747149839</v>
       </c>
       <c r="L22">
-        <v>1.043658647048163</v>
+        <v>1.042937476244356</v>
       </c>
       <c r="M22">
-        <v>1.052397234073125</v>
+        <v>1.051550588935118</v>
       </c>
       <c r="N22">
-        <v>1.016220348116565</v>
+        <v>1.017646687292412</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.050041224533223</v>
+        <v>1.049371170088978</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.044208578924436</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.043275423037364</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.02447670569048</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.008656767707209</v>
+        <v>1.007874404574605</v>
       </c>
       <c r="D23">
-        <v>1.032737254315431</v>
+        <v>1.031269094525871</v>
       </c>
       <c r="E23">
-        <v>1.029761144002151</v>
+        <v>1.028931302864902</v>
       </c>
       <c r="F23">
-        <v>1.038558661605192</v>
+        <v>1.037612914200959</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.05598859267355</v>
+        <v>1.055232725759223</v>
       </c>
       <c r="J23">
-        <v>1.038371899516291</v>
+        <v>1.037622233640367</v>
       </c>
       <c r="K23">
-        <v>1.047388466409818</v>
+        <v>1.045946475580959</v>
       </c>
       <c r="L23">
-        <v>1.044465504168108</v>
+        <v>1.043650553750861</v>
       </c>
       <c r="M23">
-        <v>1.053107054704641</v>
+        <v>1.052177909573037</v>
       </c>
       <c r="N23">
-        <v>1.016452671891894</v>
+        <v>1.017627701071891</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.050602992450814</v>
+        <v>1.049867646134815</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.044636137006893</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.043631021802256</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.024579318373437</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.014066631288262</v>
+        <v>1.012945780753361</v>
       </c>
       <c r="D24">
-        <v>1.036377306427849</v>
+        <v>1.034553833362391</v>
       </c>
       <c r="E24">
-        <v>1.034150201888191</v>
+        <v>1.032998415182812</v>
       </c>
       <c r="F24">
-        <v>1.042549071945713</v>
+        <v>1.041316938372828</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.057561960845716</v>
+        <v>1.056583632850022</v>
       </c>
       <c r="J24">
-        <v>1.041033747128019</v>
+        <v>1.03995444209515</v>
       </c>
       <c r="K24">
-        <v>1.049794354643343</v>
+        <v>1.04800015168922</v>
       </c>
       <c r="L24">
-        <v>1.047603017148888</v>
+        <v>1.046469805665254</v>
       </c>
       <c r="M24">
-        <v>1.055868024503209</v>
+        <v>1.054655355825071</v>
       </c>
       <c r="N24">
-        <v>1.017357535573168</v>
+        <v>1.01775166318757</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.052788081671675</v>
+        <v>1.051828351110355</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.046329772963091</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.045074879316068</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024990481458084</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.020155645943494</v>
+        <v>1.018802481600552</v>
       </c>
       <c r="D25">
-        <v>1.040493992367878</v>
+        <v>1.038378277064434</v>
       </c>
       <c r="E25">
-        <v>1.039118253464276</v>
+        <v>1.037737334533351</v>
       </c>
       <c r="F25">
-        <v>1.047069718290347</v>
+        <v>1.045620702333203</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.059296891799896</v>
+        <v>1.058145654159234</v>
       </c>
       <c r="J25">
-        <v>1.044023223997413</v>
+        <v>1.042713223212548</v>
       </c>
       <c r="K25">
-        <v>1.052494608405504</v>
+        <v>1.050408662483013</v>
       </c>
       <c r="L25">
-        <v>1.051138209554944</v>
+        <v>1.049776768677013</v>
       </c>
       <c r="M25">
-        <v>1.058978778308723</v>
+        <v>1.057549812719953</v>
       </c>
       <c r="N25">
-        <v>1.018373854651594</v>
+        <v>1.018446396747313</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.055249989679984</v>
+        <v>1.054119080918391</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.04823611820433</v>
+        <v>1.046774649445779</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.025477508118706</v>
       </c>
     </row>
   </sheetData>
